--- a/BackTest/2020-01-15 BackTest IOST.xlsx
+++ b/BackTest/2020-01-15 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.98</v>
+        <v>5.99</v>
       </c>
       <c r="C2" t="n">
-        <v>5.967</v>
+        <v>5.983</v>
       </c>
       <c r="D2" t="n">
-        <v>5.98</v>
+        <v>5.99</v>
       </c>
       <c r="E2" t="n">
-        <v>5.967</v>
+        <v>5.981</v>
       </c>
       <c r="F2" t="n">
-        <v>142373.0879</v>
+        <v>38506.8703</v>
       </c>
       <c r="G2" t="n">
-        <v>5.922199999999996</v>
+        <v>5.92208333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="C3" t="n">
-        <v>5.921</v>
+        <v>5.967</v>
       </c>
       <c r="D3" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="E3" t="n">
-        <v>5.921</v>
+        <v>5.967</v>
       </c>
       <c r="F3" t="n">
-        <v>97994.5659</v>
+        <v>142373.0879</v>
       </c>
       <c r="G3" t="n">
-        <v>5.921116666666663</v>
+        <v>5.922199999999996</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.912</v>
+        <v>5.97</v>
       </c>
       <c r="C4" t="n">
-        <v>5.912</v>
+        <v>5.921</v>
       </c>
       <c r="D4" t="n">
-        <v>5.912</v>
+        <v>5.97</v>
       </c>
       <c r="E4" t="n">
-        <v>5.912</v>
+        <v>5.921</v>
       </c>
       <c r="F4" t="n">
-        <v>77470.8331</v>
+        <v>97994.5659</v>
       </c>
       <c r="G4" t="n">
-        <v>5.919999999999996</v>
+        <v>5.921116666666663</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>5.912</v>
       </c>
       <c r="F5" t="n">
-        <v>176495.2519</v>
+        <v>77470.8331</v>
       </c>
       <c r="G5" t="n">
-        <v>5.918549999999995</v>
+        <v>5.919999999999996</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>5.912</v>
       </c>
       <c r="C6" t="n">
-        <v>5.911</v>
+        <v>5.912</v>
       </c>
       <c r="D6" t="n">
         <v>5.912</v>
       </c>
       <c r="E6" t="n">
-        <v>5.911</v>
+        <v>5.912</v>
       </c>
       <c r="F6" t="n">
-        <v>104649.0934</v>
+        <v>176495.2519</v>
       </c>
       <c r="G6" t="n">
-        <v>5.917966666666661</v>
+        <v>5.918549999999995</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.911</v>
+        <v>5.912</v>
       </c>
       <c r="C7" t="n">
         <v>5.911</v>
       </c>
       <c r="D7" t="n">
-        <v>5.911</v>
+        <v>5.912</v>
       </c>
       <c r="E7" t="n">
         <v>5.911</v>
       </c>
       <c r="F7" t="n">
-        <v>12006</v>
+        <v>104649.0934</v>
       </c>
       <c r="G7" t="n">
-        <v>5.917333333333328</v>
+        <v>5.917966666666661</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,28 +646,32 @@
         <v>5.911</v>
       </c>
       <c r="C8" t="n">
-        <v>5.901</v>
+        <v>5.911</v>
       </c>
       <c r="D8" t="n">
         <v>5.911</v>
       </c>
       <c r="E8" t="n">
-        <v>5.901</v>
+        <v>5.911</v>
       </c>
       <c r="F8" t="n">
-        <v>28974</v>
+        <v>12006</v>
       </c>
       <c r="G8" t="n">
-        <v>5.917533333333328</v>
+        <v>5.917333333333328</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.911</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -678,32 +682,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.92</v>
+        <v>5.911</v>
       </c>
       <c r="C9" t="n">
         <v>5.901</v>
       </c>
       <c r="D9" t="n">
-        <v>5.92</v>
+        <v>5.911</v>
       </c>
       <c r="E9" t="n">
         <v>5.901</v>
       </c>
       <c r="F9" t="n">
-        <v>41825</v>
+        <v>28974</v>
       </c>
       <c r="G9" t="n">
-        <v>5.917049999999994</v>
+        <v>5.917533333333328</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +725,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.904</v>
+        <v>5.92</v>
       </c>
       <c r="C10" t="n">
-        <v>5.903</v>
+        <v>5.901</v>
       </c>
       <c r="D10" t="n">
-        <v>5.904</v>
+        <v>5.92</v>
       </c>
       <c r="E10" t="n">
-        <v>5.902</v>
+        <v>5.901</v>
       </c>
       <c r="F10" t="n">
-        <v>109050</v>
+        <v>41825</v>
       </c>
       <c r="G10" t="n">
-        <v>5.916549999999996</v>
+        <v>5.917049999999994</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,8 +749,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.905</v>
+        <v>5.904</v>
       </c>
       <c r="C11" t="n">
-        <v>5.902</v>
+        <v>5.903</v>
       </c>
       <c r="D11" t="n">
-        <v>5.905</v>
+        <v>5.904</v>
       </c>
       <c r="E11" t="n">
         <v>5.902</v>
       </c>
       <c r="F11" t="n">
-        <v>13556</v>
+        <v>109050</v>
       </c>
       <c r="G11" t="n">
-        <v>5.915583333333329</v>
+        <v>5.916549999999996</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,8 +790,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +807,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.948</v>
+        <v>5.905</v>
       </c>
       <c r="C12" t="n">
-        <v>5.964</v>
+        <v>5.902</v>
       </c>
       <c r="D12" t="n">
-        <v>5.964</v>
+        <v>5.905</v>
       </c>
       <c r="E12" t="n">
-        <v>5.903</v>
+        <v>5.902</v>
       </c>
       <c r="F12" t="n">
-        <v>64912.0743</v>
+        <v>13556</v>
       </c>
       <c r="G12" t="n">
-        <v>5.915533333333329</v>
+        <v>5.915583333333329</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,8 +831,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +848,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.969</v>
+        <v>5.948</v>
       </c>
       <c r="C13" t="n">
-        <v>5.971</v>
+        <v>5.964</v>
       </c>
       <c r="D13" t="n">
-        <v>5.971</v>
+        <v>5.964</v>
       </c>
       <c r="E13" t="n">
-        <v>5.969</v>
+        <v>5.903</v>
       </c>
       <c r="F13" t="n">
-        <v>93987.98940000001</v>
+        <v>64912.0743</v>
       </c>
       <c r="G13" t="n">
-        <v>5.916049999999996</v>
+        <v>5.915533333333329</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,8 +872,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,7 +889,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.971</v>
+        <v>5.969</v>
       </c>
       <c r="C14" t="n">
         <v>5.971</v>
@@ -862,13 +898,13 @@
         <v>5.971</v>
       </c>
       <c r="E14" t="n">
-        <v>5.971</v>
+        <v>5.969</v>
       </c>
       <c r="F14" t="n">
-        <v>310706.337</v>
+        <v>93987.98940000001</v>
       </c>
       <c r="G14" t="n">
-        <v>5.916633333333329</v>
+        <v>5.916049999999996</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,8 +913,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -900,10 +942,10 @@
         <v>5.971</v>
       </c>
       <c r="F15" t="n">
-        <v>513931.25</v>
+        <v>310706.337</v>
       </c>
       <c r="G15" t="n">
-        <v>5.917266666666663</v>
+        <v>5.916633333333329</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,8 +954,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -935,10 +983,10 @@
         <v>5.971</v>
       </c>
       <c r="F16" t="n">
-        <v>86018.1553</v>
+        <v>513931.25</v>
       </c>
       <c r="G16" t="n">
-        <v>5.918166666666663</v>
+        <v>5.917266666666663</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,8 +995,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1012,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.972</v>
+        <v>5.971</v>
       </c>
       <c r="C17" t="n">
         <v>5.971</v>
       </c>
       <c r="D17" t="n">
-        <v>5.972</v>
+        <v>5.971</v>
       </c>
       <c r="E17" t="n">
         <v>5.971</v>
       </c>
       <c r="F17" t="n">
-        <v>245263.2094</v>
+        <v>86018.1553</v>
       </c>
       <c r="G17" t="n">
-        <v>5.919066666666664</v>
+        <v>5.918166666666663</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,8 +1036,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1053,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.971</v>
+        <v>5.972</v>
       </c>
       <c r="C18" t="n">
         <v>5.971</v>
       </c>
       <c r="D18" t="n">
-        <v>5.971</v>
+        <v>5.972</v>
       </c>
       <c r="E18" t="n">
         <v>5.971</v>
       </c>
       <c r="F18" t="n">
-        <v>51000</v>
+        <v>245263.2094</v>
       </c>
       <c r="G18" t="n">
-        <v>5.919649999999998</v>
+        <v>5.919066666666664</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1077,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1094,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.988</v>
+        <v>5.971</v>
       </c>
       <c r="C19" t="n">
-        <v>5.991</v>
+        <v>5.971</v>
       </c>
       <c r="D19" t="n">
-        <v>5.991</v>
+        <v>5.971</v>
       </c>
       <c r="E19" t="n">
-        <v>5.988</v>
+        <v>5.971</v>
       </c>
       <c r="F19" t="n">
-        <v>414202.1066</v>
+        <v>51000</v>
       </c>
       <c r="G19" t="n">
-        <v>5.920883333333331</v>
+        <v>5.919649999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1118,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1135,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.972</v>
+        <v>5.988</v>
       </c>
       <c r="C20" t="n">
-        <v>5.943</v>
+        <v>5.991</v>
       </c>
       <c r="D20" t="n">
-        <v>5.972</v>
+        <v>5.991</v>
       </c>
       <c r="E20" t="n">
-        <v>5.943</v>
+        <v>5.988</v>
       </c>
       <c r="F20" t="n">
-        <v>379747.427</v>
+        <v>414202.1066</v>
       </c>
       <c r="G20" t="n">
-        <v>5.921399999999998</v>
+        <v>5.920883333333331</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1159,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1176,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.017</v>
+        <v>5.972</v>
       </c>
       <c r="C21" t="n">
-        <v>6.05</v>
+        <v>5.943</v>
       </c>
       <c r="D21" t="n">
-        <v>6.05</v>
+        <v>5.972</v>
       </c>
       <c r="E21" t="n">
-        <v>6.017</v>
+        <v>5.943</v>
       </c>
       <c r="F21" t="n">
-        <v>44171.4891</v>
+        <v>379747.427</v>
       </c>
       <c r="G21" t="n">
-        <v>5.923699999999998</v>
+        <v>5.921399999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1200,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1217,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.009</v>
+        <v>6.017</v>
       </c>
       <c r="C22" t="n">
-        <v>6.054</v>
+        <v>6.05</v>
       </c>
       <c r="D22" t="n">
-        <v>6.054</v>
+        <v>6.05</v>
       </c>
       <c r="E22" t="n">
-        <v>6.009</v>
+        <v>6.017</v>
       </c>
       <c r="F22" t="n">
-        <v>207277.3298</v>
+        <v>44171.4891</v>
       </c>
       <c r="G22" t="n">
-        <v>5.926066666666665</v>
+        <v>5.923699999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1241,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1258,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.021</v>
+        <v>6.009</v>
       </c>
       <c r="C23" t="n">
-        <v>6.02</v>
+        <v>6.054</v>
       </c>
       <c r="D23" t="n">
-        <v>6.021</v>
+        <v>6.054</v>
       </c>
       <c r="E23" t="n">
-        <v>6.02</v>
+        <v>6.009</v>
       </c>
       <c r="F23" t="n">
-        <v>65887</v>
+        <v>207277.3298</v>
       </c>
       <c r="G23" t="n">
-        <v>5.927866666666665</v>
+        <v>5.926066666666665</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1282,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1299,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>6.021</v>
+      </c>
+      <c r="C24" t="n">
         <v>6.02</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6.01</v>
       </c>
       <c r="D24" t="n">
         <v>6.021</v>
       </c>
       <c r="E24" t="n">
-        <v>6.003</v>
+        <v>6.02</v>
       </c>
       <c r="F24" t="n">
-        <v>75770</v>
+        <v>65887</v>
       </c>
       <c r="G24" t="n">
-        <v>5.929499999999999</v>
+        <v>5.927866666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1323,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.98</v>
+        <v>6.02</v>
       </c>
       <c r="C25" t="n">
-        <v>5.98</v>
+        <v>6.01</v>
       </c>
       <c r="D25" t="n">
-        <v>5.98</v>
+        <v>6.021</v>
       </c>
       <c r="E25" t="n">
-        <v>5.98</v>
+        <v>6.003</v>
       </c>
       <c r="F25" t="n">
-        <v>3856</v>
+        <v>75770</v>
       </c>
       <c r="G25" t="n">
-        <v>5.931449999999999</v>
+        <v>5.929499999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1364,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1381,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.976</v>
+        <v>5.98</v>
       </c>
       <c r="C26" t="n">
-        <v>5.982</v>
+        <v>5.98</v>
       </c>
       <c r="D26" t="n">
-        <v>5.983</v>
+        <v>5.98</v>
       </c>
       <c r="E26" t="n">
-        <v>5.976</v>
+        <v>5.98</v>
       </c>
       <c r="F26" t="n">
-        <v>186375</v>
+        <v>3856</v>
       </c>
       <c r="G26" t="n">
-        <v>5.933449999999999</v>
+        <v>5.931449999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1405,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,7 +1422,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.983</v>
+        <v>5.976</v>
       </c>
       <c r="C27" t="n">
         <v>5.982</v>
@@ -1317,13 +1431,13 @@
         <v>5.983</v>
       </c>
       <c r="E27" t="n">
-        <v>5.982</v>
+        <v>5.976</v>
       </c>
       <c r="F27" t="n">
-        <v>44277</v>
+        <v>186375</v>
       </c>
       <c r="G27" t="n">
-        <v>5.9355</v>
+        <v>5.933449999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1446,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1463,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.995</v>
+        <v>5.983</v>
       </c>
       <c r="C28" t="n">
-        <v>5.995</v>
+        <v>5.982</v>
       </c>
       <c r="D28" t="n">
-        <v>5.995</v>
+        <v>5.983</v>
       </c>
       <c r="E28" t="n">
-        <v>5.995</v>
+        <v>5.982</v>
       </c>
       <c r="F28" t="n">
-        <v>42480</v>
+        <v>44277</v>
       </c>
       <c r="G28" t="n">
-        <v>5.938066666666667</v>
+        <v>5.9355</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1487,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1504,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.989</v>
+        <v>5.995</v>
       </c>
       <c r="C29" t="n">
-        <v>5.989</v>
+        <v>5.995</v>
       </c>
       <c r="D29" t="n">
-        <v>5.989</v>
+        <v>5.995</v>
       </c>
       <c r="E29" t="n">
-        <v>5.989</v>
+        <v>5.995</v>
       </c>
       <c r="F29" t="n">
-        <v>8312.5</v>
+        <v>42480</v>
       </c>
       <c r="G29" t="n">
-        <v>5.940183333333333</v>
+        <v>5.938066666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1528,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1545,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.028</v>
+        <v>5.989</v>
       </c>
       <c r="C30" t="n">
-        <v>6.028</v>
+        <v>5.989</v>
       </c>
       <c r="D30" t="n">
-        <v>6.028</v>
+        <v>5.989</v>
       </c>
       <c r="E30" t="n">
-        <v>6.028</v>
+        <v>5.989</v>
       </c>
       <c r="F30" t="n">
-        <v>92645</v>
+        <v>8312.5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.942766666666667</v>
+        <v>5.940183333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1569,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1460,20 +1598,28 @@
         <v>6.028</v>
       </c>
       <c r="F31" t="n">
-        <v>14697.3885</v>
+        <v>92645</v>
       </c>
       <c r="G31" t="n">
-        <v>5.945766666666667</v>
+        <v>5.942766666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1629,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.994</v>
+        <v>6.028</v>
       </c>
       <c r="C32" t="n">
-        <v>6.027</v>
+        <v>6.028</v>
       </c>
       <c r="D32" t="n">
-        <v>6.027</v>
+        <v>6.028</v>
       </c>
       <c r="E32" t="n">
-        <v>5.994</v>
+        <v>6.028</v>
       </c>
       <c r="F32" t="n">
-        <v>116935.9075</v>
+        <v>14697.3885</v>
       </c>
       <c r="G32" t="n">
-        <v>5.948099999999999</v>
+        <v>5.945766666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1653,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1670,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.026</v>
+        <v>5.994</v>
       </c>
       <c r="C33" t="n">
-        <v>6.026</v>
+        <v>6.027</v>
       </c>
       <c r="D33" t="n">
-        <v>6.026</v>
+        <v>6.027</v>
       </c>
       <c r="E33" t="n">
-        <v>6.026</v>
+        <v>5.994</v>
       </c>
       <c r="F33" t="n">
-        <v>6264.7257</v>
+        <v>116935.9075</v>
       </c>
       <c r="G33" t="n">
-        <v>5.950816666666666</v>
+        <v>5.948099999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,10 +1694,16 @@
         <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>1.014624429030621</v>
       </c>
     </row>
     <row r="34">
@@ -1553,22 +1711,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.03</v>
+        <v>6.026</v>
       </c>
       <c r="C34" t="n">
-        <v>6.036</v>
+        <v>6.026</v>
       </c>
       <c r="D34" t="n">
-        <v>6.037</v>
+        <v>6.026</v>
       </c>
       <c r="E34" t="n">
-        <v>6.03</v>
+        <v>6.026</v>
       </c>
       <c r="F34" t="n">
-        <v>28723.751</v>
+        <v>6264.7257</v>
       </c>
       <c r="G34" t="n">
-        <v>5.953683333333333</v>
+        <v>5.950816666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,28 +1746,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.035</v>
+        <v>6.03</v>
       </c>
       <c r="C35" t="n">
         <v>6.036</v>
       </c>
       <c r="D35" t="n">
-        <v>6.036</v>
+        <v>6.037</v>
       </c>
       <c r="E35" t="n">
-        <v>6.035</v>
+        <v>6.03</v>
       </c>
       <c r="F35" t="n">
-        <v>165674.95029821</v>
+        <v>28723.751</v>
       </c>
       <c r="G35" t="n">
-        <v>5.956616666666666</v>
+        <v>5.953683333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1623,22 +1781,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.007</v>
+        <v>6.035</v>
       </c>
       <c r="C36" t="n">
-        <v>6.01</v>
+        <v>6.036</v>
       </c>
       <c r="D36" t="n">
-        <v>6.01</v>
+        <v>6.036</v>
       </c>
       <c r="E36" t="n">
-        <v>6.007</v>
+        <v>6.035</v>
       </c>
       <c r="F36" t="n">
-        <v>175</v>
+        <v>165674.95029821</v>
       </c>
       <c r="G36" t="n">
-        <v>5.959066666666667</v>
+        <v>5.956616666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1816,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.037</v>
+        <v>6.007</v>
       </c>
       <c r="C37" t="n">
-        <v>6.037</v>
+        <v>6.01</v>
       </c>
       <c r="D37" t="n">
-        <v>6.037</v>
+        <v>6.01</v>
       </c>
       <c r="E37" t="n">
-        <v>6.037</v>
+        <v>6.007</v>
       </c>
       <c r="F37" t="n">
-        <v>495.7365</v>
+        <v>175</v>
       </c>
       <c r="G37" t="n">
-        <v>5.961966666666666</v>
+        <v>5.959066666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,28 +1851,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.01</v>
+        <v>6.037</v>
       </c>
       <c r="C38" t="n">
-        <v>6.01</v>
+        <v>6.037</v>
       </c>
       <c r="D38" t="n">
-        <v>6.01</v>
+        <v>6.037</v>
       </c>
       <c r="E38" t="n">
-        <v>6.01</v>
+        <v>6.037</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>495.7365</v>
       </c>
       <c r="G38" t="n">
-        <v>5.963783333333333</v>
+        <v>5.961966666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1728,28 +1886,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.013</v>
+        <v>6.01</v>
       </c>
       <c r="C39" t="n">
-        <v>6.013</v>
+        <v>6.01</v>
       </c>
       <c r="D39" t="n">
-        <v>6.013</v>
+        <v>6.01</v>
       </c>
       <c r="E39" t="n">
-        <v>6.013</v>
+        <v>6.01</v>
       </c>
       <c r="F39" t="n">
         <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>5.966149999999999</v>
+        <v>5.963783333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1763,22 +1921,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.037</v>
+        <v>6.013</v>
       </c>
       <c r="C40" t="n">
-        <v>6.037</v>
+        <v>6.013</v>
       </c>
       <c r="D40" t="n">
-        <v>6.037</v>
+        <v>6.013</v>
       </c>
       <c r="E40" t="n">
-        <v>6.037</v>
+        <v>6.013</v>
       </c>
       <c r="F40" t="n">
-        <v>8471.148300000001</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>5.968916666666666</v>
+        <v>5.966149999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1968,10 @@
         <v>6.037</v>
       </c>
       <c r="F41" t="n">
-        <v>65757.8815</v>
+        <v>8471.148300000001</v>
       </c>
       <c r="G41" t="n">
-        <v>5.970999999999999</v>
+        <v>5.968916666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +2003,10 @@
         <v>6.037</v>
       </c>
       <c r="F42" t="n">
-        <v>138030.0094</v>
+        <v>65757.8815</v>
       </c>
       <c r="G42" t="n">
-        <v>5.973083333333332</v>
+        <v>5.970999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +2029,19 @@
         <v>6.037</v>
       </c>
       <c r="C43" t="n">
-        <v>6.043</v>
+        <v>6.037</v>
       </c>
       <c r="D43" t="n">
-        <v>6.046</v>
+        <v>6.037</v>
       </c>
       <c r="E43" t="n">
         <v>6.037</v>
       </c>
       <c r="F43" t="n">
-        <v>365325.5757</v>
+        <v>138030.0094</v>
       </c>
       <c r="G43" t="n">
-        <v>5.975266666666666</v>
+        <v>5.973083333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +2061,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="C44" t="n">
         <v>6.043</v>
       </c>
-      <c r="C44" t="n">
-        <v>6.06</v>
-      </c>
       <c r="D44" t="n">
-        <v>6.06</v>
+        <v>6.046</v>
       </c>
       <c r="E44" t="n">
-        <v>6.043</v>
+        <v>6.037</v>
       </c>
       <c r="F44" t="n">
-        <v>495860.1774</v>
+        <v>365325.5757</v>
       </c>
       <c r="G44" t="n">
-        <v>5.978183333333333</v>
+        <v>5.975266666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +2096,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.071</v>
+        <v>6.043</v>
       </c>
       <c r="C45" t="n">
-        <v>6.071</v>
+        <v>6.06</v>
       </c>
       <c r="D45" t="n">
-        <v>6.071</v>
+        <v>6.06</v>
       </c>
       <c r="E45" t="n">
-        <v>6.071</v>
+        <v>6.043</v>
       </c>
       <c r="F45" t="n">
-        <v>637188.5459</v>
+        <v>495860.1774</v>
       </c>
       <c r="G45" t="n">
-        <v>5.98055</v>
+        <v>5.978183333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +2134,19 @@
         <v>6.071</v>
       </c>
       <c r="C46" t="n">
-        <v>6.118</v>
+        <v>6.071</v>
       </c>
       <c r="D46" t="n">
-        <v>6.118</v>
+        <v>6.071</v>
       </c>
       <c r="E46" t="n">
         <v>6.071</v>
       </c>
       <c r="F46" t="n">
-        <v>113216.4855</v>
+        <v>637188.5459</v>
       </c>
       <c r="G46" t="n">
-        <v>5.983433333333334</v>
+        <v>5.98055</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,28 +2166,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.043</v>
+        <v>6.071</v>
       </c>
       <c r="C47" t="n">
-        <v>6.109</v>
+        <v>6.118</v>
       </c>
       <c r="D47" t="n">
-        <v>6.119</v>
+        <v>6.118</v>
       </c>
       <c r="E47" t="n">
-        <v>6.043</v>
+        <v>6.071</v>
       </c>
       <c r="F47" t="n">
-        <v>224247.2988</v>
+        <v>113216.4855</v>
       </c>
       <c r="G47" t="n">
-        <v>5.986166666666667</v>
+        <v>5.983433333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2043,28 +2201,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.109</v>
+        <v>6.043</v>
       </c>
       <c r="C48" t="n">
         <v>6.109</v>
       </c>
       <c r="D48" t="n">
-        <v>6.109</v>
+        <v>6.119</v>
       </c>
       <c r="E48" t="n">
-        <v>6.109</v>
+        <v>6.043</v>
       </c>
       <c r="F48" t="n">
-        <v>600000</v>
+        <v>224247.2988</v>
       </c>
       <c r="G48" t="n">
-        <v>5.989633333333333</v>
+        <v>5.986166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2081,19 +2239,19 @@
         <v>6.109</v>
       </c>
       <c r="C49" t="n">
-        <v>6.06</v>
+        <v>6.109</v>
       </c>
       <c r="D49" t="n">
         <v>6.109</v>
       </c>
       <c r="E49" t="n">
-        <v>6.06</v>
+        <v>6.109</v>
       </c>
       <c r="F49" t="n">
-        <v>121132.1266</v>
+        <v>600000</v>
       </c>
       <c r="G49" t="n">
-        <v>5.992283333333333</v>
+        <v>5.989633333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,28 +2271,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.1</v>
+        <v>6.109</v>
       </c>
       <c r="C50" t="n">
-        <v>6.1</v>
+        <v>6.06</v>
       </c>
       <c r="D50" t="n">
-        <v>6.1</v>
+        <v>6.109</v>
       </c>
       <c r="E50" t="n">
-        <v>6.1</v>
+        <v>6.06</v>
       </c>
       <c r="F50" t="n">
-        <v>49522.6066</v>
+        <v>121132.1266</v>
       </c>
       <c r="G50" t="n">
-        <v>5.995033333333334</v>
+        <v>5.992283333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2148,7 +2306,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.073</v>
+        <v>6.1</v>
       </c>
       <c r="C51" t="n">
         <v>6.1</v>
@@ -2157,13 +2315,13 @@
         <v>6.1</v>
       </c>
       <c r="E51" t="n">
-        <v>6.073</v>
+        <v>6.1</v>
       </c>
       <c r="F51" t="n">
-        <v>364861.9677</v>
+        <v>49522.6066</v>
       </c>
       <c r="G51" t="n">
-        <v>5.997783333333333</v>
+        <v>5.995033333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2341,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.081</v>
+        <v>6.073</v>
       </c>
       <c r="C52" t="n">
-        <v>6.071</v>
+        <v>6.1</v>
       </c>
       <c r="D52" t="n">
-        <v>6.083</v>
+        <v>6.1</v>
       </c>
       <c r="E52" t="n">
-        <v>6.071</v>
+        <v>6.073</v>
       </c>
       <c r="F52" t="n">
-        <v>201977.945</v>
+        <v>364861.9677</v>
       </c>
       <c r="G52" t="n">
-        <v>6.0003</v>
+        <v>5.997783333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2376,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.108</v>
+        <v>6.081</v>
       </c>
       <c r="C53" t="n">
-        <v>6.108</v>
+        <v>6.071</v>
       </c>
       <c r="D53" t="n">
-        <v>6.108</v>
+        <v>6.083</v>
       </c>
       <c r="E53" t="n">
-        <v>6.108</v>
+        <v>6.071</v>
       </c>
       <c r="F53" t="n">
-        <v>91253.1556</v>
+        <v>201977.945</v>
       </c>
       <c r="G53" t="n">
-        <v>6.003100000000001</v>
+        <v>6.0003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2411,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.081</v>
+        <v>6.108</v>
       </c>
       <c r="C54" t="n">
-        <v>6.12</v>
+        <v>6.108</v>
       </c>
       <c r="D54" t="n">
-        <v>6.12</v>
+        <v>6.108</v>
       </c>
       <c r="E54" t="n">
-        <v>6.081</v>
+        <v>6.108</v>
       </c>
       <c r="F54" t="n">
-        <v>15660.5393</v>
+        <v>91253.1556</v>
       </c>
       <c r="G54" t="n">
-        <v>6.005133333333334</v>
+        <v>6.003100000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2446,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.09</v>
+        <v>6.081</v>
       </c>
       <c r="C55" t="n">
-        <v>6.08</v>
+        <v>6.12</v>
       </c>
       <c r="D55" t="n">
-        <v>6.09</v>
+        <v>6.12</v>
       </c>
       <c r="E55" t="n">
-        <v>6.08</v>
+        <v>6.081</v>
       </c>
       <c r="F55" t="n">
-        <v>17829.9436</v>
+        <v>15660.5393</v>
       </c>
       <c r="G55" t="n">
-        <v>6.007133333333334</v>
+        <v>6.005133333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2484,19 @@
         <v>6.09</v>
       </c>
       <c r="C56" t="n">
-        <v>6.085</v>
+        <v>6.08</v>
       </c>
       <c r="D56" t="n">
         <v>6.09</v>
       </c>
       <c r="E56" t="n">
-        <v>6.085</v>
+        <v>6.08</v>
       </c>
       <c r="F56" t="n">
-        <v>12364.4799</v>
+        <v>17829.9436</v>
       </c>
       <c r="G56" t="n">
-        <v>6.008566666666667</v>
+        <v>6.007133333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2516,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.069</v>
+        <v>6.09</v>
       </c>
       <c r="C57" t="n">
-        <v>6.069</v>
+        <v>6.085</v>
       </c>
       <c r="D57" t="n">
-        <v>6.069</v>
+        <v>6.09</v>
       </c>
       <c r="E57" t="n">
-        <v>6.069</v>
+        <v>6.085</v>
       </c>
       <c r="F57" t="n">
-        <v>12000</v>
+        <v>12364.4799</v>
       </c>
       <c r="G57" t="n">
-        <v>6.009483333333334</v>
+        <v>6.008566666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2551,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.09</v>
+        <v>6.069</v>
       </c>
       <c r="C58" t="n">
-        <v>6.092</v>
+        <v>6.069</v>
       </c>
       <c r="D58" t="n">
-        <v>6.092</v>
+        <v>6.069</v>
       </c>
       <c r="E58" t="n">
-        <v>6.09</v>
+        <v>6.069</v>
       </c>
       <c r="F58" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="G58" t="n">
-        <v>6.010633333333333</v>
+        <v>6.009483333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2586,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.105</v>
+        <v>6.09</v>
       </c>
       <c r="C59" t="n">
-        <v>6.105</v>
+        <v>6.092</v>
       </c>
       <c r="D59" t="n">
-        <v>6.105</v>
+        <v>6.092</v>
       </c>
       <c r="E59" t="n">
-        <v>6.105</v>
+        <v>6.09</v>
       </c>
       <c r="F59" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="G59" t="n">
-        <v>6.01255</v>
+        <v>6.010633333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2621,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.095</v>
+        <v>6.105</v>
       </c>
       <c r="C60" t="n">
-        <v>6.095</v>
+        <v>6.105</v>
       </c>
       <c r="D60" t="n">
-        <v>6.095</v>
+        <v>6.105</v>
       </c>
       <c r="E60" t="n">
-        <v>6.095</v>
+        <v>6.105</v>
       </c>
       <c r="F60" t="n">
-        <v>7157.0203</v>
+        <v>12000</v>
       </c>
       <c r="G60" t="n">
-        <v>6.01445</v>
+        <v>6.01255</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2656,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.096</v>
+        <v>6.095</v>
       </c>
       <c r="C61" t="n">
-        <v>6.096</v>
+        <v>6.095</v>
       </c>
       <c r="D61" t="n">
-        <v>6.096</v>
+        <v>6.095</v>
       </c>
       <c r="E61" t="n">
-        <v>6.096</v>
+        <v>6.095</v>
       </c>
       <c r="F61" t="n">
-        <v>5577.8953</v>
+        <v>7157.0203</v>
       </c>
       <c r="G61" t="n">
-        <v>6.016333333333334</v>
+        <v>6.01445</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2691,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.109</v>
+        <v>6.096</v>
       </c>
       <c r="C62" t="n">
-        <v>6.109</v>
+        <v>6.096</v>
       </c>
       <c r="D62" t="n">
-        <v>6.109</v>
+        <v>6.096</v>
       </c>
       <c r="E62" t="n">
-        <v>6.109</v>
+        <v>6.096</v>
       </c>
       <c r="F62" t="n">
-        <v>207.5163</v>
+        <v>5577.8953</v>
       </c>
       <c r="G62" t="n">
-        <v>6.0187</v>
+        <v>6.016333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2726,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.12</v>
+        <v>6.109</v>
       </c>
       <c r="C63" t="n">
-        <v>6.133</v>
+        <v>6.109</v>
       </c>
       <c r="D63" t="n">
-        <v>6.133</v>
+        <v>6.109</v>
       </c>
       <c r="E63" t="n">
-        <v>6.12</v>
+        <v>6.109</v>
       </c>
       <c r="F63" t="n">
-        <v>16305.23398031</v>
+        <v>207.5163</v>
       </c>
       <c r="G63" t="n">
-        <v>6.022233333333333</v>
+        <v>6.0187</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2761,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.095</v>
+        <v>6.12</v>
       </c>
       <c r="C64" t="n">
-        <v>6.092</v>
+        <v>6.133</v>
       </c>
       <c r="D64" t="n">
-        <v>6.095</v>
+        <v>6.133</v>
       </c>
       <c r="E64" t="n">
-        <v>6.092</v>
+        <v>6.12</v>
       </c>
       <c r="F64" t="n">
-        <v>35990.473</v>
+        <v>16305.23398031</v>
       </c>
       <c r="G64" t="n">
-        <v>6.025233333333333</v>
+        <v>6.022233333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2796,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.018</v>
+        <v>6.095</v>
       </c>
       <c r="C65" t="n">
-        <v>6.073</v>
+        <v>6.092</v>
       </c>
       <c r="D65" t="n">
-        <v>6.073</v>
+        <v>6.095</v>
       </c>
       <c r="E65" t="n">
-        <v>6.017</v>
+        <v>6.092</v>
       </c>
       <c r="F65" t="n">
-        <v>181993.8357</v>
+        <v>35990.473</v>
       </c>
       <c r="G65" t="n">
-        <v>6.027916666666667</v>
+        <v>6.025233333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2831,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.073</v>
+        <v>6.018</v>
       </c>
       <c r="C66" t="n">
         <v>6.073</v>
@@ -2682,13 +2840,13 @@
         <v>6.073</v>
       </c>
       <c r="E66" t="n">
-        <v>6.073</v>
+        <v>6.017</v>
       </c>
       <c r="F66" t="n">
-        <v>1285.1518</v>
+        <v>181993.8357</v>
       </c>
       <c r="G66" t="n">
-        <v>6.030616666666666</v>
+        <v>6.027916666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2866,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.096</v>
+        <v>6.073</v>
       </c>
       <c r="C67" t="n">
-        <v>6.108</v>
+        <v>6.073</v>
       </c>
       <c r="D67" t="n">
-        <v>6.108</v>
+        <v>6.073</v>
       </c>
       <c r="E67" t="n">
-        <v>6.096</v>
+        <v>6.073</v>
       </c>
       <c r="F67" t="n">
-        <v>219000</v>
+        <v>1285.1518</v>
       </c>
       <c r="G67" t="n">
-        <v>6.0339</v>
+        <v>6.030616666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2901,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.083</v>
+        <v>6.096</v>
       </c>
       <c r="C68" t="n">
-        <v>6.083</v>
+        <v>6.108</v>
       </c>
       <c r="D68" t="n">
-        <v>6.083</v>
+        <v>6.108</v>
       </c>
       <c r="E68" t="n">
-        <v>6.083</v>
+        <v>6.096</v>
       </c>
       <c r="F68" t="n">
-        <v>17354.1797</v>
+        <v>219000</v>
       </c>
       <c r="G68" t="n">
-        <v>6.036933333333334</v>
+        <v>6.0339</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2936,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.08</v>
+        <v>6.083</v>
       </c>
       <c r="C69" t="n">
-        <v>6.08</v>
+        <v>6.083</v>
       </c>
       <c r="D69" t="n">
-        <v>6.08</v>
+        <v>6.083</v>
       </c>
       <c r="E69" t="n">
-        <v>6.08</v>
+        <v>6.083</v>
       </c>
       <c r="F69" t="n">
-        <v>2390.2078</v>
+        <v>17354.1797</v>
       </c>
       <c r="G69" t="n">
-        <v>6.039916666666667</v>
+        <v>6.036933333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2971,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.073</v>
+        <v>6.08</v>
       </c>
       <c r="C70" t="n">
-        <v>6.072</v>
+        <v>6.08</v>
       </c>
       <c r="D70" t="n">
-        <v>6.073</v>
+        <v>6.08</v>
       </c>
       <c r="E70" t="n">
-        <v>6.072</v>
+        <v>6.08</v>
       </c>
       <c r="F70" t="n">
-        <v>32956.6488</v>
+        <v>2390.2078</v>
       </c>
       <c r="G70" t="n">
-        <v>6.042733333333333</v>
+        <v>6.039916666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +3006,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="C71" t="n">
         <v>6.072</v>
       </c>
-      <c r="C71" t="n">
-        <v>6.07</v>
-      </c>
       <c r="D71" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="E71" t="n">
         <v>6.072</v>
       </c>
-      <c r="E71" t="n">
-        <v>6.07</v>
-      </c>
       <c r="F71" t="n">
-        <v>12629.9124</v>
+        <v>32956.6488</v>
       </c>
       <c r="G71" t="n">
-        <v>6.045533333333333</v>
+        <v>6.042733333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,10 +3041,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>6.072</v>
+      </c>
+      <c r="C72" t="n">
         <v>6.07</v>
-      </c>
-      <c r="C72" t="n">
-        <v>6.072</v>
       </c>
       <c r="D72" t="n">
         <v>6.072</v>
@@ -2895,10 +3053,10 @@
         <v>6.07</v>
       </c>
       <c r="F72" t="n">
-        <v>19284.0241</v>
+        <v>12629.9124</v>
       </c>
       <c r="G72" t="n">
-        <v>6.047333333333333</v>
+        <v>6.045533333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +3079,19 @@
         <v>6.07</v>
       </c>
       <c r="C73" t="n">
-        <v>6.07</v>
+        <v>6.072</v>
       </c>
       <c r="D73" t="n">
-        <v>6.07</v>
+        <v>6.072</v>
       </c>
       <c r="E73" t="n">
         <v>6.07</v>
       </c>
       <c r="F73" t="n">
-        <v>1351.4441</v>
+        <v>19284.0241</v>
       </c>
       <c r="G73" t="n">
-        <v>6.048983333333333</v>
+        <v>6.047333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3111,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="C74" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="D74" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="E74" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="F74" t="n">
-        <v>4112.2946</v>
+        <v>1351.4441</v>
       </c>
       <c r="G74" t="n">
-        <v>6.050299999999999</v>
+        <v>6.048983333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3158,10 @@
         <v>6.05</v>
       </c>
       <c r="F75" t="n">
-        <v>1850.4501</v>
+        <v>4112.2946</v>
       </c>
       <c r="G75" t="n">
-        <v>6.051616666666666</v>
+        <v>6.050299999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3193,10 @@
         <v>6.05</v>
       </c>
       <c r="F76" t="n">
-        <v>21639.2181</v>
+        <v>1850.4501</v>
       </c>
       <c r="G76" t="n">
-        <v>6.052933333333333</v>
+        <v>6.051616666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3228,10 @@
         <v>6.05</v>
       </c>
       <c r="F77" t="n">
-        <v>78472.72169999999</v>
+        <v>21639.2181</v>
       </c>
       <c r="G77" t="n">
-        <v>6.05425</v>
+        <v>6.052933333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3251,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.041</v>
+        <v>6.05</v>
       </c>
       <c r="C78" t="n">
-        <v>6.041</v>
+        <v>6.05</v>
       </c>
       <c r="D78" t="n">
-        <v>6.041</v>
+        <v>6.05</v>
       </c>
       <c r="E78" t="n">
-        <v>6.041</v>
+        <v>6.05</v>
       </c>
       <c r="F78" t="n">
-        <v>4553.687</v>
+        <v>78472.72169999999</v>
       </c>
       <c r="G78" t="n">
-        <v>6.055416666666667</v>
+        <v>6.05425</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3289,19 @@
         <v>6.041</v>
       </c>
       <c r="C79" t="n">
-        <v>6.04</v>
+        <v>6.041</v>
       </c>
       <c r="D79" t="n">
         <v>6.041</v>
       </c>
       <c r="E79" t="n">
-        <v>6.04</v>
+        <v>6.041</v>
       </c>
       <c r="F79" t="n">
-        <v>8178.4179</v>
+        <v>4553.687</v>
       </c>
       <c r="G79" t="n">
-        <v>6.056233333333334</v>
+        <v>6.055416666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3321,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.04</v>
+        <v>6.041</v>
       </c>
       <c r="C80" t="n">
         <v>6.04</v>
       </c>
       <c r="D80" t="n">
-        <v>6.04</v>
+        <v>6.041</v>
       </c>
       <c r="E80" t="n">
         <v>6.04</v>
       </c>
       <c r="F80" t="n">
-        <v>3942.4702</v>
+        <v>8178.4179</v>
       </c>
       <c r="G80" t="n">
-        <v>6.057850000000001</v>
+        <v>6.056233333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,31 +3356,35 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.032</v>
+        <v>6.04</v>
       </c>
       <c r="C81" t="n">
-        <v>6.032</v>
+        <v>6.04</v>
       </c>
       <c r="D81" t="n">
-        <v>6.032</v>
+        <v>6.04</v>
       </c>
       <c r="E81" t="n">
-        <v>6.031</v>
+        <v>6.04</v>
       </c>
       <c r="F81" t="n">
-        <v>120712.8991</v>
+        <v>3942.4702</v>
       </c>
       <c r="G81" t="n">
-        <v>6.057550000000001</v>
+        <v>6.057850000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K81" t="n">
+        <v>6.04</v>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
@@ -3233,32 +3395,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.031</v>
+        <v>6.032</v>
       </c>
       <c r="C82" t="n">
-        <v>6.031</v>
+        <v>6.032</v>
       </c>
       <c r="D82" t="n">
-        <v>6.031</v>
+        <v>6.032</v>
       </c>
       <c r="E82" t="n">
         <v>6.031</v>
       </c>
       <c r="F82" t="n">
-        <v>9434.763999999999</v>
+        <v>120712.8991</v>
       </c>
       <c r="G82" t="n">
-        <v>6.057166666666668</v>
+        <v>6.057550000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K82" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3438,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.98</v>
+        <v>6.031</v>
       </c>
       <c r="C83" t="n">
-        <v>5.97</v>
+        <v>6.031</v>
       </c>
       <c r="D83" t="n">
-        <v>5.98</v>
+        <v>6.031</v>
       </c>
       <c r="E83" t="n">
-        <v>5.97</v>
+        <v>6.031</v>
       </c>
       <c r="F83" t="n">
-        <v>7871.6306</v>
+        <v>9434.763999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>6.056333333333336</v>
+        <v>6.057166666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3462,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3479,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.99</v>
+        <v>5.98</v>
       </c>
       <c r="C84" t="n">
-        <v>5.992</v>
+        <v>5.97</v>
       </c>
       <c r="D84" t="n">
-        <v>5.992</v>
+        <v>5.98</v>
       </c>
       <c r="E84" t="n">
-        <v>5.99</v>
+        <v>5.97</v>
       </c>
       <c r="F84" t="n">
-        <v>86993.26850000001</v>
+        <v>7871.6306</v>
       </c>
       <c r="G84" t="n">
-        <v>6.056033333333335</v>
+        <v>6.056333333333336</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3503,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,7 +3520,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.992</v>
+        <v>5.99</v>
       </c>
       <c r="C85" t="n">
         <v>5.992</v>
@@ -3347,13 +3529,13 @@
         <v>5.992</v>
       </c>
       <c r="E85" t="n">
-        <v>5.992</v>
+        <v>5.99</v>
       </c>
       <c r="F85" t="n">
-        <v>28333.3673</v>
+        <v>86993.26850000001</v>
       </c>
       <c r="G85" t="n">
-        <v>6.056233333333336</v>
+        <v>6.056033333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3544,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3561,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.983</v>
+        <v>5.992</v>
       </c>
       <c r="C86" t="n">
-        <v>5.983</v>
+        <v>5.992</v>
       </c>
       <c r="D86" t="n">
-        <v>5.983</v>
+        <v>5.992</v>
       </c>
       <c r="E86" t="n">
-        <v>5.983</v>
+        <v>5.992</v>
       </c>
       <c r="F86" t="n">
-        <v>132905.2833</v>
+        <v>28333.3673</v>
       </c>
       <c r="G86" t="n">
-        <v>6.056250000000002</v>
+        <v>6.056233333333336</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3585,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3602,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.978</v>
+        <v>5.983</v>
       </c>
       <c r="C87" t="n">
-        <v>5.978</v>
+        <v>5.983</v>
       </c>
       <c r="D87" t="n">
-        <v>5.978</v>
+        <v>5.983</v>
       </c>
       <c r="E87" t="n">
-        <v>5.978</v>
+        <v>5.983</v>
       </c>
       <c r="F87" t="n">
-        <v>26481.9081</v>
+        <v>132905.2833</v>
       </c>
       <c r="G87" t="n">
-        <v>6.056183333333335</v>
+        <v>6.056250000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3626,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3643,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.953</v>
+        <v>5.978</v>
       </c>
       <c r="C88" t="n">
-        <v>5.953</v>
+        <v>5.978</v>
       </c>
       <c r="D88" t="n">
-        <v>5.953</v>
+        <v>5.978</v>
       </c>
       <c r="E88" t="n">
-        <v>5.953</v>
+        <v>5.978</v>
       </c>
       <c r="F88" t="n">
-        <v>15673.0109</v>
+        <v>26481.9081</v>
       </c>
       <c r="G88" t="n">
-        <v>6.055483333333334</v>
+        <v>6.056183333333335</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3667,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3684,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.961</v>
+        <v>5.953</v>
       </c>
       <c r="C89" t="n">
-        <v>5.961</v>
+        <v>5.953</v>
       </c>
       <c r="D89" t="n">
-        <v>5.961</v>
+        <v>5.953</v>
       </c>
       <c r="E89" t="n">
-        <v>5.961</v>
+        <v>5.953</v>
       </c>
       <c r="F89" t="n">
-        <v>98287.9596</v>
+        <v>15673.0109</v>
       </c>
       <c r="G89" t="n">
-        <v>6.055016666666669</v>
+        <v>6.055483333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3708,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3725,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.003</v>
+        <v>5.961</v>
       </c>
       <c r="C90" t="n">
-        <v>6.003</v>
+        <v>5.961</v>
       </c>
       <c r="D90" t="n">
-        <v>6.003</v>
+        <v>5.961</v>
       </c>
       <c r="E90" t="n">
-        <v>6.003</v>
+        <v>5.961</v>
       </c>
       <c r="F90" t="n">
-        <v>18000</v>
+        <v>98287.9596</v>
       </c>
       <c r="G90" t="n">
-        <v>6.054600000000002</v>
+        <v>6.055016666666669</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3749,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,36 +3766,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.022</v>
+        <v>6.003</v>
       </c>
       <c r="C91" t="n">
-        <v>6.023</v>
+        <v>6.003</v>
       </c>
       <c r="D91" t="n">
-        <v>6.023</v>
+        <v>6.003</v>
       </c>
       <c r="E91" t="n">
-        <v>6.022</v>
+        <v>6.003</v>
       </c>
       <c r="F91" t="n">
-        <v>3469.6516</v>
+        <v>18000</v>
       </c>
       <c r="G91" t="n">
-        <v>6.054516666666668</v>
+        <v>6.054600000000002</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>6.003</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>6.003</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
+        <v>6.04</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3587,38 +3807,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.989</v>
+        <v>6.022</v>
       </c>
       <c r="C92" t="n">
-        <v>5.989</v>
+        <v>6.023</v>
       </c>
       <c r="D92" t="n">
-        <v>5.989</v>
+        <v>6.023</v>
       </c>
       <c r="E92" t="n">
-        <v>5.989</v>
+        <v>6.022</v>
       </c>
       <c r="F92" t="n">
-        <v>14047.0752</v>
+        <v>3469.6516</v>
       </c>
       <c r="G92" t="n">
-        <v>6.053883333333334</v>
+        <v>6.054516666666668</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>6.023</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>6.003</v>
+        <v>6.04</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
@@ -3630,38 +3848,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.991</v>
+        <v>5.989</v>
       </c>
       <c r="C93" t="n">
-        <v>5.991</v>
+        <v>5.989</v>
       </c>
       <c r="D93" t="n">
-        <v>5.991</v>
+        <v>5.989</v>
       </c>
       <c r="E93" t="n">
-        <v>5.991</v>
+        <v>5.989</v>
       </c>
       <c r="F93" t="n">
-        <v>19464</v>
+        <v>14047.0752</v>
       </c>
       <c r="G93" t="n">
-        <v>6.053300000000001</v>
+        <v>6.053883333333334</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>5.989</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>6.003</v>
+        <v>6.04</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -3685,24 +3901,26 @@
         <v>5.991</v>
       </c>
       <c r="F94" t="n">
-        <v>9602.6018</v>
+        <v>19464</v>
       </c>
       <c r="G94" t="n">
-        <v>6.05255</v>
+        <v>6.053300000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>5.991</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="L94" t="inlineStr"/>
+        <v>6.04</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3712,22 +3930,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.99</v>
+        <v>5.991</v>
       </c>
       <c r="C95" t="n">
-        <v>5.99</v>
+        <v>5.991</v>
       </c>
       <c r="D95" t="n">
-        <v>5.99</v>
+        <v>5.991</v>
       </c>
       <c r="E95" t="n">
-        <v>5.99</v>
+        <v>5.991</v>
       </c>
       <c r="F95" t="n">
-        <v>295.6405</v>
+        <v>9602.6018</v>
       </c>
       <c r="G95" t="n">
-        <v>6.051783333333334</v>
+        <v>6.05255</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -3739,11 +3957,11 @@
         <v>5.991</v>
       </c>
       <c r="K95" t="n">
-        <v>5.991</v>
+        <v>6.04</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -3755,22 +3973,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="F96" t="n">
-        <v>15813.001</v>
+        <v>295.6405</v>
       </c>
       <c r="G96" t="n">
-        <v>6.051616666666667</v>
+        <v>6.051783333333334</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -3779,14 +3997,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>5.99</v>
+        <v>5.991</v>
       </c>
       <c r="K96" t="n">
-        <v>5.991</v>
+        <v>6.04</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -3810,10 +4028,10 @@
         <v>6</v>
       </c>
       <c r="F97" t="n">
-        <v>1581.0962</v>
+        <v>15813.001</v>
       </c>
       <c r="G97" t="n">
-        <v>6.051000000000001</v>
+        <v>6.051616666666667</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -3822,12 +4040,16 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="K97" t="n">
-        <v>6</v>
-      </c>
-      <c r="L97" t="inlineStr"/>
+        <v>6.04</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3837,22 +4059,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.999</v>
+        <v>6</v>
       </c>
       <c r="C98" t="n">
-        <v>5.999</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>5.999</v>
+        <v>6</v>
       </c>
       <c r="E98" t="n">
-        <v>5.999</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
-        <v>106074.6846</v>
+        <v>1581.0962</v>
       </c>
       <c r="G98" t="n">
-        <v>6.050816666666668</v>
+        <v>6.051000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -3864,11 +4086,11 @@
         <v>6</v>
       </c>
       <c r="K98" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -3880,38 +4102,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.01</v>
+        <v>5.999</v>
       </c>
       <c r="C99" t="n">
-        <v>6.03</v>
+        <v>5.999</v>
       </c>
       <c r="D99" t="n">
-        <v>6.03</v>
+        <v>5.999</v>
       </c>
       <c r="E99" t="n">
-        <v>6.01</v>
+        <v>5.999</v>
       </c>
       <c r="F99" t="n">
-        <v>14778.0367</v>
+        <v>106074.6846</v>
       </c>
       <c r="G99" t="n">
-        <v>6.051100000000002</v>
+        <v>6.050816666666668</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>5.999</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -3923,32 +4143,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E100" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14778.0367</v>
+      </c>
+      <c r="G100" t="n">
+        <v>6.051100000000002</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
         <v>6.04</v>
       </c>
-      <c r="C100" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="D100" t="n">
-        <v>6.045</v>
-      </c>
-      <c r="E100" t="n">
-        <v>6.001</v>
-      </c>
-      <c r="F100" t="n">
-        <v>60675.0127</v>
-      </c>
-      <c r="G100" t="n">
-        <v>6.050616666666668</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3958,22 +4184,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.044</v>
+        <v>6.04</v>
       </c>
       <c r="C101" t="n">
-        <v>6.044</v>
+        <v>6.008</v>
       </c>
       <c r="D101" t="n">
-        <v>6.044</v>
+        <v>6.045</v>
       </c>
       <c r="E101" t="n">
-        <v>6.044</v>
+        <v>6.001</v>
       </c>
       <c r="F101" t="n">
-        <v>3346.1331</v>
+        <v>60675.0127</v>
       </c>
       <c r="G101" t="n">
-        <v>6.050733333333335</v>
+        <v>6.050616666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3982,8 +4208,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3993,33 +4225,80 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3346.1331</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6.050733333333335</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
         <v>6.015</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C103" t="n">
         <v>6.015</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D103" t="n">
         <v>6.015</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E103" t="n">
         <v>6.015</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F103" t="n">
         <v>6896.936</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G103" t="n">
         <v>6.050366666666668</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest IOST.xlsx
+++ b/BackTest/2020-01-15 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>38506.8703</v>
       </c>
       <c r="G2" t="n">
+        <v>5.961666666666663</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.92208333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>142373.0879</v>
       </c>
       <c r="G3" t="n">
+        <v>5.96313333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.922199999999996</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>97994.5659</v>
       </c>
       <c r="G4" t="n">
+        <v>5.964466666666664</v>
+      </c>
+      <c r="H4" t="n">
         <v>5.921116666666663</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>77470.8331</v>
       </c>
       <c r="G5" t="n">
+        <v>5.965199999999998</v>
+      </c>
+      <c r="H5" t="n">
         <v>5.919999999999996</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>176495.2519</v>
       </c>
       <c r="G6" t="n">
+        <v>5.963666666666665</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.918549999999995</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>104649.0934</v>
       </c>
       <c r="G7" t="n">
+        <v>5.962066666666664</v>
+      </c>
+      <c r="H7" t="n">
         <v>5.917966666666661</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,22 +681,25 @@
         <v>12006</v>
       </c>
       <c r="G8" t="n">
+        <v>5.961466666666665</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.917333333333328</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>5.911</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>5.911</v>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,26 +723,29 @@
         <v>28974</v>
       </c>
       <c r="G9" t="n">
+        <v>5.958866666666665</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.917533333333328</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>5.911</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>5.911</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,24 +769,29 @@
         <v>41825</v>
       </c>
       <c r="G10" t="n">
+        <v>5.952399999999997</v>
+      </c>
+      <c r="H10" t="n">
         <v>5.917049999999994</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>5.901</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,24 +815,29 @@
         <v>109050</v>
       </c>
       <c r="G11" t="n">
+        <v>5.948599999999998</v>
+      </c>
+      <c r="H11" t="n">
         <v>5.916549999999996</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>5.901</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -822,24 +861,29 @@
         <v>13556</v>
       </c>
       <c r="G12" t="n">
+        <v>5.942133333333332</v>
+      </c>
+      <c r="H12" t="n">
         <v>5.915583333333329</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>5.903</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -863,24 +907,29 @@
         <v>64912.0743</v>
       </c>
       <c r="G13" t="n">
+        <v>5.938799999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>5.915533333333329</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>5.902</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -904,24 +953,27 @@
         <v>93987.98940000001</v>
       </c>
       <c r="G14" t="n">
+        <v>5.935333333333332</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.916049999999996</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -945,24 +997,27 @@
         <v>310706.337</v>
       </c>
       <c r="G15" t="n">
+        <v>5.934066666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.916633333333329</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -986,24 +1041,27 @@
         <v>513931.25</v>
       </c>
       <c r="G16" t="n">
+        <v>5.933400000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>5.917266666666663</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1027,24 +1085,27 @@
         <v>86018.1553</v>
       </c>
       <c r="G17" t="n">
+        <v>5.9326</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.918166666666663</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1068,24 +1129,27 @@
         <v>245263.2094</v>
       </c>
       <c r="G18" t="n">
+        <v>5.932866666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>5.919066666666664</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1109,24 +1173,27 @@
         <v>51000</v>
       </c>
       <c r="G19" t="n">
+        <v>5.9362</v>
+      </c>
+      <c r="H19" t="n">
         <v>5.919649999999998</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1150,24 +1217,27 @@
         <v>414202.1066</v>
       </c>
       <c r="G20" t="n">
+        <v>5.941466666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.920883333333331</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,24 +1261,27 @@
         <v>379747.427</v>
       </c>
       <c r="G21" t="n">
+        <v>5.943533333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>5.921399999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1232,24 +1305,27 @@
         <v>44171.4891</v>
       </c>
       <c r="G22" t="n">
+        <v>5.952799999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>5.923699999999998</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,24 +1349,27 @@
         <v>207277.3298</v>
       </c>
       <c r="G23" t="n">
+        <v>5.962333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.926066666666665</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,24 +1393,27 @@
         <v>65887</v>
       </c>
       <c r="G24" t="n">
+        <v>5.970266666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>5.927866666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1355,24 +1437,27 @@
         <v>75770</v>
       </c>
       <c r="G25" t="n">
+        <v>5.977533333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>5.929499999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1396,24 +1481,27 @@
         <v>3856</v>
       </c>
       <c r="G26" t="n">
+        <v>5.982666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.931449999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1437,24 +1525,27 @@
         <v>186375</v>
       </c>
       <c r="G27" t="n">
+        <v>5.988</v>
+      </c>
+      <c r="H27" t="n">
         <v>5.933449999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1478,24 +1569,27 @@
         <v>44277</v>
       </c>
       <c r="G28" t="n">
+        <v>5.989199999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.9355</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1519,24 +1613,27 @@
         <v>42480</v>
       </c>
       <c r="G29" t="n">
+        <v>5.990799999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.938066666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1560,24 +1657,27 @@
         <v>8312.5</v>
       </c>
       <c r="G30" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="H30" t="n">
         <v>5.940183333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1601,26 +1701,27 @@
         <v>92645</v>
       </c>
       <c r="G31" t="n">
+        <v>5.9958</v>
+      </c>
+      <c r="H31" t="n">
         <v>5.942766666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.989</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1644,24 +1745,27 @@
         <v>14697.3885</v>
       </c>
       <c r="G32" t="n">
+        <v>5.9996</v>
+      </c>
+      <c r="H32" t="n">
         <v>5.945766666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1685,25 +1789,28 @@
         <v>116935.9075</v>
       </c>
       <c r="G33" t="n">
+        <v>6.003333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>5.948099999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1.014624429030621</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1726,18 +1833,27 @@
         <v>6264.7257</v>
       </c>
       <c r="G34" t="n">
+        <v>6.007</v>
+      </c>
+      <c r="H34" t="n">
         <v>5.950816666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +1877,27 @@
         <v>28723.751</v>
       </c>
       <c r="G35" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.953683333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +1921,27 @@
         <v>165674.95029821</v>
       </c>
       <c r="G36" t="n">
+        <v>6.0162</v>
+      </c>
+      <c r="H36" t="n">
         <v>5.956616666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +1965,27 @@
         <v>175</v>
       </c>
       <c r="G37" t="n">
+        <v>6.013533333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>5.959066666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +2009,27 @@
         <v>495.7365</v>
       </c>
       <c r="G38" t="n">
+        <v>6.0124</v>
+      </c>
+      <c r="H38" t="n">
         <v>5.961966666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2053,27 @@
         <v>100</v>
       </c>
       <c r="G39" t="n">
+        <v>6.011733333333335</v>
+      </c>
+      <c r="H39" t="n">
         <v>5.963783333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2097,27 @@
         <v>100</v>
       </c>
       <c r="G40" t="n">
+        <v>6.011933333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>5.966149999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2141,27 @@
         <v>8471.148300000001</v>
       </c>
       <c r="G41" t="n">
+        <v>6.015733333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.968916666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2185,27 @@
         <v>65757.8815</v>
       </c>
       <c r="G42" t="n">
+        <v>6.019400000000002</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.970999999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2229,27 @@
         <v>138030.0094</v>
       </c>
       <c r="G43" t="n">
+        <v>6.023066666666669</v>
+      </c>
+      <c r="H43" t="n">
         <v>5.973083333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2273,27 @@
         <v>365325.5757</v>
       </c>
       <c r="G44" t="n">
+        <v>6.026266666666669</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.975266666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2317,27 @@
         <v>495860.1774</v>
       </c>
       <c r="G45" t="n">
+        <v>6.031000000000002</v>
+      </c>
+      <c r="H45" t="n">
         <v>5.978183333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2361,27 @@
         <v>637188.5459</v>
       </c>
       <c r="G46" t="n">
+        <v>6.033866666666668</v>
+      </c>
+      <c r="H46" t="n">
         <v>5.98055</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2405,27 @@
         <v>113216.4855</v>
       </c>
       <c r="G47" t="n">
+        <v>6.039866666666668</v>
+      </c>
+      <c r="H47" t="n">
         <v>5.983433333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2449,27 @@
         <v>224247.2988</v>
       </c>
       <c r="G48" t="n">
+        <v>6.045333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>5.986166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2493,27 @@
         <v>600000</v>
       </c>
       <c r="G49" t="n">
+        <v>6.050866666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>5.989633333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2537,27 @@
         <v>121132.1266</v>
       </c>
       <c r="G50" t="n">
+        <v>6.052466666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>5.992283333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2581,27 @@
         <v>49522.6066</v>
       </c>
       <c r="G51" t="n">
+        <v>6.056733333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>5.995033333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2625,27 @@
         <v>364861.9677</v>
       </c>
       <c r="G52" t="n">
+        <v>6.062733333333332</v>
+      </c>
+      <c r="H52" t="n">
         <v>5.997783333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2669,27 @@
         <v>201977.945</v>
       </c>
       <c r="G53" t="n">
+        <v>6.064999999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>6.0003</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2713,27 @@
         <v>91253.1556</v>
       </c>
       <c r="G54" t="n">
+        <v>6.071533333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>6.003100000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2757,27 @@
         <v>15660.5393</v>
       </c>
       <c r="G55" t="n">
+        <v>6.078666666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>6.005133333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2801,27 @@
         <v>17829.9436</v>
       </c>
       <c r="G56" t="n">
+        <v>6.081533333333331</v>
+      </c>
+      <c r="H56" t="n">
         <v>6.007133333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,19 +2845,28 @@
         <v>12364.4799</v>
       </c>
       <c r="G57" t="n">
+        <v>6.084733333333331</v>
+      </c>
+      <c r="H57" t="n">
         <v>6.008566666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
+      <c r="L57" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>1.024436643545932</v>
       </c>
     </row>
     <row r="58">
@@ -2566,18 +2889,21 @@
         <v>12000</v>
       </c>
       <c r="G58" t="n">
+        <v>6.086866666666664</v>
+      </c>
+      <c r="H58" t="n">
         <v>6.009483333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2927,21 @@
         <v>24000</v>
       </c>
       <c r="G59" t="n">
+        <v>6.09013333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>6.010633333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +2965,21 @@
         <v>12000</v>
       </c>
       <c r="G60" t="n">
+        <v>6.09313333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>6.01255</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +3003,21 @@
         <v>7157.0203</v>
       </c>
       <c r="G61" t="n">
+        <v>6.09473333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>6.01445</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3041,21 @@
         <v>5577.8953</v>
       </c>
       <c r="G62" t="n">
+        <v>6.093266666666664</v>
+      </c>
+      <c r="H62" t="n">
         <v>6.016333333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +3079,21 @@
         <v>207.5163</v>
       </c>
       <c r="G63" t="n">
+        <v>6.093266666666664</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.0187</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3117,21 @@
         <v>16305.23398031</v>
       </c>
       <c r="G64" t="n">
+        <v>6.094866666666664</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.022233333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3155,21 @@
         <v>35990.473</v>
       </c>
       <c r="G65" t="n">
+        <v>6.096999999999997</v>
+      </c>
+      <c r="H65" t="n">
         <v>6.025233333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3193,21 @@
         <v>181993.8357</v>
       </c>
       <c r="G66" t="n">
+        <v>6.095199999999998</v>
+      </c>
+      <c r="H66" t="n">
         <v>6.027916666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3231,21 @@
         <v>1285.1518</v>
       </c>
       <c r="G67" t="n">
+        <v>6.093399999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>6.030616666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3269,21 @@
         <v>219000</v>
       </c>
       <c r="G68" t="n">
+        <v>6.095866666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>6.0339</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3307,21 @@
         <v>17354.1797</v>
       </c>
       <c r="G69" t="n">
+        <v>6.094199999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>6.036933333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3345,21 @@
         <v>2390.2078</v>
       </c>
       <c r="G70" t="n">
+        <v>6.091533333333332</v>
+      </c>
+      <c r="H70" t="n">
         <v>6.039916666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3383,21 @@
         <v>32956.6488</v>
       </c>
       <c r="G71" t="n">
+        <v>6.090999999999998</v>
+      </c>
+      <c r="H71" t="n">
         <v>6.042733333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3421,21 @@
         <v>12629.9124</v>
       </c>
       <c r="G72" t="n">
+        <v>6.089999999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>6.045533333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3459,21 @@
         <v>19284.0241</v>
       </c>
       <c r="G73" t="n">
+        <v>6.090199999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>6.047333333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3497,21 @@
         <v>1351.4441</v>
       </c>
       <c r="G74" t="n">
+        <v>6.088733333333332</v>
+      </c>
+      <c r="H74" t="n">
         <v>6.048983333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3535,21 @@
         <v>4112.2946</v>
       </c>
       <c r="G75" t="n">
+        <v>6.085066666666664</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.050299999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3573,21 @@
         <v>1850.4501</v>
       </c>
       <c r="G76" t="n">
+        <v>6.082066666666664</v>
+      </c>
+      <c r="H76" t="n">
         <v>6.051616666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3611,21 @@
         <v>21639.2181</v>
       </c>
       <c r="G77" t="n">
+        <v>6.078999999999997</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.052933333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3649,21 @@
         <v>78472.72169999999</v>
       </c>
       <c r="G78" t="n">
+        <v>6.075066666666664</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.05425</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3687,21 @@
         <v>4553.687</v>
       </c>
       <c r="G79" t="n">
+        <v>6.068933333333331</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.055416666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3725,21 @@
         <v>8178.4179</v>
       </c>
       <c r="G80" t="n">
+        <v>6.065466666666665</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.056233333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,22 +3763,21 @@
         <v>3942.4702</v>
       </c>
       <c r="G81" t="n">
+        <v>6.063266666666665</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.057850000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K81" t="n">
-        <v>6.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3410,26 +3801,21 @@
         <v>120712.8991</v>
       </c>
       <c r="G82" t="n">
+        <v>6.060533333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.057550000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K82" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3453,24 +3839,21 @@
         <v>9434.763999999999</v>
       </c>
       <c r="G83" t="n">
+        <v>6.0554</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.057166666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,24 +3877,21 @@
         <v>7871.6306</v>
       </c>
       <c r="G84" t="n">
+        <v>6.047866666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.056333333333336</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3535,24 +3915,21 @@
         <v>86993.26850000001</v>
       </c>
       <c r="G85" t="n">
+        <v>6.042</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.056033333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,24 +3953,21 @@
         <v>28333.3673</v>
       </c>
       <c r="G86" t="n">
+        <v>6.036666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.056233333333336</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3617,24 +3991,21 @@
         <v>132905.2833</v>
       </c>
       <c r="G87" t="n">
+        <v>6.030866666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.056250000000002</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,24 +4029,21 @@
         <v>26481.9081</v>
       </c>
       <c r="G88" t="n">
+        <v>6.024599999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.056183333333335</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3699,24 +4067,21 @@
         <v>15673.0109</v>
       </c>
       <c r="G89" t="n">
+        <v>6.016799999999999</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.055483333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,24 +4105,21 @@
         <v>98287.9596</v>
       </c>
       <c r="G90" t="n">
+        <v>6.010866666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.055016666666669</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3781,24 +4143,21 @@
         <v>18000</v>
       </c>
       <c r="G91" t="n">
+        <v>6.007733333333332</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.054600000000002</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3822,24 +4181,21 @@
         <v>3469.6516</v>
       </c>
       <c r="G92" t="n">
+        <v>6.005933333333332</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.054516666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,24 +4219,21 @@
         <v>14047.0752</v>
       </c>
       <c r="G93" t="n">
+        <v>6.001866666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.053883333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,24 +4257,21 @@
         <v>19464</v>
       </c>
       <c r="G94" t="n">
+        <v>5.998533333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.053300000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3945,26 +4295,21 @@
         <v>9602.6018</v>
       </c>
       <c r="G95" t="n">
+        <v>5.995266666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.05255</v>
       </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="K95" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,26 +4333,21 @@
         <v>295.6405</v>
       </c>
       <c r="G96" t="n">
+        <v>5.991933333333332</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.051783333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="K96" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4031,26 +4371,21 @@
         <v>15813.001</v>
       </c>
       <c r="G97" t="n">
+        <v>5.989799999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.051616666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K97" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,26 +4409,21 @@
         <v>1581.0962</v>
       </c>
       <c r="G98" t="n">
+        <v>5.987733333333332</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.051000000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>6</v>
-      </c>
-      <c r="K98" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,24 +4447,21 @@
         <v>106074.6846</v>
       </c>
       <c r="G99" t="n">
+        <v>5.989666666666665</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.050816666666668</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,24 +4485,21 @@
         <v>14778.0367</v>
       </c>
       <c r="G100" t="n">
+        <v>5.992199999999998</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.051100000000002</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4199,24 +4523,21 @@
         <v>60675.0127</v>
       </c>
       <c r="G101" t="n">
+        <v>5.993266666666664</v>
+      </c>
+      <c r="H101" t="n">
         <v>6.050616666666668</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,24 +4561,21 @@
         <v>3346.1331</v>
       </c>
       <c r="G102" t="n">
+        <v>5.99733333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>6.050733333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,24 +4599,401 @@
         <v>6896.936</v>
       </c>
       <c r="G103" t="n">
+        <v>5.999799999999997</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.050366666666668</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6.016</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="F104" t="n">
+        <v>452892.9002</v>
+      </c>
+      <c r="G104" t="n">
+        <v>6.004066666666663</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6.049933333333334</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="F105" t="n">
+        <v>187.8941</v>
+      </c>
+      <c r="G105" t="n">
+        <v>6.007666666666664</v>
+      </c>
+      <c r="H105" t="n">
+        <v>6.049183333333334</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6723</v>
+      </c>
+      <c r="G106" t="n">
+        <v>6.00753333333333</v>
+      </c>
+      <c r="H106" t="n">
+        <v>6.048016666666667</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10979.9497</v>
+      </c>
+      <c r="G107" t="n">
+        <v>6.005999999999998</v>
+      </c>
+      <c r="H107" t="n">
+        <v>6.04605</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="C108" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="F108" t="n">
+        <v>172970.2285</v>
+      </c>
+      <c r="G108" t="n">
+        <v>6.006799999999997</v>
+      </c>
+      <c r="H108" t="n">
+        <v>6.044250000000001</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5.994</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5.994</v>
+      </c>
+      <c r="F109" t="n">
+        <v>7480.718</v>
+      </c>
+      <c r="G109" t="n">
+        <v>6.007066666666664</v>
+      </c>
+      <c r="H109" t="n">
+        <v>6.042350000000001</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="F110" t="n">
+        <v>9278.0605</v>
+      </c>
+      <c r="G110" t="n">
+        <v>6.007199999999997</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6.041233333333334</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="F111" t="n">
+        <v>16991.9793</v>
+      </c>
+      <c r="G111" t="n">
+        <v>6.009799999999998</v>
+      </c>
+      <c r="H111" t="n">
+        <v>6.04005</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="F112" t="n">
+        <v>16994.9644</v>
+      </c>
+      <c r="G112" t="n">
+        <v>6.011666666666665</v>
+      </c>
+      <c r="H112" t="n">
+        <v>6.03885</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="F113" t="n">
+        <v>58481.0878</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6.013599999999998</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6.03815</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest IOST.xlsx
+++ b/BackTest/2020-01-15 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.99</v>
+        <v>5.88</v>
       </c>
       <c r="C2" t="n">
-        <v>5.983</v>
+        <v>5.887</v>
       </c>
       <c r="D2" t="n">
-        <v>5.99</v>
+        <v>5.887</v>
       </c>
       <c r="E2" t="n">
-        <v>5.981</v>
+        <v>5.88</v>
       </c>
       <c r="F2" t="n">
-        <v>38506.8703</v>
+        <v>170097.6181</v>
       </c>
       <c r="G2" t="n">
-        <v>5.961666666666663</v>
+        <v>-188389872.4637289</v>
       </c>
       <c r="H2" t="n">
-        <v>5.92208333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.98</v>
+        <v>5.863</v>
       </c>
       <c r="C3" t="n">
-        <v>5.967</v>
+        <v>5.863</v>
       </c>
       <c r="D3" t="n">
-        <v>5.98</v>
+        <v>5.863</v>
       </c>
       <c r="E3" t="n">
-        <v>5.967</v>
+        <v>5.863</v>
       </c>
       <c r="F3" t="n">
-        <v>142373.0879</v>
+        <v>22322.7603</v>
       </c>
       <c r="G3" t="n">
-        <v>5.96313333333333</v>
+        <v>-188412195.2240289</v>
       </c>
       <c r="H3" t="n">
-        <v>5.922199999999996</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>5.887</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.887</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +507,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.97</v>
+        <v>5.895</v>
       </c>
       <c r="C4" t="n">
-        <v>5.921</v>
+        <v>5.864</v>
       </c>
       <c r="D4" t="n">
-        <v>5.97</v>
+        <v>5.895</v>
       </c>
       <c r="E4" t="n">
-        <v>5.921</v>
+        <v>5.864</v>
       </c>
       <c r="F4" t="n">
-        <v>97994.5659</v>
+        <v>18387.4295</v>
       </c>
       <c r="G4" t="n">
-        <v>5.964466666666664</v>
+        <v>-188393807.7945289</v>
       </c>
       <c r="H4" t="n">
-        <v>5.921116666666663</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +548,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="C5" t="n">
-        <v>5.912</v>
+        <v>5.86</v>
       </c>
       <c r="D5" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="E5" t="n">
-        <v>5.912</v>
+        <v>5.86</v>
       </c>
       <c r="F5" t="n">
-        <v>77470.8331</v>
+        <v>7149.3976</v>
       </c>
       <c r="G5" t="n">
-        <v>5.965199999999998</v>
+        <v>-188400957.1921289</v>
       </c>
       <c r="H5" t="n">
-        <v>5.919999999999996</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +589,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="C6" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="D6" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="E6" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="F6" t="n">
-        <v>176495.2519</v>
+        <v>5624.2205</v>
       </c>
       <c r="G6" t="n">
-        <v>5.963666666666665</v>
+        <v>-188395332.9716289</v>
       </c>
       <c r="H6" t="n">
-        <v>5.918549999999995</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +630,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="C7" t="n">
-        <v>5.911</v>
+        <v>5.863</v>
       </c>
       <c r="D7" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="E7" t="n">
-        <v>5.911</v>
+        <v>5.863</v>
       </c>
       <c r="F7" t="n">
-        <v>104649.0934</v>
+        <v>12015.8554</v>
       </c>
       <c r="G7" t="n">
-        <v>5.962066666666664</v>
+        <v>-188395332.9716289</v>
       </c>
       <c r="H7" t="n">
-        <v>5.917966666666661</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,40 +671,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.911</v>
+        <v>5.901</v>
       </c>
       <c r="C8" t="n">
-        <v>5.911</v>
+        <v>5.901</v>
       </c>
       <c r="D8" t="n">
-        <v>5.911</v>
+        <v>5.901</v>
       </c>
       <c r="E8" t="n">
-        <v>5.911</v>
+        <v>5.901</v>
       </c>
       <c r="F8" t="n">
-        <v>12006</v>
+        <v>10061.5838</v>
       </c>
       <c r="G8" t="n">
-        <v>5.961466666666665</v>
+        <v>-188385271.3878289</v>
       </c>
       <c r="H8" t="n">
-        <v>5.917333333333328</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -708,44 +712,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.911</v>
+        <v>5.871</v>
       </c>
       <c r="C9" t="n">
-        <v>5.901</v>
+        <v>5.871</v>
       </c>
       <c r="D9" t="n">
-        <v>5.911</v>
+        <v>5.871</v>
       </c>
       <c r="E9" t="n">
-        <v>5.901</v>
+        <v>5.871</v>
       </c>
       <c r="F9" t="n">
-        <v>28974</v>
+        <v>7648.9817</v>
       </c>
       <c r="G9" t="n">
-        <v>5.958866666666665</v>
+        <v>-188392920.3695289</v>
       </c>
       <c r="H9" t="n">
-        <v>5.917533333333328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -754,44 +753,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.92</v>
+        <v>5.871</v>
       </c>
       <c r="C10" t="n">
-        <v>5.901</v>
+        <v>5.871</v>
       </c>
       <c r="D10" t="n">
-        <v>5.92</v>
+        <v>5.871</v>
       </c>
       <c r="E10" t="n">
-        <v>5.901</v>
+        <v>5.871</v>
       </c>
       <c r="F10" t="n">
-        <v>41825</v>
+        <v>17640.0759</v>
       </c>
       <c r="G10" t="n">
-        <v>5.952399999999997</v>
+        <v>-188392920.3695289</v>
       </c>
       <c r="H10" t="n">
-        <v>5.917049999999994</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -800,44 +794,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.904</v>
+        <v>5.912</v>
       </c>
       <c r="C11" t="n">
-        <v>5.903</v>
+        <v>5.912</v>
       </c>
       <c r="D11" t="n">
-        <v>5.904</v>
+        <v>5.912</v>
       </c>
       <c r="E11" t="n">
-        <v>5.902</v>
+        <v>5.912</v>
       </c>
       <c r="F11" t="n">
-        <v>109050</v>
+        <v>4511.8214</v>
       </c>
       <c r="G11" t="n">
-        <v>5.948599999999998</v>
+        <v>-188388408.5481289</v>
       </c>
       <c r="H11" t="n">
-        <v>5.916549999999996</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,44 +835,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.905</v>
+        <v>5.912</v>
       </c>
       <c r="C12" t="n">
-        <v>5.902</v>
+        <v>5.912</v>
       </c>
       <c r="D12" t="n">
-        <v>5.905</v>
+        <v>5.912</v>
       </c>
       <c r="E12" t="n">
-        <v>5.902</v>
+        <v>5.912</v>
       </c>
       <c r="F12" t="n">
-        <v>13556</v>
+        <v>800.9838999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>5.942133333333332</v>
+        <v>-188388408.5481289</v>
       </c>
       <c r="H12" t="n">
-        <v>5.915583333333329</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>5.903</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -892,44 +876,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.948</v>
+        <v>5.912</v>
       </c>
       <c r="C13" t="n">
-        <v>5.964</v>
+        <v>5.912</v>
       </c>
       <c r="D13" t="n">
-        <v>5.964</v>
+        <v>5.912</v>
       </c>
       <c r="E13" t="n">
-        <v>5.903</v>
+        <v>5.912</v>
       </c>
       <c r="F13" t="n">
-        <v>64912.0743</v>
+        <v>223386.4652</v>
       </c>
       <c r="G13" t="n">
-        <v>5.938799999999999</v>
+        <v>-188388408.5481289</v>
       </c>
       <c r="H13" t="n">
-        <v>5.915533333333329</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>5.912</v>
       </c>
       <c r="K13" t="n">
-        <v>5.902</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,42 +919,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.969</v>
+        <v>5.885</v>
       </c>
       <c r="C14" t="n">
-        <v>5.971</v>
+        <v>5.885</v>
       </c>
       <c r="D14" t="n">
-        <v>5.971</v>
+        <v>5.885</v>
       </c>
       <c r="E14" t="n">
-        <v>5.969</v>
+        <v>5.885</v>
       </c>
       <c r="F14" t="n">
-        <v>93987.98940000001</v>
+        <v>16756.8371</v>
       </c>
       <c r="G14" t="n">
-        <v>5.935333333333332</v>
+        <v>-188405165.3852289</v>
       </c>
       <c r="H14" t="n">
-        <v>5.916049999999996</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -982,42 +962,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.971</v>
+        <v>5.886</v>
       </c>
       <c r="C15" t="n">
-        <v>5.971</v>
+        <v>5.929</v>
       </c>
       <c r="D15" t="n">
-        <v>5.971</v>
+        <v>5.929</v>
       </c>
       <c r="E15" t="n">
-        <v>5.971</v>
+        <v>5.886</v>
       </c>
       <c r="F15" t="n">
-        <v>310706.337</v>
+        <v>220072.4171</v>
       </c>
       <c r="G15" t="n">
-        <v>5.934066666666666</v>
+        <v>-188185092.9681289</v>
       </c>
       <c r="H15" t="n">
-        <v>5.916633333333329</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>5.885</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,42 +1005,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.971</v>
+        <v>5.936</v>
       </c>
       <c r="C16" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="D16" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="E16" t="n">
-        <v>5.971</v>
+        <v>5.936</v>
       </c>
       <c r="F16" t="n">
-        <v>513931.25</v>
+        <v>104497.2363</v>
       </c>
       <c r="G16" t="n">
-        <v>5.933400000000001</v>
+        <v>-188080595.7318289</v>
       </c>
       <c r="H16" t="n">
-        <v>5.917266666666663</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>5.929</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1070,42 +1048,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="C17" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="D17" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="E17" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="F17" t="n">
-        <v>86018.1553</v>
+        <v>19782.5184</v>
       </c>
       <c r="G17" t="n">
-        <v>5.9326</v>
+        <v>-188080595.7318289</v>
       </c>
       <c r="H17" t="n">
-        <v>5.918166666666663</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>5.945</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1114,42 +1091,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.972</v>
+        <v>5.901</v>
       </c>
       <c r="C18" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="D18" t="n">
-        <v>5.972</v>
+        <v>5.901</v>
       </c>
       <c r="E18" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="F18" t="n">
-        <v>245263.2094</v>
+        <v>6419.0154</v>
       </c>
       <c r="G18" t="n">
-        <v>5.932866666666667</v>
+        <v>-188087014.7472289</v>
       </c>
       <c r="H18" t="n">
-        <v>5.919066666666664</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1158,42 +1132,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="C19" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="D19" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="E19" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="F19" t="n">
-        <v>51000</v>
+        <v>9145.431699999999</v>
       </c>
       <c r="G19" t="n">
-        <v>5.9362</v>
+        <v>-188087014.7472289</v>
       </c>
       <c r="H19" t="n">
-        <v>5.919649999999998</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1202,42 +1173,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.988</v>
+        <v>5.935</v>
       </c>
       <c r="C20" t="n">
-        <v>5.991</v>
+        <v>5.935</v>
       </c>
       <c r="D20" t="n">
-        <v>5.991</v>
+        <v>5.935</v>
       </c>
       <c r="E20" t="n">
-        <v>5.988</v>
+        <v>5.935</v>
       </c>
       <c r="F20" t="n">
-        <v>414202.1066</v>
+        <v>72000</v>
       </c>
       <c r="G20" t="n">
-        <v>5.941466666666667</v>
+        <v>-188015014.7472289</v>
       </c>
       <c r="H20" t="n">
-        <v>5.920883333333331</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>5.901</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1246,42 +1216,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.972</v>
+        <v>5.935</v>
       </c>
       <c r="C21" t="n">
-        <v>5.943</v>
+        <v>5.935</v>
       </c>
       <c r="D21" t="n">
-        <v>5.972</v>
+        <v>5.935</v>
       </c>
       <c r="E21" t="n">
-        <v>5.943</v>
+        <v>5.935</v>
       </c>
       <c r="F21" t="n">
-        <v>379747.427</v>
+        <v>928000.2097</v>
       </c>
       <c r="G21" t="n">
-        <v>5.943533333333333</v>
+        <v>-188015014.7472289</v>
       </c>
       <c r="H21" t="n">
-        <v>5.921399999999998</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,42 +1257,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.017</v>
+        <v>5.96</v>
       </c>
       <c r="C22" t="n">
-        <v>6.05</v>
+        <v>5.92</v>
       </c>
       <c r="D22" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="E22" t="n">
-        <v>6.017</v>
+        <v>5.92</v>
       </c>
       <c r="F22" t="n">
-        <v>44171.4891</v>
+        <v>22907.8354</v>
       </c>
       <c r="G22" t="n">
-        <v>5.952799999999999</v>
+        <v>-188037922.5826289</v>
       </c>
       <c r="H22" t="n">
-        <v>5.923699999999998</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1334,42 +1298,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.009</v>
+        <v>5.964</v>
       </c>
       <c r="C23" t="n">
-        <v>6.054</v>
+        <v>5.94</v>
       </c>
       <c r="D23" t="n">
-        <v>6.054</v>
+        <v>5.985</v>
       </c>
       <c r="E23" t="n">
-        <v>6.009</v>
+        <v>5.94</v>
       </c>
       <c r="F23" t="n">
-        <v>207277.3298</v>
+        <v>16823.6288</v>
       </c>
       <c r="G23" t="n">
-        <v>5.962333333333333</v>
+        <v>-188021098.9538289</v>
       </c>
       <c r="H23" t="n">
-        <v>5.926066666666665</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,42 +1339,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.021</v>
+        <v>5.98</v>
       </c>
       <c r="C24" t="n">
-        <v>6.02</v>
+        <v>5.998</v>
       </c>
       <c r="D24" t="n">
-        <v>6.021</v>
+        <v>5.998</v>
       </c>
       <c r="E24" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="F24" t="n">
-        <v>65887</v>
+        <v>29442.1269</v>
       </c>
       <c r="G24" t="n">
-        <v>5.970266666666666</v>
+        <v>-187991656.8269289</v>
       </c>
       <c r="H24" t="n">
-        <v>5.927866666666665</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1422,42 +1380,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.02</v>
+        <v>5.998</v>
       </c>
       <c r="C25" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="D25" t="n">
-        <v>6.021</v>
+        <v>5.998</v>
       </c>
       <c r="E25" t="n">
-        <v>6.003</v>
+        <v>5.96</v>
       </c>
       <c r="F25" t="n">
-        <v>75770</v>
+        <v>156338.7543</v>
       </c>
       <c r="G25" t="n">
-        <v>5.977533333333333</v>
+        <v>-188147995.5812289</v>
       </c>
       <c r="H25" t="n">
-        <v>5.929499999999999</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1466,42 +1421,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.98</v>
+        <v>5.999</v>
       </c>
       <c r="C26" t="n">
-        <v>5.98</v>
+        <v>5.999</v>
       </c>
       <c r="D26" t="n">
-        <v>5.98</v>
+        <v>5.999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.98</v>
+        <v>5.999</v>
       </c>
       <c r="F26" t="n">
-        <v>3856</v>
+        <v>2891</v>
       </c>
       <c r="G26" t="n">
-        <v>5.982666666666666</v>
+        <v>-188145104.5812289</v>
       </c>
       <c r="H26" t="n">
-        <v>5.931449999999999</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,42 +1462,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.976</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>5.982</v>
+        <v>6.014</v>
       </c>
       <c r="D27" t="n">
-        <v>5.983</v>
+        <v>6.014</v>
       </c>
       <c r="E27" t="n">
-        <v>5.976</v>
+        <v>5.98</v>
       </c>
       <c r="F27" t="n">
-        <v>186375</v>
+        <v>133874.2448</v>
       </c>
       <c r="G27" t="n">
-        <v>5.988</v>
+        <v>-188011230.3364289</v>
       </c>
       <c r="H27" t="n">
-        <v>5.933449999999999</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1554,42 +1503,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.983</v>
+        <v>6.023</v>
       </c>
       <c r="C28" t="n">
-        <v>5.982</v>
+        <v>6.023</v>
       </c>
       <c r="D28" t="n">
-        <v>5.983</v>
+        <v>6.023</v>
       </c>
       <c r="E28" t="n">
-        <v>5.982</v>
+        <v>6.023</v>
       </c>
       <c r="F28" t="n">
-        <v>44277</v>
+        <v>183763.8957</v>
       </c>
       <c r="G28" t="n">
-        <v>5.989199999999999</v>
+        <v>-187827466.4407289</v>
       </c>
       <c r="H28" t="n">
-        <v>5.9355</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1598,42 +1544,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.995</v>
+        <v>5.99</v>
       </c>
       <c r="C29" t="n">
-        <v>5.995</v>
+        <v>5.99</v>
       </c>
       <c r="D29" t="n">
-        <v>5.995</v>
+        <v>5.99</v>
       </c>
       <c r="E29" t="n">
-        <v>5.995</v>
+        <v>5.99</v>
       </c>
       <c r="F29" t="n">
-        <v>42480</v>
+        <v>3858.1365</v>
       </c>
       <c r="G29" t="n">
-        <v>5.990799999999999</v>
+        <v>-187831324.5772289</v>
       </c>
       <c r="H29" t="n">
-        <v>5.938066666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1642,42 +1585,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.989</v>
+        <v>5.99</v>
       </c>
       <c r="C30" t="n">
-        <v>5.989</v>
+        <v>5.981</v>
       </c>
       <c r="D30" t="n">
-        <v>5.989</v>
+        <v>6.03</v>
       </c>
       <c r="E30" t="n">
-        <v>5.989</v>
+        <v>5.981</v>
       </c>
       <c r="F30" t="n">
-        <v>8312.5</v>
+        <v>27682.8065</v>
       </c>
       <c r="G30" t="n">
-        <v>5.992</v>
+        <v>-187859007.3837289</v>
       </c>
       <c r="H30" t="n">
-        <v>5.940183333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1686,42 +1626,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.028</v>
+        <v>5.99</v>
       </c>
       <c r="C31" t="n">
-        <v>6.028</v>
+        <v>5.983</v>
       </c>
       <c r="D31" t="n">
-        <v>6.028</v>
+        <v>5.99</v>
       </c>
       <c r="E31" t="n">
-        <v>6.028</v>
+        <v>5.981</v>
       </c>
       <c r="F31" t="n">
-        <v>92645</v>
+        <v>38506.8703</v>
       </c>
       <c r="G31" t="n">
-        <v>5.9958</v>
+        <v>-187820500.5134289</v>
       </c>
       <c r="H31" t="n">
-        <v>5.942766666666667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,42 +1667,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.028</v>
+        <v>5.98</v>
       </c>
       <c r="C32" t="n">
-        <v>6.028</v>
+        <v>5.967</v>
       </c>
       <c r="D32" t="n">
-        <v>6.028</v>
+        <v>5.98</v>
       </c>
       <c r="E32" t="n">
-        <v>6.028</v>
+        <v>5.967</v>
       </c>
       <c r="F32" t="n">
-        <v>14697.3885</v>
+        <v>142373.0879</v>
       </c>
       <c r="G32" t="n">
-        <v>5.9996</v>
+        <v>-187962873.6013289</v>
       </c>
       <c r="H32" t="n">
-        <v>5.945766666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1774,42 +1708,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.994</v>
+        <v>5.97</v>
       </c>
       <c r="C33" t="n">
-        <v>6.027</v>
+        <v>5.921</v>
       </c>
       <c r="D33" t="n">
-        <v>6.027</v>
+        <v>5.97</v>
       </c>
       <c r="E33" t="n">
-        <v>5.994</v>
+        <v>5.921</v>
       </c>
       <c r="F33" t="n">
-        <v>116935.9075</v>
+        <v>97994.5659</v>
       </c>
       <c r="G33" t="n">
-        <v>6.003333333333333</v>
+        <v>-188060868.1672289</v>
       </c>
       <c r="H33" t="n">
-        <v>5.948099999999999</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1818,42 +1749,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.026</v>
+        <v>5.912</v>
       </c>
       <c r="C34" t="n">
-        <v>6.026</v>
+        <v>5.912</v>
       </c>
       <c r="D34" t="n">
-        <v>6.026</v>
+        <v>5.912</v>
       </c>
       <c r="E34" t="n">
-        <v>6.026</v>
+        <v>5.912</v>
       </c>
       <c r="F34" t="n">
-        <v>6264.7257</v>
+        <v>77470.8331</v>
       </c>
       <c r="G34" t="n">
-        <v>6.007</v>
+        <v>-188138339.0003289</v>
       </c>
       <c r="H34" t="n">
-        <v>5.950816666666666</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,42 +1790,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.03</v>
+        <v>5.912</v>
       </c>
       <c r="C35" t="n">
-        <v>6.036</v>
+        <v>5.912</v>
       </c>
       <c r="D35" t="n">
-        <v>6.037</v>
+        <v>5.912</v>
       </c>
       <c r="E35" t="n">
-        <v>6.03</v>
+        <v>5.912</v>
       </c>
       <c r="F35" t="n">
-        <v>28723.751</v>
+        <v>176495.2519</v>
       </c>
       <c r="G35" t="n">
-        <v>6.01</v>
+        <v>-188138339.0003289</v>
       </c>
       <c r="H35" t="n">
-        <v>5.953683333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,42 +1831,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.035</v>
+        <v>5.912</v>
       </c>
       <c r="C36" t="n">
-        <v>6.036</v>
+        <v>5.911</v>
       </c>
       <c r="D36" t="n">
-        <v>6.036</v>
+        <v>5.912</v>
       </c>
       <c r="E36" t="n">
-        <v>6.035</v>
+        <v>5.911</v>
       </c>
       <c r="F36" t="n">
-        <v>165674.95029821</v>
+        <v>104649.0934</v>
       </c>
       <c r="G36" t="n">
-        <v>6.0162</v>
+        <v>-188242988.0937289</v>
       </c>
       <c r="H36" t="n">
-        <v>5.956616666666666</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1950,42 +1872,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.007</v>
+        <v>5.911</v>
       </c>
       <c r="C37" t="n">
-        <v>6.01</v>
+        <v>5.911</v>
       </c>
       <c r="D37" t="n">
-        <v>6.01</v>
+        <v>5.911</v>
       </c>
       <c r="E37" t="n">
-        <v>6.007</v>
+        <v>5.911</v>
       </c>
       <c r="F37" t="n">
-        <v>175</v>
+        <v>12006</v>
       </c>
       <c r="G37" t="n">
-        <v>6.013533333333333</v>
+        <v>-188242988.0937289</v>
       </c>
       <c r="H37" t="n">
-        <v>5.959066666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,42 +1913,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.037</v>
+        <v>5.911</v>
       </c>
       <c r="C38" t="n">
-        <v>6.037</v>
+        <v>5.901</v>
       </c>
       <c r="D38" t="n">
-        <v>6.037</v>
+        <v>5.911</v>
       </c>
       <c r="E38" t="n">
-        <v>6.037</v>
+        <v>5.901</v>
       </c>
       <c r="F38" t="n">
-        <v>495.7365</v>
+        <v>28974</v>
       </c>
       <c r="G38" t="n">
-        <v>6.0124</v>
+        <v>-188271962.0937289</v>
       </c>
       <c r="H38" t="n">
-        <v>5.961966666666666</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2038,42 +1954,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.01</v>
+        <v>5.92</v>
       </c>
       <c r="C39" t="n">
-        <v>6.01</v>
+        <v>5.901</v>
       </c>
       <c r="D39" t="n">
-        <v>6.01</v>
+        <v>5.92</v>
       </c>
       <c r="E39" t="n">
-        <v>6.01</v>
+        <v>5.901</v>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>41825</v>
       </c>
       <c r="G39" t="n">
-        <v>6.011733333333335</v>
+        <v>-188271962.0937289</v>
       </c>
       <c r="H39" t="n">
-        <v>5.963783333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2082,42 +1995,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.013</v>
+        <v>5.904</v>
       </c>
       <c r="C40" t="n">
-        <v>6.013</v>
+        <v>5.903</v>
       </c>
       <c r="D40" t="n">
-        <v>6.013</v>
+        <v>5.904</v>
       </c>
       <c r="E40" t="n">
-        <v>6.013</v>
+        <v>5.902</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>109050</v>
       </c>
       <c r="G40" t="n">
-        <v>6.011933333333334</v>
+        <v>-188162912.0937289</v>
       </c>
       <c r="H40" t="n">
-        <v>5.966149999999999</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2126,42 +2036,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.037</v>
+        <v>5.905</v>
       </c>
       <c r="C41" t="n">
-        <v>6.037</v>
+        <v>5.902</v>
       </c>
       <c r="D41" t="n">
-        <v>6.037</v>
+        <v>5.905</v>
       </c>
       <c r="E41" t="n">
-        <v>6.037</v>
+        <v>5.902</v>
       </c>
       <c r="F41" t="n">
-        <v>8471.148300000001</v>
+        <v>13556</v>
       </c>
       <c r="G41" t="n">
-        <v>6.015733333333334</v>
+        <v>-188176468.0937289</v>
       </c>
       <c r="H41" t="n">
-        <v>5.968916666666666</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>5.903</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,42 +2079,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.037</v>
+        <v>5.948</v>
       </c>
       <c r="C42" t="n">
-        <v>6.037</v>
+        <v>5.964</v>
       </c>
       <c r="D42" t="n">
-        <v>6.037</v>
+        <v>5.964</v>
       </c>
       <c r="E42" t="n">
-        <v>6.037</v>
+        <v>5.903</v>
       </c>
       <c r="F42" t="n">
-        <v>65757.8815</v>
+        <v>64912.0743</v>
       </c>
       <c r="G42" t="n">
-        <v>6.019400000000002</v>
+        <v>-188111556.0194289</v>
       </c>
       <c r="H42" t="n">
-        <v>5.970999999999999</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>5.902</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,42 +2122,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.037</v>
+        <v>5.969</v>
       </c>
       <c r="C43" t="n">
-        <v>6.037</v>
+        <v>5.971</v>
       </c>
       <c r="D43" t="n">
-        <v>6.037</v>
+        <v>5.971</v>
       </c>
       <c r="E43" t="n">
-        <v>6.037</v>
+        <v>5.969</v>
       </c>
       <c r="F43" t="n">
-        <v>138030.0094</v>
+        <v>93987.98940000001</v>
       </c>
       <c r="G43" t="n">
-        <v>6.023066666666669</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H43" t="n">
-        <v>5.973083333333332</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+        <v>5.964</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2258,42 +2165,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.037</v>
+        <v>5.971</v>
       </c>
       <c r="C44" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="D44" t="n">
-        <v>6.046</v>
+        <v>5.971</v>
       </c>
       <c r="E44" t="n">
-        <v>6.037</v>
+        <v>5.971</v>
       </c>
       <c r="F44" t="n">
-        <v>365325.5757</v>
+        <v>310706.337</v>
       </c>
       <c r="G44" t="n">
-        <v>6.026266666666669</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H44" t="n">
-        <v>5.975266666666666</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,42 +2208,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="C45" t="n">
-        <v>6.06</v>
+        <v>5.971</v>
       </c>
       <c r="D45" t="n">
-        <v>6.06</v>
+        <v>5.971</v>
       </c>
       <c r="E45" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="F45" t="n">
-        <v>495860.1774</v>
+        <v>513931.25</v>
       </c>
       <c r="G45" t="n">
-        <v>6.031000000000002</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H45" t="n">
-        <v>5.978183333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2346,42 +2249,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.071</v>
+        <v>5.971</v>
       </c>
       <c r="C46" t="n">
-        <v>6.071</v>
+        <v>5.971</v>
       </c>
       <c r="D46" t="n">
-        <v>6.071</v>
+        <v>5.971</v>
       </c>
       <c r="E46" t="n">
-        <v>6.071</v>
+        <v>5.971</v>
       </c>
       <c r="F46" t="n">
-        <v>637188.5459</v>
+        <v>86018.1553</v>
       </c>
       <c r="G46" t="n">
-        <v>6.033866666666668</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H46" t="n">
-        <v>5.98055</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2390,42 +2290,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.071</v>
+        <v>5.972</v>
       </c>
       <c r="C47" t="n">
-        <v>6.118</v>
+        <v>5.971</v>
       </c>
       <c r="D47" t="n">
-        <v>6.118</v>
+        <v>5.972</v>
       </c>
       <c r="E47" t="n">
-        <v>6.071</v>
+        <v>5.971</v>
       </c>
       <c r="F47" t="n">
-        <v>113216.4855</v>
+        <v>245263.2094</v>
       </c>
       <c r="G47" t="n">
-        <v>6.039866666666668</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H47" t="n">
-        <v>5.983433333333334</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,42 +2333,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="C48" t="n">
-        <v>6.109</v>
+        <v>5.971</v>
       </c>
       <c r="D48" t="n">
-        <v>6.119</v>
+        <v>5.971</v>
       </c>
       <c r="E48" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="F48" t="n">
-        <v>224247.2988</v>
+        <v>51000</v>
       </c>
       <c r="G48" t="n">
-        <v>6.045333333333334</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H48" t="n">
-        <v>5.986166666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,42 +2374,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.109</v>
+        <v>5.988</v>
       </c>
       <c r="C49" t="n">
-        <v>6.109</v>
+        <v>5.991</v>
       </c>
       <c r="D49" t="n">
-        <v>6.109</v>
+        <v>5.991</v>
       </c>
       <c r="E49" t="n">
-        <v>6.109</v>
+        <v>5.988</v>
       </c>
       <c r="F49" t="n">
-        <v>600000</v>
+        <v>414202.1066</v>
       </c>
       <c r="G49" t="n">
-        <v>6.050866666666667</v>
+        <v>-187603365.9234289</v>
       </c>
       <c r="H49" t="n">
-        <v>5.989633333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2522,42 +2415,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.109</v>
+        <v>5.972</v>
       </c>
       <c r="C50" t="n">
-        <v>6.06</v>
+        <v>5.943</v>
       </c>
       <c r="D50" t="n">
-        <v>6.109</v>
+        <v>5.972</v>
       </c>
       <c r="E50" t="n">
-        <v>6.06</v>
+        <v>5.943</v>
       </c>
       <c r="F50" t="n">
-        <v>121132.1266</v>
+        <v>379747.427</v>
       </c>
       <c r="G50" t="n">
-        <v>6.052466666666667</v>
+        <v>-187983113.3504289</v>
       </c>
       <c r="H50" t="n">
-        <v>5.992283333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,42 +2456,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.1</v>
+        <v>6.017</v>
       </c>
       <c r="C51" t="n">
-        <v>6.1</v>
+        <v>6.05</v>
       </c>
       <c r="D51" t="n">
-        <v>6.1</v>
+        <v>6.05</v>
       </c>
       <c r="E51" t="n">
-        <v>6.1</v>
+        <v>6.017</v>
       </c>
       <c r="F51" t="n">
-        <v>49522.6066</v>
+        <v>44171.4891</v>
       </c>
       <c r="G51" t="n">
-        <v>6.056733333333333</v>
+        <v>-187938941.8613289</v>
       </c>
       <c r="H51" t="n">
-        <v>5.995033333333334</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2610,42 +2497,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.073</v>
+        <v>6.009</v>
       </c>
       <c r="C52" t="n">
-        <v>6.1</v>
+        <v>6.054</v>
       </c>
       <c r="D52" t="n">
-        <v>6.1</v>
+        <v>6.054</v>
       </c>
       <c r="E52" t="n">
-        <v>6.073</v>
+        <v>6.009</v>
       </c>
       <c r="F52" t="n">
-        <v>364861.9677</v>
+        <v>207277.3298</v>
       </c>
       <c r="G52" t="n">
-        <v>6.062733333333332</v>
+        <v>-187731664.5315289</v>
       </c>
       <c r="H52" t="n">
-        <v>5.997783333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,42 +2538,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.081</v>
+        <v>6.021</v>
       </c>
       <c r="C53" t="n">
-        <v>6.071</v>
+        <v>6.02</v>
       </c>
       <c r="D53" t="n">
-        <v>6.083</v>
+        <v>6.021</v>
       </c>
       <c r="E53" t="n">
-        <v>6.071</v>
+        <v>6.02</v>
       </c>
       <c r="F53" t="n">
-        <v>201977.945</v>
+        <v>65887</v>
       </c>
       <c r="G53" t="n">
-        <v>6.064999999999999</v>
+        <v>-187797551.5315289</v>
       </c>
       <c r="H53" t="n">
-        <v>6.0003</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,42 +2579,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.108</v>
+        <v>6.02</v>
       </c>
       <c r="C54" t="n">
-        <v>6.108</v>
+        <v>6.01</v>
       </c>
       <c r="D54" t="n">
-        <v>6.108</v>
+        <v>6.021</v>
       </c>
       <c r="E54" t="n">
-        <v>6.108</v>
+        <v>6.003</v>
       </c>
       <c r="F54" t="n">
-        <v>91253.1556</v>
+        <v>75770</v>
       </c>
       <c r="G54" t="n">
-        <v>6.071533333333332</v>
+        <v>-187873321.5315289</v>
       </c>
       <c r="H54" t="n">
-        <v>6.003100000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2742,42 +2620,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.081</v>
+        <v>5.98</v>
       </c>
       <c r="C55" t="n">
-        <v>6.12</v>
+        <v>5.98</v>
       </c>
       <c r="D55" t="n">
-        <v>6.12</v>
+        <v>5.98</v>
       </c>
       <c r="E55" t="n">
-        <v>6.081</v>
+        <v>5.98</v>
       </c>
       <c r="F55" t="n">
-        <v>15660.5393</v>
+        <v>3856</v>
       </c>
       <c r="G55" t="n">
-        <v>6.078666666666665</v>
+        <v>-187877177.5315289</v>
       </c>
       <c r="H55" t="n">
-        <v>6.005133333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2786,42 +2661,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.09</v>
+        <v>5.976</v>
       </c>
       <c r="C56" t="n">
-        <v>6.08</v>
+        <v>5.982</v>
       </c>
       <c r="D56" t="n">
-        <v>6.09</v>
+        <v>5.983</v>
       </c>
       <c r="E56" t="n">
-        <v>6.08</v>
+        <v>5.976</v>
       </c>
       <c r="F56" t="n">
-        <v>17829.9436</v>
+        <v>186375</v>
       </c>
       <c r="G56" t="n">
-        <v>6.081533333333331</v>
+        <v>-187690802.5315289</v>
       </c>
       <c r="H56" t="n">
-        <v>6.007133333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,43 +2702,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.09</v>
+        <v>5.983</v>
       </c>
       <c r="C57" t="n">
-        <v>6.085</v>
+        <v>5.982</v>
       </c>
       <c r="D57" t="n">
-        <v>6.09</v>
+        <v>5.983</v>
       </c>
       <c r="E57" t="n">
-        <v>6.085</v>
+        <v>5.982</v>
       </c>
       <c r="F57" t="n">
-        <v>12364.4799</v>
+        <v>44277</v>
       </c>
       <c r="G57" t="n">
-        <v>6.084733333333331</v>
+        <v>-187690802.5315289</v>
       </c>
       <c r="H57" t="n">
-        <v>6.008566666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>1.024436643545932</v>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2874,36 +2743,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.069</v>
+        <v>5.995</v>
       </c>
       <c r="C58" t="n">
-        <v>6.069</v>
+        <v>5.995</v>
       </c>
       <c r="D58" t="n">
-        <v>6.069</v>
+        <v>5.995</v>
       </c>
       <c r="E58" t="n">
-        <v>6.069</v>
+        <v>5.995</v>
       </c>
       <c r="F58" t="n">
-        <v>12000</v>
+        <v>42480</v>
       </c>
       <c r="G58" t="n">
-        <v>6.086866666666664</v>
+        <v>-187648322.5315289</v>
       </c>
       <c r="H58" t="n">
-        <v>6.009483333333334</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,36 +2784,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.09</v>
+        <v>5.989</v>
       </c>
       <c r="C59" t="n">
-        <v>6.092</v>
+        <v>5.989</v>
       </c>
       <c r="D59" t="n">
-        <v>6.092</v>
+        <v>5.989</v>
       </c>
       <c r="E59" t="n">
-        <v>6.09</v>
+        <v>5.989</v>
       </c>
       <c r="F59" t="n">
-        <v>24000</v>
+        <v>8312.5</v>
       </c>
       <c r="G59" t="n">
-        <v>6.09013333333333</v>
+        <v>-187656635.0315289</v>
       </c>
       <c r="H59" t="n">
-        <v>6.010633333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,36 +2825,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.105</v>
+        <v>6.028</v>
       </c>
       <c r="C60" t="n">
-        <v>6.105</v>
+        <v>6.028</v>
       </c>
       <c r="D60" t="n">
-        <v>6.105</v>
+        <v>6.028</v>
       </c>
       <c r="E60" t="n">
-        <v>6.105</v>
+        <v>6.028</v>
       </c>
       <c r="F60" t="n">
-        <v>12000</v>
+        <v>92645</v>
       </c>
       <c r="G60" t="n">
-        <v>6.09313333333333</v>
+        <v>-187563990.0315289</v>
       </c>
       <c r="H60" t="n">
-        <v>6.01255</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,36 +2866,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.095</v>
+        <v>6.028</v>
       </c>
       <c r="C61" t="n">
-        <v>6.095</v>
+        <v>6.028</v>
       </c>
       <c r="D61" t="n">
-        <v>6.095</v>
+        <v>6.028</v>
       </c>
       <c r="E61" t="n">
-        <v>6.095</v>
+        <v>6.028</v>
       </c>
       <c r="F61" t="n">
-        <v>7157.0203</v>
+        <v>14697.3885</v>
       </c>
       <c r="G61" t="n">
-        <v>6.09473333333333</v>
+        <v>-187563990.0315289</v>
       </c>
       <c r="H61" t="n">
-        <v>6.01445</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3026,36 +2907,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.096</v>
+        <v>5.994</v>
       </c>
       <c r="C62" t="n">
-        <v>6.096</v>
+        <v>6.027</v>
       </c>
       <c r="D62" t="n">
-        <v>6.096</v>
+        <v>6.027</v>
       </c>
       <c r="E62" t="n">
-        <v>6.096</v>
+        <v>5.994</v>
       </c>
       <c r="F62" t="n">
-        <v>5577.8953</v>
+        <v>116935.9075</v>
       </c>
       <c r="G62" t="n">
-        <v>6.093266666666664</v>
+        <v>-187680925.9390289</v>
       </c>
       <c r="H62" t="n">
-        <v>6.016333333333334</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,36 +2948,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.109</v>
+        <v>6.026</v>
       </c>
       <c r="C63" t="n">
-        <v>6.109</v>
+        <v>6.026</v>
       </c>
       <c r="D63" t="n">
-        <v>6.109</v>
+        <v>6.026</v>
       </c>
       <c r="E63" t="n">
-        <v>6.109</v>
+        <v>6.026</v>
       </c>
       <c r="F63" t="n">
-        <v>207.5163</v>
+        <v>6264.7257</v>
       </c>
       <c r="G63" t="n">
-        <v>6.093266666666664</v>
+        <v>-187687190.6647289</v>
       </c>
       <c r="H63" t="n">
-        <v>6.0187</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,36 +2989,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.12</v>
+        <v>6.03</v>
       </c>
       <c r="C64" t="n">
-        <v>6.133</v>
+        <v>6.036</v>
       </c>
       <c r="D64" t="n">
-        <v>6.133</v>
+        <v>6.037</v>
       </c>
       <c r="E64" t="n">
-        <v>6.12</v>
+        <v>6.03</v>
       </c>
       <c r="F64" t="n">
-        <v>16305.23398031</v>
+        <v>28723.751</v>
       </c>
       <c r="G64" t="n">
-        <v>6.094866666666664</v>
+        <v>-187658466.9137289</v>
       </c>
       <c r="H64" t="n">
-        <v>6.022233333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,36 +3030,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.095</v>
+        <v>6.035</v>
       </c>
       <c r="C65" t="n">
-        <v>6.092</v>
+        <v>6.036</v>
       </c>
       <c r="D65" t="n">
-        <v>6.095</v>
+        <v>6.036</v>
       </c>
       <c r="E65" t="n">
-        <v>6.092</v>
+        <v>6.035</v>
       </c>
       <c r="F65" t="n">
-        <v>35990.473</v>
+        <v>165674.95029821</v>
       </c>
       <c r="G65" t="n">
-        <v>6.096999999999997</v>
+        <v>-187658466.9137289</v>
       </c>
       <c r="H65" t="n">
-        <v>6.025233333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,36 +3071,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.018</v>
+        <v>6.007</v>
       </c>
       <c r="C66" t="n">
-        <v>6.073</v>
+        <v>6.01</v>
       </c>
       <c r="D66" t="n">
-        <v>6.073</v>
+        <v>6.01</v>
       </c>
       <c r="E66" t="n">
-        <v>6.017</v>
+        <v>6.007</v>
       </c>
       <c r="F66" t="n">
-        <v>181993.8357</v>
+        <v>175</v>
       </c>
       <c r="G66" t="n">
-        <v>6.095199999999998</v>
+        <v>-187658641.9137289</v>
       </c>
       <c r="H66" t="n">
-        <v>6.027916666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,36 +3112,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="C67" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="D67" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="E67" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="F67" t="n">
-        <v>1285.1518</v>
+        <v>495.7365</v>
       </c>
       <c r="G67" t="n">
-        <v>6.093399999999999</v>
+        <v>-187658146.1772289</v>
       </c>
       <c r="H67" t="n">
-        <v>6.030616666666666</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3254,36 +3153,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.096</v>
+        <v>6.01</v>
       </c>
       <c r="C68" t="n">
-        <v>6.108</v>
+        <v>6.01</v>
       </c>
       <c r="D68" t="n">
-        <v>6.108</v>
+        <v>6.01</v>
       </c>
       <c r="E68" t="n">
-        <v>6.096</v>
+        <v>6.01</v>
       </c>
       <c r="F68" t="n">
-        <v>219000</v>
+        <v>100</v>
       </c>
       <c r="G68" t="n">
-        <v>6.095866666666666</v>
+        <v>-187658246.1772289</v>
       </c>
       <c r="H68" t="n">
-        <v>6.0339</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3292,36 +3194,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.083</v>
+        <v>6.013</v>
       </c>
       <c r="C69" t="n">
-        <v>6.083</v>
+        <v>6.013</v>
       </c>
       <c r="D69" t="n">
-        <v>6.083</v>
+        <v>6.013</v>
       </c>
       <c r="E69" t="n">
-        <v>6.083</v>
+        <v>6.013</v>
       </c>
       <c r="F69" t="n">
-        <v>17354.1797</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>6.094199999999999</v>
+        <v>-187658146.1772289</v>
       </c>
       <c r="H69" t="n">
-        <v>6.036933333333334</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,36 +3235,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.08</v>
+        <v>6.037</v>
       </c>
       <c r="C70" t="n">
-        <v>6.08</v>
+        <v>6.037</v>
       </c>
       <c r="D70" t="n">
-        <v>6.08</v>
+        <v>6.037</v>
       </c>
       <c r="E70" t="n">
-        <v>6.08</v>
+        <v>6.037</v>
       </c>
       <c r="F70" t="n">
-        <v>2390.2078</v>
+        <v>8471.148300000001</v>
       </c>
       <c r="G70" t="n">
-        <v>6.091533333333332</v>
+        <v>-187649675.0289289</v>
       </c>
       <c r="H70" t="n">
-        <v>6.039916666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3368,36 +3276,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="C71" t="n">
-        <v>6.072</v>
+        <v>6.037</v>
       </c>
       <c r="D71" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="E71" t="n">
-        <v>6.072</v>
+        <v>6.037</v>
       </c>
       <c r="F71" t="n">
-        <v>32956.6488</v>
+        <v>65757.8815</v>
       </c>
       <c r="G71" t="n">
-        <v>6.090999999999998</v>
+        <v>-187649675.0289289</v>
       </c>
       <c r="H71" t="n">
-        <v>6.042733333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,36 +3317,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.072</v>
+        <v>6.037</v>
       </c>
       <c r="C72" t="n">
-        <v>6.07</v>
+        <v>6.037</v>
       </c>
       <c r="D72" t="n">
-        <v>6.072</v>
+        <v>6.037</v>
       </c>
       <c r="E72" t="n">
-        <v>6.07</v>
+        <v>6.037</v>
       </c>
       <c r="F72" t="n">
-        <v>12629.9124</v>
+        <v>138030.0094</v>
       </c>
       <c r="G72" t="n">
-        <v>6.089999999999999</v>
+        <v>-187649675.0289289</v>
       </c>
       <c r="H72" t="n">
-        <v>6.045533333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3444,36 +3358,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.07</v>
+        <v>6.037</v>
       </c>
       <c r="C73" t="n">
-        <v>6.072</v>
+        <v>6.043</v>
       </c>
       <c r="D73" t="n">
-        <v>6.072</v>
+        <v>6.046</v>
       </c>
       <c r="E73" t="n">
-        <v>6.07</v>
+        <v>6.037</v>
       </c>
       <c r="F73" t="n">
-        <v>19284.0241</v>
+        <v>365325.5757</v>
       </c>
       <c r="G73" t="n">
-        <v>6.090199999999999</v>
+        <v>-187284349.4532289</v>
       </c>
       <c r="H73" t="n">
-        <v>6.047333333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,36 +3399,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.07</v>
+        <v>6.043</v>
       </c>
       <c r="C74" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="D74" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="E74" t="n">
-        <v>6.07</v>
+        <v>6.043</v>
       </c>
       <c r="F74" t="n">
-        <v>1351.4441</v>
+        <v>495860.1774</v>
       </c>
       <c r="G74" t="n">
-        <v>6.088733333333332</v>
+        <v>-186788489.2758289</v>
       </c>
       <c r="H74" t="n">
-        <v>6.048983333333333</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>6.043</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,36 +3442,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="C75" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="D75" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="E75" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="F75" t="n">
-        <v>4112.2946</v>
+        <v>637188.5459</v>
       </c>
       <c r="G75" t="n">
-        <v>6.085066666666664</v>
+        <v>-186151300.7299289</v>
       </c>
       <c r="H75" t="n">
-        <v>6.050299999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,36 +3483,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="C76" t="n">
-        <v>6.05</v>
+        <v>6.118</v>
       </c>
       <c r="D76" t="n">
-        <v>6.05</v>
+        <v>6.118</v>
       </c>
       <c r="E76" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="F76" t="n">
-        <v>1850.4501</v>
+        <v>113216.4855</v>
       </c>
       <c r="G76" t="n">
-        <v>6.082066666666664</v>
+        <v>-186038084.2444289</v>
       </c>
       <c r="H76" t="n">
-        <v>6.051616666666666</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,36 +3524,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.05</v>
+        <v>6.043</v>
       </c>
       <c r="C77" t="n">
-        <v>6.05</v>
+        <v>6.109</v>
       </c>
       <c r="D77" t="n">
-        <v>6.05</v>
+        <v>6.119</v>
       </c>
       <c r="E77" t="n">
-        <v>6.05</v>
+        <v>6.043</v>
       </c>
       <c r="F77" t="n">
-        <v>21639.2181</v>
+        <v>224247.2988</v>
       </c>
       <c r="G77" t="n">
-        <v>6.078999999999997</v>
+        <v>-186262331.5432289</v>
       </c>
       <c r="H77" t="n">
-        <v>6.052933333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,36 +3565,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.05</v>
+        <v>6.109</v>
       </c>
       <c r="C78" t="n">
-        <v>6.05</v>
+        <v>6.109</v>
       </c>
       <c r="D78" t="n">
-        <v>6.05</v>
+        <v>6.109</v>
       </c>
       <c r="E78" t="n">
-        <v>6.05</v>
+        <v>6.109</v>
       </c>
       <c r="F78" t="n">
-        <v>78472.72169999999</v>
+        <v>600000</v>
       </c>
       <c r="G78" t="n">
-        <v>6.075066666666664</v>
+        <v>-186262331.5432289</v>
       </c>
       <c r="H78" t="n">
-        <v>6.05425</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,36 +3606,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.041</v>
+        <v>6.109</v>
       </c>
       <c r="C79" t="n">
-        <v>6.041</v>
+        <v>6.06</v>
       </c>
       <c r="D79" t="n">
-        <v>6.041</v>
+        <v>6.109</v>
       </c>
       <c r="E79" t="n">
-        <v>6.041</v>
+        <v>6.06</v>
       </c>
       <c r="F79" t="n">
-        <v>4553.687</v>
+        <v>121132.1266</v>
       </c>
       <c r="G79" t="n">
-        <v>6.068933333333331</v>
+        <v>-186383463.6698289</v>
       </c>
       <c r="H79" t="n">
-        <v>6.055416666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,36 +3647,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.041</v>
+        <v>6.1</v>
       </c>
       <c r="C80" t="n">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
       <c r="D80" t="n">
-        <v>6.041</v>
+        <v>6.1</v>
       </c>
       <c r="E80" t="n">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
       <c r="F80" t="n">
-        <v>8178.4179</v>
+        <v>49522.6066</v>
       </c>
       <c r="G80" t="n">
-        <v>6.065466666666665</v>
+        <v>-186333941.0632289</v>
       </c>
       <c r="H80" t="n">
-        <v>6.056233333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,36 +3688,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.04</v>
+        <v>6.073</v>
       </c>
       <c r="C81" t="n">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
       <c r="D81" t="n">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
       <c r="E81" t="n">
-        <v>6.04</v>
+        <v>6.073</v>
       </c>
       <c r="F81" t="n">
-        <v>3942.4702</v>
+        <v>364861.9677</v>
       </c>
       <c r="G81" t="n">
-        <v>6.063266666666665</v>
+        <v>-186333941.0632289</v>
       </c>
       <c r="H81" t="n">
-        <v>6.057850000000001</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,36 +3729,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.032</v>
+        <v>6.081</v>
       </c>
       <c r="C82" t="n">
-        <v>6.032</v>
+        <v>6.071</v>
       </c>
       <c r="D82" t="n">
-        <v>6.032</v>
+        <v>6.083</v>
       </c>
       <c r="E82" t="n">
-        <v>6.031</v>
+        <v>6.071</v>
       </c>
       <c r="F82" t="n">
-        <v>120712.8991</v>
+        <v>201977.945</v>
       </c>
       <c r="G82" t="n">
-        <v>6.060533333333333</v>
+        <v>-186535919.0082289</v>
       </c>
       <c r="H82" t="n">
-        <v>6.057550000000001</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,36 +3770,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.031</v>
+        <v>6.108</v>
       </c>
       <c r="C83" t="n">
-        <v>6.031</v>
+        <v>6.108</v>
       </c>
       <c r="D83" t="n">
-        <v>6.031</v>
+        <v>6.108</v>
       </c>
       <c r="E83" t="n">
-        <v>6.031</v>
+        <v>6.108</v>
       </c>
       <c r="F83" t="n">
-        <v>9434.763999999999</v>
+        <v>91253.1556</v>
       </c>
       <c r="G83" t="n">
-        <v>6.0554</v>
+        <v>-186444665.8526289</v>
       </c>
       <c r="H83" t="n">
-        <v>6.057166666666668</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,36 +3811,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.98</v>
+        <v>6.081</v>
       </c>
       <c r="C84" t="n">
-        <v>5.97</v>
+        <v>6.12</v>
       </c>
       <c r="D84" t="n">
-        <v>5.98</v>
+        <v>6.12</v>
       </c>
       <c r="E84" t="n">
-        <v>5.97</v>
+        <v>6.081</v>
       </c>
       <c r="F84" t="n">
-        <v>7871.6306</v>
+        <v>15660.5393</v>
       </c>
       <c r="G84" t="n">
-        <v>6.047866666666666</v>
+        <v>-186429005.3133289</v>
       </c>
       <c r="H84" t="n">
-        <v>6.056333333333336</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,36 +3852,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="C85" t="n">
-        <v>5.992</v>
+        <v>6.08</v>
       </c>
       <c r="D85" t="n">
-        <v>5.992</v>
+        <v>6.09</v>
       </c>
       <c r="E85" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="F85" t="n">
-        <v>86993.26850000001</v>
+        <v>17829.9436</v>
       </c>
       <c r="G85" t="n">
-        <v>6.042</v>
+        <v>-186446835.2569289</v>
       </c>
       <c r="H85" t="n">
-        <v>6.056033333333335</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,36 +3893,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.992</v>
+        <v>6.09</v>
       </c>
       <c r="C86" t="n">
-        <v>5.992</v>
+        <v>6.085</v>
       </c>
       <c r="D86" t="n">
-        <v>5.992</v>
+        <v>6.09</v>
       </c>
       <c r="E86" t="n">
-        <v>5.992</v>
+        <v>6.085</v>
       </c>
       <c r="F86" t="n">
-        <v>28333.3673</v>
+        <v>12364.4799</v>
       </c>
       <c r="G86" t="n">
-        <v>6.036666666666666</v>
+        <v>-186434470.7770289</v>
       </c>
       <c r="H86" t="n">
-        <v>6.056233333333336</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,36 +3934,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.983</v>
+        <v>6.069</v>
       </c>
       <c r="C87" t="n">
-        <v>5.983</v>
+        <v>6.069</v>
       </c>
       <c r="D87" t="n">
-        <v>5.983</v>
+        <v>6.069</v>
       </c>
       <c r="E87" t="n">
-        <v>5.983</v>
+        <v>6.069</v>
       </c>
       <c r="F87" t="n">
-        <v>132905.2833</v>
+        <v>12000</v>
       </c>
       <c r="G87" t="n">
-        <v>6.030866666666666</v>
+        <v>-186446470.7770289</v>
       </c>
       <c r="H87" t="n">
-        <v>6.056250000000002</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,36 +3975,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.978</v>
+        <v>6.09</v>
       </c>
       <c r="C88" t="n">
-        <v>5.978</v>
+        <v>6.092</v>
       </c>
       <c r="D88" t="n">
-        <v>5.978</v>
+        <v>6.092</v>
       </c>
       <c r="E88" t="n">
-        <v>5.978</v>
+        <v>6.09</v>
       </c>
       <c r="F88" t="n">
-        <v>26481.9081</v>
+        <v>24000</v>
       </c>
       <c r="G88" t="n">
-        <v>6.024599999999999</v>
+        <v>-186422470.7770289</v>
       </c>
       <c r="H88" t="n">
-        <v>6.056183333333335</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,36 +4016,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.953</v>
+        <v>6.105</v>
       </c>
       <c r="C89" t="n">
-        <v>5.953</v>
+        <v>6.105</v>
       </c>
       <c r="D89" t="n">
-        <v>5.953</v>
+        <v>6.105</v>
       </c>
       <c r="E89" t="n">
-        <v>5.953</v>
+        <v>6.105</v>
       </c>
       <c r="F89" t="n">
-        <v>15673.0109</v>
+        <v>12000</v>
       </c>
       <c r="G89" t="n">
-        <v>6.016799999999999</v>
+        <v>-186410470.7770289</v>
       </c>
       <c r="H89" t="n">
-        <v>6.055483333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,36 +4057,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.961</v>
+        <v>6.095</v>
       </c>
       <c r="C90" t="n">
-        <v>5.961</v>
+        <v>6.095</v>
       </c>
       <c r="D90" t="n">
-        <v>5.961</v>
+        <v>6.095</v>
       </c>
       <c r="E90" t="n">
-        <v>5.961</v>
+        <v>6.095</v>
       </c>
       <c r="F90" t="n">
-        <v>98287.9596</v>
+        <v>7157.0203</v>
       </c>
       <c r="G90" t="n">
-        <v>6.010866666666666</v>
+        <v>-186417627.7973289</v>
       </c>
       <c r="H90" t="n">
-        <v>6.055016666666669</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,36 +4098,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.003</v>
+        <v>6.096</v>
       </c>
       <c r="C91" t="n">
-        <v>6.003</v>
+        <v>6.096</v>
       </c>
       <c r="D91" t="n">
-        <v>6.003</v>
+        <v>6.096</v>
       </c>
       <c r="E91" t="n">
-        <v>6.003</v>
+        <v>6.096</v>
       </c>
       <c r="F91" t="n">
-        <v>18000</v>
+        <v>5577.8953</v>
       </c>
       <c r="G91" t="n">
-        <v>6.007733333333332</v>
+        <v>-186412049.9020289</v>
       </c>
       <c r="H91" t="n">
-        <v>6.054600000000002</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4166,36 +4139,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.022</v>
+        <v>6.109</v>
       </c>
       <c r="C92" t="n">
-        <v>6.023</v>
+        <v>6.109</v>
       </c>
       <c r="D92" t="n">
-        <v>6.023</v>
+        <v>6.109</v>
       </c>
       <c r="E92" t="n">
-        <v>6.022</v>
+        <v>6.109</v>
       </c>
       <c r="F92" t="n">
-        <v>3469.6516</v>
+        <v>207.5163</v>
       </c>
       <c r="G92" t="n">
-        <v>6.005933333333332</v>
+        <v>-186411842.3857289</v>
       </c>
       <c r="H92" t="n">
-        <v>6.054516666666668</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,37 +4180,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.989</v>
+        <v>6.12</v>
       </c>
       <c r="C93" t="n">
-        <v>5.989</v>
+        <v>6.133</v>
       </c>
       <c r="D93" t="n">
-        <v>5.989</v>
+        <v>6.133</v>
       </c>
       <c r="E93" t="n">
-        <v>5.989</v>
+        <v>6.12</v>
       </c>
       <c r="F93" t="n">
-        <v>14047.0752</v>
+        <v>16305.23398031</v>
       </c>
       <c r="G93" t="n">
-        <v>6.001866666666666</v>
+        <v>-186395537.1517486</v>
       </c>
       <c r="H93" t="n">
-        <v>6.053883333333334</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1.03678698827926</v>
       </c>
     </row>
     <row r="94">
@@ -4242,36 +4221,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.991</v>
+        <v>6.095</v>
       </c>
       <c r="C94" t="n">
-        <v>5.991</v>
+        <v>6.092</v>
       </c>
       <c r="D94" t="n">
-        <v>5.991</v>
+        <v>6.095</v>
       </c>
       <c r="E94" t="n">
-        <v>5.991</v>
+        <v>6.092</v>
       </c>
       <c r="F94" t="n">
-        <v>19464</v>
+        <v>35990.473</v>
       </c>
       <c r="G94" t="n">
-        <v>5.998533333333333</v>
+        <v>-186431527.6247486</v>
       </c>
       <c r="H94" t="n">
-        <v>6.053300000000001</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,36 +4256,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.991</v>
+        <v>6.018</v>
       </c>
       <c r="C95" t="n">
-        <v>5.991</v>
+        <v>6.073</v>
       </c>
       <c r="D95" t="n">
-        <v>5.991</v>
+        <v>6.073</v>
       </c>
       <c r="E95" t="n">
-        <v>5.991</v>
+        <v>6.017</v>
       </c>
       <c r="F95" t="n">
-        <v>9602.6018</v>
+        <v>181993.8357</v>
       </c>
       <c r="G95" t="n">
-        <v>5.995266666666666</v>
+        <v>-186613521.4604486</v>
       </c>
       <c r="H95" t="n">
-        <v>6.05255</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,36 +4291,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.99</v>
+        <v>6.073</v>
       </c>
       <c r="C96" t="n">
-        <v>5.99</v>
+        <v>6.073</v>
       </c>
       <c r="D96" t="n">
-        <v>5.99</v>
+        <v>6.073</v>
       </c>
       <c r="E96" t="n">
-        <v>5.99</v>
+        <v>6.073</v>
       </c>
       <c r="F96" t="n">
-        <v>295.6405</v>
+        <v>1285.1518</v>
       </c>
       <c r="G96" t="n">
-        <v>5.991933333333332</v>
+        <v>-186613521.4604486</v>
       </c>
       <c r="H96" t="n">
-        <v>6.051783333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,36 +4326,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>6.096</v>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>6.108</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>6.108</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>6.096</v>
       </c>
       <c r="F97" t="n">
-        <v>15813.001</v>
+        <v>219000</v>
       </c>
       <c r="G97" t="n">
-        <v>5.989799999999999</v>
+        <v>-186394521.4604486</v>
       </c>
       <c r="H97" t="n">
-        <v>6.051616666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,36 +4361,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6</v>
+        <v>6.083</v>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>6.083</v>
       </c>
       <c r="D98" t="n">
-        <v>6</v>
+        <v>6.083</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>6.083</v>
       </c>
       <c r="F98" t="n">
-        <v>1581.0962</v>
+        <v>17354.1797</v>
       </c>
       <c r="G98" t="n">
-        <v>5.987733333333332</v>
+        <v>-186411875.6401486</v>
       </c>
       <c r="H98" t="n">
-        <v>6.051000000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4432,36 +4396,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.999</v>
+        <v>6.08</v>
       </c>
       <c r="C99" t="n">
-        <v>5.999</v>
+        <v>6.08</v>
       </c>
       <c r="D99" t="n">
-        <v>5.999</v>
+        <v>6.08</v>
       </c>
       <c r="E99" t="n">
-        <v>5.999</v>
+        <v>6.08</v>
       </c>
       <c r="F99" t="n">
-        <v>106074.6846</v>
+        <v>2390.2078</v>
       </c>
       <c r="G99" t="n">
-        <v>5.989666666666665</v>
+        <v>-186414265.8479486</v>
       </c>
       <c r="H99" t="n">
-        <v>6.050816666666668</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,36 +4431,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.01</v>
+        <v>6.073</v>
       </c>
       <c r="C100" t="n">
-        <v>6.03</v>
+        <v>6.072</v>
       </c>
       <c r="D100" t="n">
-        <v>6.03</v>
+        <v>6.073</v>
       </c>
       <c r="E100" t="n">
-        <v>6.01</v>
+        <v>6.072</v>
       </c>
       <c r="F100" t="n">
-        <v>14778.0367</v>
+        <v>32956.6488</v>
       </c>
       <c r="G100" t="n">
-        <v>5.992199999999998</v>
+        <v>-186447222.4967486</v>
       </c>
       <c r="H100" t="n">
-        <v>6.051100000000002</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,36 +4466,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.04</v>
+        <v>6.072</v>
       </c>
       <c r="C101" t="n">
-        <v>6.008</v>
+        <v>6.07</v>
       </c>
       <c r="D101" t="n">
-        <v>6.045</v>
+        <v>6.072</v>
       </c>
       <c r="E101" t="n">
-        <v>6.001</v>
+        <v>6.07</v>
       </c>
       <c r="F101" t="n">
-        <v>60675.0127</v>
+        <v>12629.9124</v>
       </c>
       <c r="G101" t="n">
-        <v>5.993266666666664</v>
+        <v>-186459852.4091486</v>
       </c>
       <c r="H101" t="n">
-        <v>6.050616666666668</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,36 +4501,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.044</v>
+        <v>6.07</v>
       </c>
       <c r="C102" t="n">
-        <v>6.044</v>
+        <v>6.072</v>
       </c>
       <c r="D102" t="n">
-        <v>6.044</v>
+        <v>6.072</v>
       </c>
       <c r="E102" t="n">
-        <v>6.044</v>
+        <v>6.07</v>
       </c>
       <c r="F102" t="n">
-        <v>3346.1331</v>
+        <v>19284.0241</v>
       </c>
       <c r="G102" t="n">
-        <v>5.99733333333333</v>
+        <v>-186440568.3850486</v>
       </c>
       <c r="H102" t="n">
-        <v>6.050733333333335</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,36 +4536,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.015</v>
+        <v>6.07</v>
       </c>
       <c r="C103" t="n">
-        <v>6.015</v>
+        <v>6.07</v>
       </c>
       <c r="D103" t="n">
-        <v>6.015</v>
+        <v>6.07</v>
       </c>
       <c r="E103" t="n">
-        <v>6.015</v>
+        <v>6.07</v>
       </c>
       <c r="F103" t="n">
-        <v>6896.936</v>
+        <v>1351.4441</v>
       </c>
       <c r="G103" t="n">
-        <v>5.999799999999997</v>
+        <v>-186441919.8291486</v>
       </c>
       <c r="H103" t="n">
-        <v>6.050366666666668</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,36 +4571,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.016</v>
+        <v>6.05</v>
       </c>
       <c r="C104" t="n">
-        <v>6.017</v>
+        <v>6.05</v>
       </c>
       <c r="D104" t="n">
-        <v>6.017</v>
+        <v>6.05</v>
       </c>
       <c r="E104" t="n">
-        <v>6.015</v>
+        <v>6.05</v>
       </c>
       <c r="F104" t="n">
-        <v>452892.9002</v>
+        <v>4112.2946</v>
       </c>
       <c r="G104" t="n">
-        <v>6.004066666666663</v>
+        <v>-186446032.1237486</v>
       </c>
       <c r="H104" t="n">
-        <v>6.049933333333334</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,36 +4606,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.015</v>
+        <v>6.05</v>
       </c>
       <c r="C105" t="n">
-        <v>6.015</v>
+        <v>6.05</v>
       </c>
       <c r="D105" t="n">
-        <v>6.015</v>
+        <v>6.05</v>
       </c>
       <c r="E105" t="n">
-        <v>6.015</v>
+        <v>6.05</v>
       </c>
       <c r="F105" t="n">
-        <v>187.8941</v>
+        <v>1850.4501</v>
       </c>
       <c r="G105" t="n">
-        <v>6.007666666666664</v>
+        <v>-186446032.1237486</v>
       </c>
       <c r="H105" t="n">
-        <v>6.049183333333334</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,36 +4641,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.001</v>
+        <v>6.05</v>
       </c>
       <c r="C106" t="n">
-        <v>6.001</v>
+        <v>6.05</v>
       </c>
       <c r="D106" t="n">
-        <v>6.001</v>
+        <v>6.05</v>
       </c>
       <c r="E106" t="n">
-        <v>6.001</v>
+        <v>6.05</v>
       </c>
       <c r="F106" t="n">
-        <v>6723</v>
+        <v>21639.2181</v>
       </c>
       <c r="G106" t="n">
-        <v>6.00753333333333</v>
+        <v>-186446032.1237486</v>
       </c>
       <c r="H106" t="n">
-        <v>6.048016666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,36 +4676,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="C107" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="F107" t="n">
-        <v>10979.9497</v>
+        <v>78472.72169999999</v>
       </c>
       <c r="G107" t="n">
-        <v>6.005999999999998</v>
+        <v>-186446032.1237486</v>
       </c>
       <c r="H107" t="n">
-        <v>6.04605</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4774,36 +4711,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.001</v>
+        <v>6.041</v>
       </c>
       <c r="C108" t="n">
-        <v>6.001</v>
+        <v>6.041</v>
       </c>
       <c r="D108" t="n">
-        <v>6.001</v>
+        <v>6.041</v>
       </c>
       <c r="E108" t="n">
-        <v>6.001</v>
+        <v>6.041</v>
       </c>
       <c r="F108" t="n">
-        <v>172970.2285</v>
+        <v>4553.687</v>
       </c>
       <c r="G108" t="n">
-        <v>6.006799999999997</v>
+        <v>-186450585.8107486</v>
       </c>
       <c r="H108" t="n">
-        <v>6.044250000000001</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4812,36 +4746,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.994</v>
+        <v>6.041</v>
       </c>
       <c r="C109" t="n">
-        <v>5.995</v>
+        <v>6.04</v>
       </c>
       <c r="D109" t="n">
-        <v>5.995</v>
+        <v>6.041</v>
       </c>
       <c r="E109" t="n">
-        <v>5.994</v>
+        <v>6.04</v>
       </c>
       <c r="F109" t="n">
-        <v>7480.718</v>
+        <v>8178.4179</v>
       </c>
       <c r="G109" t="n">
-        <v>6.007066666666664</v>
+        <v>-186458764.2286486</v>
       </c>
       <c r="H109" t="n">
-        <v>6.042350000000001</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4850,36 +4781,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.995</v>
+        <v>6.04</v>
       </c>
       <c r="C110" t="n">
-        <v>5.993</v>
+        <v>6.04</v>
       </c>
       <c r="D110" t="n">
-        <v>5.995</v>
+        <v>6.04</v>
       </c>
       <c r="E110" t="n">
-        <v>5.993</v>
+        <v>6.04</v>
       </c>
       <c r="F110" t="n">
-        <v>9278.0605</v>
+        <v>3942.4702</v>
       </c>
       <c r="G110" t="n">
-        <v>6.007199999999997</v>
+        <v>-186458764.2286486</v>
       </c>
       <c r="H110" t="n">
-        <v>6.041233333333334</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,36 +4816,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.029</v>
+        <v>6.032</v>
       </c>
       <c r="C111" t="n">
-        <v>6.029</v>
+        <v>6.032</v>
       </c>
       <c r="D111" t="n">
-        <v>6.029</v>
+        <v>6.032</v>
       </c>
       <c r="E111" t="n">
-        <v>6.029</v>
+        <v>6.031</v>
       </c>
       <c r="F111" t="n">
-        <v>16991.9793</v>
+        <v>120712.8991</v>
       </c>
       <c r="G111" t="n">
-        <v>6.009799999999998</v>
+        <v>-186579477.1277486</v>
       </c>
       <c r="H111" t="n">
-        <v>6.04005</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4926,36 +4851,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.028</v>
+        <v>6.031</v>
       </c>
       <c r="C112" t="n">
-        <v>6.028</v>
+        <v>6.031</v>
       </c>
       <c r="D112" t="n">
-        <v>6.028</v>
+        <v>6.031</v>
       </c>
       <c r="E112" t="n">
-        <v>6.028</v>
+        <v>6.031</v>
       </c>
       <c r="F112" t="n">
-        <v>16994.9644</v>
+        <v>9434.763999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>6.011666666666665</v>
+        <v>-186588911.8917486</v>
       </c>
       <c r="H112" t="n">
-        <v>6.03885</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,36 +4886,1048 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.029</v>
+        <v>5.98</v>
       </c>
       <c r="C113" t="n">
-        <v>6.029</v>
+        <v>5.97</v>
       </c>
       <c r="D113" t="n">
-        <v>6.029</v>
+        <v>5.98</v>
       </c>
       <c r="E113" t="n">
-        <v>6.029</v>
+        <v>5.97</v>
       </c>
       <c r="F113" t="n">
-        <v>58481.0878</v>
+        <v>7871.6306</v>
       </c>
       <c r="G113" t="n">
-        <v>6.013599999999998</v>
+        <v>-186596783.5223486</v>
       </c>
       <c r="H113" t="n">
-        <v>6.03815</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F114" t="n">
+        <v>86993.26850000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-186509790.2538486</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="F115" t="n">
+        <v>28333.3673</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-186509790.2538486</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5.983</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.983</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5.983</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.983</v>
+      </c>
+      <c r="F116" t="n">
+        <v>132905.2833</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-186642695.5371486</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="F117" t="n">
+        <v>26481.9081</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-186669177.4452486</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5.953</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5.953</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5.953</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5.953</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15673.0109</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-186684850.4561486</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5.961</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5.961</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5.961</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5.961</v>
+      </c>
+      <c r="F119" t="n">
+        <v>98287.9596</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-186586562.4965486</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.003</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.003</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6.003</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.003</v>
+      </c>
+      <c r="F120" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-186568562.4965486</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6.022</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.023</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6.023</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.022</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3469.6516</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-186565092.8449486</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14047.0752</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-186579139.9201486</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="F123" t="n">
+        <v>19464</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-186559675.9201486</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9602.6018</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-186559675.9201486</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F125" t="n">
+        <v>295.6405</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-186559971.5606486</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15813.001</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-186544158.5596486</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1581.0962</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-186544158.5596486</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="F128" t="n">
+        <v>106074.6846</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-186650233.2442486</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F129" t="n">
+        <v>14778.0367</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-186635455.2075486</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.045</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="F130" t="n">
+        <v>60675.0127</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-186696130.2202486</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3346.1331</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-186692784.0871486</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6896.936</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-186699681.0231486</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.016</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="F133" t="n">
+        <v>452892.9002</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-186246788.1229486</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="F134" t="n">
+        <v>187.8941</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-186246976.0170486</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6723</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-186253699.0170486</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>10979.9497</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-186264678.9667486</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="F137" t="n">
+        <v>172970.2285</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-186091708.7382486</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5.994</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.994</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7480.718</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-186099189.4562486</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="F139" t="n">
+        <v>9278.0605</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-186108467.5167485</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16991.9793</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-186091475.5374486</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16994.9644</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-186108470.5018485</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="F142" t="n">
+        <v>58481.0878</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-186049989.4140486</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest IOST.xlsx
+++ b/BackTest/2020-01-15 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,6 +549,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -583,6 +591,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -624,6 +633,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -665,6 +675,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,6 +717,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -747,6 +759,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,6 +801,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -829,6 +843,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,6 +885,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -913,6 +929,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -956,6 +973,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -999,6 +1017,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,6 +1061,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1085,6 +1105,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,6 +1147,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1167,6 +1189,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1210,6 +1233,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1251,6 +1275,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1292,6 +1317,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1333,6 +1359,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1374,6 +1401,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1415,6 +1443,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1456,6 +1485,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1497,6 +1527,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1538,6 +1569,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1579,6 +1611,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1620,6 +1653,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1661,6 +1695,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1702,6 +1737,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1743,6 +1779,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1784,6 +1821,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1825,6 +1863,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1866,6 +1905,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1907,6 +1947,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1948,6 +1989,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1989,6 +2031,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2030,6 +2073,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2073,6 +2117,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2116,6 +2161,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2159,6 +2205,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2202,6 +2249,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2243,6 +2291,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2284,6 +2333,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2327,6 +2377,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2368,6 +2419,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2409,6 +2461,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2450,6 +2503,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2491,6 +2545,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2532,6 +2587,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2573,6 +2629,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2614,6 +2671,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2655,6 +2713,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2696,6 +2755,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2737,6 +2797,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2778,6 +2839,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2819,6 +2881,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2860,6 +2923,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2901,6 +2965,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2942,6 +3007,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2983,6 +3049,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3024,6 +3091,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3065,6 +3133,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3106,6 +3175,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3147,6 +3217,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3188,6 +3259,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3229,6 +3301,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3270,6 +3343,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3311,6 +3385,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3352,6 +3427,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3393,6 +3469,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3436,6 +3513,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3477,6 +3555,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3518,6 +3597,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3559,6 +3639,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3600,6 +3681,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3627,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
@@ -3635,11 +3717,14 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>1.024386784440292</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.004093467508101</v>
       </c>
     </row>
     <row r="80">
@@ -3671,17 +3756,12 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3712,17 +3792,12 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3750,20 +3825,15 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3794,17 +3864,12 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3832,20 +3897,15 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3873,20 +3933,15 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3914,20 +3969,15 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3955,20 +4005,15 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3999,17 +4044,12 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4037,20 +4077,15 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4078,20 +4113,15 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4119,20 +4149,15 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4160,20 +4185,15 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4204,17 +4224,12 @@
         <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>1.03678698827926</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4250,6 +4265,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4285,6 +4301,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4312,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4320,6 +4337,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4347,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4355,6 +4373,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4390,6 +4409,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4425,6 +4445,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4460,6 +4481,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4487,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4495,6 +4517,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4522,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4530,6 +4553,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4557,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4565,6 +4589,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4592,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4600,6 +4625,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4627,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4635,6 +4661,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4662,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4670,6 +4697,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4697,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4705,6 +4733,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4732,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4740,6 +4769,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4767,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4775,6 +4805,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4802,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4810,6 +4841,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4837,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4845,6 +4877,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4872,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4880,6 +4913,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4915,6 +4949,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4950,6 +4985,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4985,6 +5021,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5020,6 +5057,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5055,6 +5093,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5090,6 +5129,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5125,6 +5165,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5160,6 +5201,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5195,6 +5237,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5230,6 +5273,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5265,6 +5309,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5300,6 +5345,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5335,6 +5381,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5370,6 +5417,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5405,6 +5453,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5440,6 +5489,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5475,6 +5525,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5510,6 +5561,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5545,6 +5597,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5580,6 +5633,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5615,6 +5669,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5650,6 +5705,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5685,6 +5741,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5720,6 +5777,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5755,6 +5813,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5790,6 +5849,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5825,6 +5885,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5860,6 +5921,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5895,6 +5957,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5930,6 +5993,7 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest IOST.xlsx
+++ b/BackTest/2020-01-15 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.88</v>
+        <v>5.986</v>
       </c>
       <c r="C2" t="n">
-        <v>5.887</v>
+        <v>5.986</v>
       </c>
       <c r="D2" t="n">
-        <v>5.887</v>
+        <v>5.986</v>
       </c>
       <c r="E2" t="n">
-        <v>5.88</v>
+        <v>5.986</v>
       </c>
       <c r="F2" t="n">
-        <v>170097.6181</v>
+        <v>86405.4397</v>
       </c>
       <c r="G2" t="n">
-        <v>-188389872.4637289</v>
+        <v>-188567927.5774289</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.863</v>
+        <v>5.979</v>
       </c>
       <c r="C3" t="n">
-        <v>5.863</v>
+        <v>5.979</v>
       </c>
       <c r="D3" t="n">
-        <v>5.863</v>
+        <v>5.979</v>
       </c>
       <c r="E3" t="n">
-        <v>5.863</v>
+        <v>5.979</v>
       </c>
       <c r="F3" t="n">
-        <v>22322.7603</v>
+        <v>1334.6796</v>
       </c>
       <c r="G3" t="n">
-        <v>-188412195.2240289</v>
+        <v>-188569262.2570289</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.887</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,1310 +510,1180 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>98.6049</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-188569163.6521289</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.946</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.946</v>
+      </c>
+      <c r="F5" t="n">
+        <v>94975.2812</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-188664138.9333289</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.949</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.949</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.949</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.949</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8355.7215</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-188655783.2118289</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9429.7554</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-188665212.9672289</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-188665112.9672289</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="F9" t="n">
+        <v>96013.9932</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-188569098.9740289</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3752.6492</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-188565346.3248289</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4175</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-188561171.3248289</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3749.8164</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-188564921.1412289</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14993.4363</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-188579914.5775289</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14181.4557</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-188594096.0332289</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19446.5747</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-188613542.6079289</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="F16" t="n">
+        <v>36292.6653</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-188613542.6079289</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.936</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F17" t="n">
+        <v>62045.982</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-188551496.6259289</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.919</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="F18" t="n">
+        <v>49225.0163</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-188600721.6422289</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.917</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4472.0069</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-188605193.6491289</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4542.286</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-188605193.6491289</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7805.3969</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-188605193.6491289</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3876.9222</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-188605193.6491289</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="F23" t="n">
+        <v>685.2411</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-188605193.6491289</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.877</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.877</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="F24" t="n">
+        <v>31232.3037</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-188636425.9528289</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12193.5638</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-188648619.5166289</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12358.6017</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-188660978.1183289</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.841</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.841</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.841</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.841</v>
+      </c>
+      <c r="F27" t="n">
+        <v>99</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-188661077.1183289</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.847</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.847</v>
+      </c>
+      <c r="F28" t="n">
+        <v>62838.5408</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-188598238.5775289</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.841</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.841</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="F29" t="n">
+        <v>50396.9195</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-188547841.6580289</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.841</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12128.4238</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-188559970.0818289</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.841</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F31" t="n">
+        <v>170097.6181</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-188389872.4637289</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="F32" t="n">
+        <v>22322.7603</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-188412195.2240289</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>5.895</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C33" t="n">
         <v>5.864</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D33" t="n">
         <v>5.895</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E33" t="n">
         <v>5.864</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F33" t="n">
         <v>18387.4295</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G33" t="n">
         <v>-188393807.7945289</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7149.3976</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-188400957.1921289</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.864</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7149.3976</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-188400957.1921289</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5624.2205</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-188395332.9716289</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="F7" t="n">
-        <v>12015.8554</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-188395332.9716289</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10061.5838</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-188385271.3878289</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7648.9817</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-188392920.3695289</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="F10" t="n">
-        <v>17640.0759</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-188392920.3695289</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4511.8214</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-188388408.5481289</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="F12" t="n">
-        <v>800.9838999999999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-188388408.5481289</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="F13" t="n">
-        <v>223386.4652</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-188388408.5481289</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16756.8371</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-188405165.3852289</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5.929</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.929</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="F15" t="n">
-        <v>220072.4171</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-188185092.9681289</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5.936</v>
-      </c>
-      <c r="F16" t="n">
-        <v>104497.2363</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-188080595.7318289</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.929</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19782.5184</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-188080595.7318289</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6419.0154</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-188087014.7472289</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="F19" t="n">
-        <v>9145.431699999999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-188087014.7472289</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="F20" t="n">
-        <v>72000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-188015014.7472289</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="F21" t="n">
-        <v>928000.2097</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-188015014.7472289</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="F22" t="n">
-        <v>22907.8354</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-188037922.5826289</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5.964</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5.985</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F23" t="n">
-        <v>16823.6288</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-188021098.9538289</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5.998</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5.998</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F24" t="n">
-        <v>29442.1269</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-187991656.8269289</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5.998</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5.998</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F25" t="n">
-        <v>156338.7543</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-188147995.5812289</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5.999</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.999</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.999</v>
-      </c>
-      <c r="E26" t="n">
-        <v>5.999</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2891</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-188145104.5812289</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>6</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="D27" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F27" t="n">
-        <v>133874.2448</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-188011230.3364289</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>6.023</v>
-      </c>
-      <c r="C28" t="n">
-        <v>6.023</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6.023</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6.023</v>
-      </c>
-      <c r="F28" t="n">
-        <v>183763.8957</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-187827466.4407289</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D29" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3858.1365</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-187831324.5772289</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5.981</v>
-      </c>
-      <c r="D30" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5.981</v>
-      </c>
-      <c r="F30" t="n">
-        <v>27682.8065</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-187859007.3837289</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C31" t="n">
-        <v>5.983</v>
-      </c>
-      <c r="D31" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5.981</v>
-      </c>
-      <c r="F31" t="n">
-        <v>38506.8703</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-187820500.5134289</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5.967</v>
-      </c>
-      <c r="D32" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5.967</v>
-      </c>
-      <c r="F32" t="n">
-        <v>142373.0879</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-187962873.6013289</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C33" t="n">
-        <v>5.921</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E33" t="n">
-        <v>5.921</v>
-      </c>
-      <c r="F33" t="n">
-        <v>97994.5659</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-188060868.1672289</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="C34" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="E34" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="F34" t="n">
-        <v>77470.8331</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-188138339.0003289</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5.887</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1828,32 +1694,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="C35" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="D35" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="E35" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="F35" t="n">
-        <v>176495.2519</v>
+        <v>5624.2205</v>
       </c>
       <c r="G35" t="n">
-        <v>-188138339.0003289</v>
+        <v>-188395332.9716289</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.86</v>
+      </c>
       <c r="K35" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1870,32 +1738,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="C36" t="n">
-        <v>5.911</v>
+        <v>5.863</v>
       </c>
       <c r="D36" t="n">
-        <v>5.912</v>
+        <v>5.863</v>
       </c>
       <c r="E36" t="n">
-        <v>5.911</v>
+        <v>5.863</v>
       </c>
       <c r="F36" t="n">
-        <v>104649.0934</v>
+        <v>12015.8554</v>
       </c>
       <c r="G36" t="n">
-        <v>-188242988.0937289</v>
+        <v>-188395332.9716289</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K36" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1912,32 +1782,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.911</v>
+        <v>5.901</v>
       </c>
       <c r="C37" t="n">
-        <v>5.911</v>
+        <v>5.901</v>
       </c>
       <c r="D37" t="n">
-        <v>5.911</v>
+        <v>5.901</v>
       </c>
       <c r="E37" t="n">
-        <v>5.911</v>
+        <v>5.901</v>
       </c>
       <c r="F37" t="n">
-        <v>12006</v>
+        <v>10061.5838</v>
       </c>
       <c r="G37" t="n">
-        <v>-188242988.0937289</v>
+        <v>-188385271.3878289</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K37" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1954,22 +1826,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.911</v>
+        <v>5.871</v>
       </c>
       <c r="C38" t="n">
-        <v>5.901</v>
+        <v>5.871</v>
       </c>
       <c r="D38" t="n">
-        <v>5.911</v>
+        <v>5.871</v>
       </c>
       <c r="E38" t="n">
-        <v>5.901</v>
+        <v>5.871</v>
       </c>
       <c r="F38" t="n">
-        <v>28974</v>
+        <v>7648.9817</v>
       </c>
       <c r="G38" t="n">
-        <v>-188271962.0937289</v>
+        <v>-188392920.3695289</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1979,7 +1851,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1996,22 +1868,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.92</v>
+        <v>5.871</v>
       </c>
       <c r="C39" t="n">
-        <v>5.901</v>
+        <v>5.871</v>
       </c>
       <c r="D39" t="n">
-        <v>5.92</v>
+        <v>5.871</v>
       </c>
       <c r="E39" t="n">
-        <v>5.901</v>
+        <v>5.871</v>
       </c>
       <c r="F39" t="n">
-        <v>41825</v>
+        <v>17640.0759</v>
       </c>
       <c r="G39" t="n">
-        <v>-188271962.0937289</v>
+        <v>-188392920.3695289</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2021,7 +1893,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2038,22 +1910,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.904</v>
+        <v>5.912</v>
       </c>
       <c r="C40" t="n">
-        <v>5.903</v>
+        <v>5.912</v>
       </c>
       <c r="D40" t="n">
-        <v>5.904</v>
+        <v>5.912</v>
       </c>
       <c r="E40" t="n">
-        <v>5.902</v>
+        <v>5.912</v>
       </c>
       <c r="F40" t="n">
-        <v>109050</v>
+        <v>4511.8214</v>
       </c>
       <c r="G40" t="n">
-        <v>-188162912.0937289</v>
+        <v>-188388408.5481289</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2063,7 +1935,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2080,34 +1952,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.905</v>
+        <v>5.912</v>
       </c>
       <c r="C41" t="n">
-        <v>5.902</v>
+        <v>5.912</v>
       </c>
       <c r="D41" t="n">
-        <v>5.905</v>
+        <v>5.912</v>
       </c>
       <c r="E41" t="n">
-        <v>5.902</v>
+        <v>5.912</v>
       </c>
       <c r="F41" t="n">
-        <v>13556</v>
+        <v>800.9838999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-188176468.0937289</v>
+        <v>-188388408.5481289</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5.903</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2124,34 +1994,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.948</v>
+        <v>5.912</v>
       </c>
       <c r="C42" t="n">
-        <v>5.964</v>
+        <v>5.912</v>
       </c>
       <c r="D42" t="n">
-        <v>5.964</v>
+        <v>5.912</v>
       </c>
       <c r="E42" t="n">
-        <v>5.903</v>
+        <v>5.912</v>
       </c>
       <c r="F42" t="n">
-        <v>64912.0743</v>
+        <v>223386.4652</v>
       </c>
       <c r="G42" t="n">
-        <v>-188111556.0194289</v>
+        <v>-188388408.5481289</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>5.902</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2168,34 +2036,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.969</v>
+        <v>5.885</v>
       </c>
       <c r="C43" t="n">
-        <v>5.971</v>
+        <v>5.885</v>
       </c>
       <c r="D43" t="n">
-        <v>5.971</v>
+        <v>5.885</v>
       </c>
       <c r="E43" t="n">
-        <v>5.969</v>
+        <v>5.885</v>
       </c>
       <c r="F43" t="n">
-        <v>93987.98940000001</v>
+        <v>16756.8371</v>
       </c>
       <c r="G43" t="n">
-        <v>-188017568.0300289</v>
+        <v>-188405165.3852289</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>5.964</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2212,22 +2078,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.971</v>
+        <v>5.886</v>
       </c>
       <c r="C44" t="n">
-        <v>5.971</v>
+        <v>5.929</v>
       </c>
       <c r="D44" t="n">
-        <v>5.971</v>
+        <v>5.929</v>
       </c>
       <c r="E44" t="n">
-        <v>5.971</v>
+        <v>5.886</v>
       </c>
       <c r="F44" t="n">
-        <v>310706.337</v>
+        <v>220072.4171</v>
       </c>
       <c r="G44" t="n">
-        <v>-188017568.0300289</v>
+        <v>-188185092.9681289</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2236,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.971</v>
+        <v>5.885</v>
       </c>
       <c r="K44" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2256,32 +2122,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.971</v>
+        <v>5.936</v>
       </c>
       <c r="C45" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="D45" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="E45" t="n">
-        <v>5.971</v>
+        <v>5.936</v>
       </c>
       <c r="F45" t="n">
-        <v>513931.25</v>
+        <v>104497.2363</v>
       </c>
       <c r="G45" t="n">
-        <v>-188017568.0300289</v>
+        <v>-188080595.7318289</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.929</v>
+      </c>
       <c r="K45" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2298,22 +2166,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="C46" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="D46" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="E46" t="n">
-        <v>5.971</v>
+        <v>5.945</v>
       </c>
       <c r="F46" t="n">
-        <v>86018.1553</v>
+        <v>19782.5184</v>
       </c>
       <c r="G46" t="n">
-        <v>-188017568.0300289</v>
+        <v>-188080595.7318289</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2323,7 +2191,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2340,34 +2208,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.972</v>
+        <v>5.901</v>
       </c>
       <c r="C47" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="D47" t="n">
-        <v>5.972</v>
+        <v>5.901</v>
       </c>
       <c r="E47" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="F47" t="n">
-        <v>245263.2094</v>
+        <v>6419.0154</v>
       </c>
       <c r="G47" t="n">
-        <v>-188017568.0300289</v>
+        <v>-188087014.7472289</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>5.971</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2384,22 +2250,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="C48" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="D48" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="E48" t="n">
-        <v>5.971</v>
+        <v>5.901</v>
       </c>
       <c r="F48" t="n">
-        <v>51000</v>
+        <v>9145.431699999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-188017568.0300289</v>
+        <v>-188087014.7472289</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2409,7 +2275,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2426,22 +2292,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.988</v>
+        <v>5.935</v>
       </c>
       <c r="C49" t="n">
-        <v>5.991</v>
+        <v>5.935</v>
       </c>
       <c r="D49" t="n">
-        <v>5.991</v>
+        <v>5.935</v>
       </c>
       <c r="E49" t="n">
-        <v>5.988</v>
+        <v>5.935</v>
       </c>
       <c r="F49" t="n">
-        <v>414202.1066</v>
+        <v>72000</v>
       </c>
       <c r="G49" t="n">
-        <v>-187603365.9234289</v>
+        <v>-188015014.7472289</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2451,7 +2317,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2468,22 +2334,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.972</v>
+        <v>5.935</v>
       </c>
       <c r="C50" t="n">
-        <v>5.943</v>
+        <v>5.935</v>
       </c>
       <c r="D50" t="n">
-        <v>5.972</v>
+        <v>5.935</v>
       </c>
       <c r="E50" t="n">
-        <v>5.943</v>
+        <v>5.935</v>
       </c>
       <c r="F50" t="n">
-        <v>379747.427</v>
+        <v>928000.2097</v>
       </c>
       <c r="G50" t="n">
-        <v>-187983113.3504289</v>
+        <v>-188015014.7472289</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2493,7 +2359,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2510,22 +2376,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.017</v>
+        <v>5.96</v>
       </c>
       <c r="C51" t="n">
-        <v>6.05</v>
+        <v>5.92</v>
       </c>
       <c r="D51" t="n">
-        <v>6.05</v>
+        <v>5.96</v>
       </c>
       <c r="E51" t="n">
-        <v>6.017</v>
+        <v>5.92</v>
       </c>
       <c r="F51" t="n">
-        <v>44171.4891</v>
+        <v>22907.8354</v>
       </c>
       <c r="G51" t="n">
-        <v>-187938941.8613289</v>
+        <v>-188037922.5826289</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2535,7 +2401,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2552,22 +2418,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.009</v>
+        <v>5.964</v>
       </c>
       <c r="C52" t="n">
-        <v>6.054</v>
+        <v>5.94</v>
       </c>
       <c r="D52" t="n">
-        <v>6.054</v>
+        <v>5.985</v>
       </c>
       <c r="E52" t="n">
-        <v>6.009</v>
+        <v>5.94</v>
       </c>
       <c r="F52" t="n">
-        <v>207277.3298</v>
+        <v>16823.6288</v>
       </c>
       <c r="G52" t="n">
-        <v>-187731664.5315289</v>
+        <v>-188021098.9538289</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2577,7 +2443,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2594,22 +2460,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.021</v>
+        <v>5.98</v>
       </c>
       <c r="C53" t="n">
-        <v>6.02</v>
+        <v>5.998</v>
       </c>
       <c r="D53" t="n">
-        <v>6.021</v>
+        <v>5.998</v>
       </c>
       <c r="E53" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="F53" t="n">
-        <v>65887</v>
+        <v>29442.1269</v>
       </c>
       <c r="G53" t="n">
-        <v>-187797551.5315289</v>
+        <v>-187991656.8269289</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2619,7 +2485,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2636,22 +2502,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.02</v>
+        <v>5.998</v>
       </c>
       <c r="C54" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="D54" t="n">
-        <v>6.021</v>
+        <v>5.998</v>
       </c>
       <c r="E54" t="n">
-        <v>6.003</v>
+        <v>5.96</v>
       </c>
       <c r="F54" t="n">
-        <v>75770</v>
+        <v>156338.7543</v>
       </c>
       <c r="G54" t="n">
-        <v>-187873321.5315289</v>
+        <v>-188147995.5812289</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2661,7 +2527,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2678,22 +2544,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.98</v>
+        <v>5.999</v>
       </c>
       <c r="C55" t="n">
-        <v>5.98</v>
+        <v>5.999</v>
       </c>
       <c r="D55" t="n">
-        <v>5.98</v>
+        <v>5.999</v>
       </c>
       <c r="E55" t="n">
-        <v>5.98</v>
+        <v>5.999</v>
       </c>
       <c r="F55" t="n">
-        <v>3856</v>
+        <v>2891</v>
       </c>
       <c r="G55" t="n">
-        <v>-187877177.5315289</v>
+        <v>-188145104.5812289</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2703,7 +2569,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2720,22 +2586,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.976</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>5.982</v>
+        <v>6.014</v>
       </c>
       <c r="D56" t="n">
-        <v>5.983</v>
+        <v>6.014</v>
       </c>
       <c r="E56" t="n">
-        <v>5.976</v>
+        <v>5.98</v>
       </c>
       <c r="F56" t="n">
-        <v>186375</v>
+        <v>133874.2448</v>
       </c>
       <c r="G56" t="n">
-        <v>-187690802.5315289</v>
+        <v>-188011230.3364289</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2745,7 +2611,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2762,22 +2628,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.983</v>
+        <v>6.023</v>
       </c>
       <c r="C57" t="n">
-        <v>5.982</v>
+        <v>6.023</v>
       </c>
       <c r="D57" t="n">
-        <v>5.983</v>
+        <v>6.023</v>
       </c>
       <c r="E57" t="n">
-        <v>5.982</v>
+        <v>6.023</v>
       </c>
       <c r="F57" t="n">
-        <v>44277</v>
+        <v>183763.8957</v>
       </c>
       <c r="G57" t="n">
-        <v>-187690802.5315289</v>
+        <v>-187827466.4407289</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2787,7 +2653,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2804,22 +2670,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.995</v>
+        <v>5.99</v>
       </c>
       <c r="C58" t="n">
-        <v>5.995</v>
+        <v>5.99</v>
       </c>
       <c r="D58" t="n">
-        <v>5.995</v>
+        <v>5.99</v>
       </c>
       <c r="E58" t="n">
-        <v>5.995</v>
+        <v>5.99</v>
       </c>
       <c r="F58" t="n">
-        <v>42480</v>
+        <v>3858.1365</v>
       </c>
       <c r="G58" t="n">
-        <v>-187648322.5315289</v>
+        <v>-187831324.5772289</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2829,7 +2695,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2846,22 +2712,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.989</v>
+        <v>5.99</v>
       </c>
       <c r="C59" t="n">
-        <v>5.989</v>
+        <v>5.981</v>
       </c>
       <c r="D59" t="n">
-        <v>5.989</v>
+        <v>6.03</v>
       </c>
       <c r="E59" t="n">
-        <v>5.989</v>
+        <v>5.981</v>
       </c>
       <c r="F59" t="n">
-        <v>8312.5</v>
+        <v>27682.8065</v>
       </c>
       <c r="G59" t="n">
-        <v>-187656635.0315289</v>
+        <v>-187859007.3837289</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2871,7 +2737,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2888,22 +2754,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.028</v>
+        <v>5.99</v>
       </c>
       <c r="C60" t="n">
-        <v>6.028</v>
+        <v>5.983</v>
       </c>
       <c r="D60" t="n">
-        <v>6.028</v>
+        <v>5.99</v>
       </c>
       <c r="E60" t="n">
-        <v>6.028</v>
+        <v>5.981</v>
       </c>
       <c r="F60" t="n">
-        <v>92645</v>
+        <v>38506.8703</v>
       </c>
       <c r="G60" t="n">
-        <v>-187563990.0315289</v>
+        <v>-187820500.5134289</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2913,7 +2779,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2930,22 +2796,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.028</v>
+        <v>5.98</v>
       </c>
       <c r="C61" t="n">
-        <v>6.028</v>
+        <v>5.967</v>
       </c>
       <c r="D61" t="n">
-        <v>6.028</v>
+        <v>5.98</v>
       </c>
       <c r="E61" t="n">
-        <v>6.028</v>
+        <v>5.967</v>
       </c>
       <c r="F61" t="n">
-        <v>14697.3885</v>
+        <v>142373.0879</v>
       </c>
       <c r="G61" t="n">
-        <v>-187563990.0315289</v>
+        <v>-187962873.6013289</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2955,7 +2821,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2972,22 +2838,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.994</v>
+        <v>5.97</v>
       </c>
       <c r="C62" t="n">
-        <v>6.027</v>
+        <v>5.921</v>
       </c>
       <c r="D62" t="n">
-        <v>6.027</v>
+        <v>5.97</v>
       </c>
       <c r="E62" t="n">
-        <v>5.994</v>
+        <v>5.921</v>
       </c>
       <c r="F62" t="n">
-        <v>116935.9075</v>
+        <v>97994.5659</v>
       </c>
       <c r="G62" t="n">
-        <v>-187680925.9390289</v>
+        <v>-188060868.1672289</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2997,7 +2863,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3014,22 +2880,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.026</v>
+        <v>5.912</v>
       </c>
       <c r="C63" t="n">
-        <v>6.026</v>
+        <v>5.912</v>
       </c>
       <c r="D63" t="n">
-        <v>6.026</v>
+        <v>5.912</v>
       </c>
       <c r="E63" t="n">
-        <v>6.026</v>
+        <v>5.912</v>
       </c>
       <c r="F63" t="n">
-        <v>6264.7257</v>
+        <v>77470.8331</v>
       </c>
       <c r="G63" t="n">
-        <v>-187687190.6647289</v>
+        <v>-188138339.0003289</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3039,7 +2905,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3056,22 +2922,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.03</v>
+        <v>5.912</v>
       </c>
       <c r="C64" t="n">
-        <v>6.036</v>
+        <v>5.912</v>
       </c>
       <c r="D64" t="n">
-        <v>6.037</v>
+        <v>5.912</v>
       </c>
       <c r="E64" t="n">
-        <v>6.03</v>
+        <v>5.912</v>
       </c>
       <c r="F64" t="n">
-        <v>28723.751</v>
+        <v>176495.2519</v>
       </c>
       <c r="G64" t="n">
-        <v>-187658466.9137289</v>
+        <v>-188138339.0003289</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3081,7 +2947,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3098,22 +2964,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.035</v>
+        <v>5.912</v>
       </c>
       <c r="C65" t="n">
-        <v>6.036</v>
+        <v>5.911</v>
       </c>
       <c r="D65" t="n">
-        <v>6.036</v>
+        <v>5.912</v>
       </c>
       <c r="E65" t="n">
-        <v>6.035</v>
+        <v>5.911</v>
       </c>
       <c r="F65" t="n">
-        <v>165674.95029821</v>
+        <v>104649.0934</v>
       </c>
       <c r="G65" t="n">
-        <v>-187658466.9137289</v>
+        <v>-188242988.0937289</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3123,7 +2989,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3140,22 +3006,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.007</v>
+        <v>5.911</v>
       </c>
       <c r="C66" t="n">
-        <v>6.01</v>
+        <v>5.911</v>
       </c>
       <c r="D66" t="n">
-        <v>6.01</v>
+        <v>5.911</v>
       </c>
       <c r="E66" t="n">
-        <v>6.007</v>
+        <v>5.911</v>
       </c>
       <c r="F66" t="n">
-        <v>175</v>
+        <v>12006</v>
       </c>
       <c r="G66" t="n">
-        <v>-187658641.9137289</v>
+        <v>-188242988.0937289</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3165,7 +3031,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3182,22 +3048,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.037</v>
+        <v>5.911</v>
       </c>
       <c r="C67" t="n">
-        <v>6.037</v>
+        <v>5.901</v>
       </c>
       <c r="D67" t="n">
-        <v>6.037</v>
+        <v>5.911</v>
       </c>
       <c r="E67" t="n">
-        <v>6.037</v>
+        <v>5.901</v>
       </c>
       <c r="F67" t="n">
-        <v>495.7365</v>
+        <v>28974</v>
       </c>
       <c r="G67" t="n">
-        <v>-187658146.1772289</v>
+        <v>-188271962.0937289</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3207,7 +3073,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3224,22 +3090,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.01</v>
+        <v>5.92</v>
       </c>
       <c r="C68" t="n">
-        <v>6.01</v>
+        <v>5.901</v>
       </c>
       <c r="D68" t="n">
-        <v>6.01</v>
+        <v>5.92</v>
       </c>
       <c r="E68" t="n">
-        <v>6.01</v>
+        <v>5.901</v>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>41825</v>
       </c>
       <c r="G68" t="n">
-        <v>-187658246.1772289</v>
+        <v>-188271962.0937289</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3249,7 +3115,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3266,22 +3132,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.013</v>
+        <v>5.904</v>
       </c>
       <c r="C69" t="n">
-        <v>6.013</v>
+        <v>5.903</v>
       </c>
       <c r="D69" t="n">
-        <v>6.013</v>
+        <v>5.904</v>
       </c>
       <c r="E69" t="n">
-        <v>6.013</v>
+        <v>5.902</v>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>109050</v>
       </c>
       <c r="G69" t="n">
-        <v>-187658146.1772289</v>
+        <v>-188162912.0937289</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3291,7 +3157,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3308,22 +3174,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.037</v>
+        <v>5.905</v>
       </c>
       <c r="C70" t="n">
-        <v>6.037</v>
+        <v>5.902</v>
       </c>
       <c r="D70" t="n">
-        <v>6.037</v>
+        <v>5.905</v>
       </c>
       <c r="E70" t="n">
-        <v>6.037</v>
+        <v>5.902</v>
       </c>
       <c r="F70" t="n">
-        <v>8471.148300000001</v>
+        <v>13556</v>
       </c>
       <c r="G70" t="n">
-        <v>-187649675.0289289</v>
+        <v>-188176468.0937289</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3333,7 +3199,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3350,22 +3216,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.037</v>
+        <v>5.948</v>
       </c>
       <c r="C71" t="n">
-        <v>6.037</v>
+        <v>5.964</v>
       </c>
       <c r="D71" t="n">
-        <v>6.037</v>
+        <v>5.964</v>
       </c>
       <c r="E71" t="n">
-        <v>6.037</v>
+        <v>5.903</v>
       </c>
       <c r="F71" t="n">
-        <v>65757.8815</v>
+        <v>64912.0743</v>
       </c>
       <c r="G71" t="n">
-        <v>-187649675.0289289</v>
+        <v>-188111556.0194289</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3375,7 +3241,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3392,22 +3258,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.037</v>
+        <v>5.969</v>
       </c>
       <c r="C72" t="n">
-        <v>6.037</v>
+        <v>5.971</v>
       </c>
       <c r="D72" t="n">
-        <v>6.037</v>
+        <v>5.971</v>
       </c>
       <c r="E72" t="n">
-        <v>6.037</v>
+        <v>5.969</v>
       </c>
       <c r="F72" t="n">
-        <v>138030.0094</v>
+        <v>93987.98940000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-187649675.0289289</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3417,7 +3283,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3434,22 +3300,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.037</v>
+        <v>5.971</v>
       </c>
       <c r="C73" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="D73" t="n">
-        <v>6.046</v>
+        <v>5.971</v>
       </c>
       <c r="E73" t="n">
-        <v>6.037</v>
+        <v>5.971</v>
       </c>
       <c r="F73" t="n">
-        <v>365325.5757</v>
+        <v>310706.337</v>
       </c>
       <c r="G73" t="n">
-        <v>-187284349.4532289</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3459,7 +3325,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3476,34 +3342,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="C74" t="n">
-        <v>6.06</v>
+        <v>5.971</v>
       </c>
       <c r="D74" t="n">
-        <v>6.06</v>
+        <v>5.971</v>
       </c>
       <c r="E74" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="F74" t="n">
-        <v>495860.1774</v>
+        <v>513931.25</v>
       </c>
       <c r="G74" t="n">
-        <v>-186788489.2758289</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>6.043</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3520,22 +3384,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.071</v>
+        <v>5.971</v>
       </c>
       <c r="C75" t="n">
-        <v>6.071</v>
+        <v>5.971</v>
       </c>
       <c r="D75" t="n">
-        <v>6.071</v>
+        <v>5.971</v>
       </c>
       <c r="E75" t="n">
-        <v>6.071</v>
+        <v>5.971</v>
       </c>
       <c r="F75" t="n">
-        <v>637188.5459</v>
+        <v>86018.1553</v>
       </c>
       <c r="G75" t="n">
-        <v>-186151300.7299289</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3545,7 +3409,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3562,22 +3426,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.071</v>
+        <v>5.972</v>
       </c>
       <c r="C76" t="n">
-        <v>6.118</v>
+        <v>5.971</v>
       </c>
       <c r="D76" t="n">
-        <v>6.118</v>
+        <v>5.972</v>
       </c>
       <c r="E76" t="n">
-        <v>6.071</v>
+        <v>5.971</v>
       </c>
       <c r="F76" t="n">
-        <v>113216.4855</v>
+        <v>245263.2094</v>
       </c>
       <c r="G76" t="n">
-        <v>-186038084.2444289</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3587,7 +3451,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3604,22 +3468,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="C77" t="n">
-        <v>6.109</v>
+        <v>5.971</v>
       </c>
       <c r="D77" t="n">
-        <v>6.119</v>
+        <v>5.971</v>
       </c>
       <c r="E77" t="n">
-        <v>6.043</v>
+        <v>5.971</v>
       </c>
       <c r="F77" t="n">
-        <v>224247.2988</v>
+        <v>51000</v>
       </c>
       <c r="G77" t="n">
-        <v>-186262331.5432289</v>
+        <v>-188017568.0300289</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3629,7 +3493,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3646,22 +3510,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.109</v>
+        <v>5.988</v>
       </c>
       <c r="C78" t="n">
-        <v>6.109</v>
+        <v>5.991</v>
       </c>
       <c r="D78" t="n">
-        <v>6.109</v>
+        <v>5.991</v>
       </c>
       <c r="E78" t="n">
-        <v>6.109</v>
+        <v>5.988</v>
       </c>
       <c r="F78" t="n">
-        <v>600000</v>
+        <v>414202.1066</v>
       </c>
       <c r="G78" t="n">
-        <v>-186262331.5432289</v>
+        <v>-187603365.9234289</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3671,7 +3535,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3688,114 +3552,124 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.109</v>
+        <v>5.972</v>
       </c>
       <c r="C79" t="n">
-        <v>6.06</v>
+        <v>5.943</v>
       </c>
       <c r="D79" t="n">
-        <v>6.109</v>
+        <v>5.972</v>
       </c>
       <c r="E79" t="n">
-        <v>6.06</v>
+        <v>5.943</v>
       </c>
       <c r="F79" t="n">
-        <v>121132.1266</v>
+        <v>379747.427</v>
       </c>
       <c r="G79" t="n">
-        <v>-186383463.6698289</v>
+        <v>-187983113.3504289</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>5.887</v>
+        <v>5.848</v>
       </c>
       <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="F80" t="n">
+        <v>44171.4891</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-187938941.8613289</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6.009</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6.054</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6.054</v>
+      </c>
+      <c r="E81" t="n">
+        <v>6.009</v>
+      </c>
+      <c r="F81" t="n">
+        <v>207277.3298</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-187731664.5315289</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1.024386784440292</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1.004093467508101</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F80" t="n">
-        <v>49522.6066</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-186333941.0632289</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="C81" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="F81" t="n">
-        <v>364861.9677</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-186333941.0632289</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>1.030225718194255</v>
       </c>
       <c r="N81" t="inlineStr"/>
     </row>
@@ -3804,22 +3678,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.081</v>
+        <v>6.021</v>
       </c>
       <c r="C82" t="n">
-        <v>6.071</v>
+        <v>6.02</v>
       </c>
       <c r="D82" t="n">
-        <v>6.083</v>
+        <v>6.021</v>
       </c>
       <c r="E82" t="n">
-        <v>6.071</v>
+        <v>6.02</v>
       </c>
       <c r="F82" t="n">
-        <v>201977.945</v>
+        <v>65887</v>
       </c>
       <c r="G82" t="n">
-        <v>-186535919.0082289</v>
+        <v>-187797551.5315289</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3840,28 +3714,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.108</v>
+        <v>6.02</v>
       </c>
       <c r="C83" t="n">
-        <v>6.108</v>
+        <v>6.01</v>
       </c>
       <c r="D83" t="n">
-        <v>6.108</v>
+        <v>6.021</v>
       </c>
       <c r="E83" t="n">
-        <v>6.108</v>
+        <v>6.003</v>
       </c>
       <c r="F83" t="n">
-        <v>91253.1556</v>
+        <v>75770</v>
       </c>
       <c r="G83" t="n">
-        <v>-186444665.8526289</v>
+        <v>-187873321.5315289</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3876,28 +3750,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.081</v>
+        <v>5.98</v>
       </c>
       <c r="C84" t="n">
-        <v>6.12</v>
+        <v>5.98</v>
       </c>
       <c r="D84" t="n">
-        <v>6.12</v>
+        <v>5.98</v>
       </c>
       <c r="E84" t="n">
-        <v>6.081</v>
+        <v>5.98</v>
       </c>
       <c r="F84" t="n">
-        <v>15660.5393</v>
+        <v>3856</v>
       </c>
       <c r="G84" t="n">
-        <v>-186429005.3133289</v>
+        <v>-187877177.5315289</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3912,28 +3786,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.09</v>
+        <v>5.976</v>
       </c>
       <c r="C85" t="n">
-        <v>6.08</v>
+        <v>5.982</v>
       </c>
       <c r="D85" t="n">
-        <v>6.09</v>
+        <v>5.983</v>
       </c>
       <c r="E85" t="n">
-        <v>6.08</v>
+        <v>5.976</v>
       </c>
       <c r="F85" t="n">
-        <v>17829.9436</v>
+        <v>186375</v>
       </c>
       <c r="G85" t="n">
-        <v>-186446835.2569289</v>
+        <v>-187690802.5315289</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3948,28 +3822,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.09</v>
+        <v>5.983</v>
       </c>
       <c r="C86" t="n">
-        <v>6.085</v>
+        <v>5.982</v>
       </c>
       <c r="D86" t="n">
-        <v>6.09</v>
+        <v>5.983</v>
       </c>
       <c r="E86" t="n">
-        <v>6.085</v>
+        <v>5.982</v>
       </c>
       <c r="F86" t="n">
-        <v>12364.4799</v>
+        <v>44277</v>
       </c>
       <c r="G86" t="n">
-        <v>-186434470.7770289</v>
+        <v>-187690802.5315289</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3984,28 +3858,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.069</v>
+        <v>5.995</v>
       </c>
       <c r="C87" t="n">
-        <v>6.069</v>
+        <v>5.995</v>
       </c>
       <c r="D87" t="n">
-        <v>6.069</v>
+        <v>5.995</v>
       </c>
       <c r="E87" t="n">
-        <v>6.069</v>
+        <v>5.995</v>
       </c>
       <c r="F87" t="n">
-        <v>12000</v>
+        <v>42480</v>
       </c>
       <c r="G87" t="n">
-        <v>-186446470.7770289</v>
+        <v>-187648322.5315289</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -4020,28 +3894,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.09</v>
+        <v>5.989</v>
       </c>
       <c r="C88" t="n">
-        <v>6.092</v>
+        <v>5.989</v>
       </c>
       <c r="D88" t="n">
-        <v>6.092</v>
+        <v>5.989</v>
       </c>
       <c r="E88" t="n">
-        <v>6.09</v>
+        <v>5.989</v>
       </c>
       <c r="F88" t="n">
-        <v>24000</v>
+        <v>8312.5</v>
       </c>
       <c r="G88" t="n">
-        <v>-186422470.7770289</v>
+        <v>-187656635.0315289</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -4056,22 +3930,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.105</v>
+        <v>6.028</v>
       </c>
       <c r="C89" t="n">
-        <v>6.105</v>
+        <v>6.028</v>
       </c>
       <c r="D89" t="n">
-        <v>6.105</v>
+        <v>6.028</v>
       </c>
       <c r="E89" t="n">
-        <v>6.105</v>
+        <v>6.028</v>
       </c>
       <c r="F89" t="n">
-        <v>12000</v>
+        <v>92645</v>
       </c>
       <c r="G89" t="n">
-        <v>-186410470.7770289</v>
+        <v>-187563990.0315289</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4092,22 +3966,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.095</v>
+        <v>6.028</v>
       </c>
       <c r="C90" t="n">
-        <v>6.095</v>
+        <v>6.028</v>
       </c>
       <c r="D90" t="n">
-        <v>6.095</v>
+        <v>6.028</v>
       </c>
       <c r="E90" t="n">
-        <v>6.095</v>
+        <v>6.028</v>
       </c>
       <c r="F90" t="n">
-        <v>7157.0203</v>
+        <v>14697.3885</v>
       </c>
       <c r="G90" t="n">
-        <v>-186417627.7973289</v>
+        <v>-187563990.0315289</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4128,22 +4002,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.096</v>
+        <v>5.994</v>
       </c>
       <c r="C91" t="n">
-        <v>6.096</v>
+        <v>6.027</v>
       </c>
       <c r="D91" t="n">
-        <v>6.096</v>
+        <v>6.027</v>
       </c>
       <c r="E91" t="n">
-        <v>6.096</v>
+        <v>5.994</v>
       </c>
       <c r="F91" t="n">
-        <v>5577.8953</v>
+        <v>116935.9075</v>
       </c>
       <c r="G91" t="n">
-        <v>-186412049.9020289</v>
+        <v>-187680925.9390289</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4164,22 +4038,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.109</v>
+        <v>6.026</v>
       </c>
       <c r="C92" t="n">
-        <v>6.109</v>
+        <v>6.026</v>
       </c>
       <c r="D92" t="n">
-        <v>6.109</v>
+        <v>6.026</v>
       </c>
       <c r="E92" t="n">
-        <v>6.109</v>
+        <v>6.026</v>
       </c>
       <c r="F92" t="n">
-        <v>207.5163</v>
+        <v>6264.7257</v>
       </c>
       <c r="G92" t="n">
-        <v>-186411842.3857289</v>
+        <v>-187687190.6647289</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4200,28 +4074,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.12</v>
+        <v>6.03</v>
       </c>
       <c r="C93" t="n">
-        <v>6.133</v>
+        <v>6.036</v>
       </c>
       <c r="D93" t="n">
-        <v>6.133</v>
+        <v>6.037</v>
       </c>
       <c r="E93" t="n">
-        <v>6.12</v>
+        <v>6.03</v>
       </c>
       <c r="F93" t="n">
-        <v>16305.23398031</v>
+        <v>28723.751</v>
       </c>
       <c r="G93" t="n">
-        <v>-186395537.1517486</v>
+        <v>-187658466.9137289</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4236,22 +4110,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.095</v>
+        <v>6.035</v>
       </c>
       <c r="C94" t="n">
-        <v>6.092</v>
+        <v>6.036</v>
       </c>
       <c r="D94" t="n">
-        <v>6.095</v>
+        <v>6.036</v>
       </c>
       <c r="E94" t="n">
-        <v>6.092</v>
+        <v>6.035</v>
       </c>
       <c r="F94" t="n">
-        <v>35990.473</v>
+        <v>165674.95029821</v>
       </c>
       <c r="G94" t="n">
-        <v>-186431527.6247486</v>
+        <v>-187658466.9137289</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4272,22 +4146,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.018</v>
+        <v>6.007</v>
       </c>
       <c r="C95" t="n">
-        <v>6.073</v>
+        <v>6.01</v>
       </c>
       <c r="D95" t="n">
-        <v>6.073</v>
+        <v>6.01</v>
       </c>
       <c r="E95" t="n">
-        <v>6.017</v>
+        <v>6.007</v>
       </c>
       <c r="F95" t="n">
-        <v>181993.8357</v>
+        <v>175</v>
       </c>
       <c r="G95" t="n">
-        <v>-186613521.4604486</v>
+        <v>-187658641.9137289</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4308,28 +4182,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="C96" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="D96" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="E96" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="F96" t="n">
-        <v>1285.1518</v>
+        <v>495.7365</v>
       </c>
       <c r="G96" t="n">
-        <v>-186613521.4604486</v>
+        <v>-187658146.1772289</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4344,28 +4218,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.096</v>
+        <v>6.01</v>
       </c>
       <c r="C97" t="n">
-        <v>6.108</v>
+        <v>6.01</v>
       </c>
       <c r="D97" t="n">
-        <v>6.108</v>
+        <v>6.01</v>
       </c>
       <c r="E97" t="n">
-        <v>6.096</v>
+        <v>6.01</v>
       </c>
       <c r="F97" t="n">
-        <v>219000</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>-186394521.4604486</v>
+        <v>-187658246.1772289</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4380,28 +4254,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.083</v>
+        <v>6.013</v>
       </c>
       <c r="C98" t="n">
-        <v>6.083</v>
+        <v>6.013</v>
       </c>
       <c r="D98" t="n">
-        <v>6.083</v>
+        <v>6.013</v>
       </c>
       <c r="E98" t="n">
-        <v>6.083</v>
+        <v>6.013</v>
       </c>
       <c r="F98" t="n">
-        <v>17354.1797</v>
+        <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>-186411875.6401486</v>
+        <v>-187658146.1772289</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4416,28 +4290,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.08</v>
+        <v>6.037</v>
       </c>
       <c r="C99" t="n">
-        <v>6.08</v>
+        <v>6.037</v>
       </c>
       <c r="D99" t="n">
-        <v>6.08</v>
+        <v>6.037</v>
       </c>
       <c r="E99" t="n">
-        <v>6.08</v>
+        <v>6.037</v>
       </c>
       <c r="F99" t="n">
-        <v>2390.2078</v>
+        <v>8471.148300000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-186414265.8479486</v>
+        <v>-187649675.0289289</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4452,28 +4326,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="C100" t="n">
-        <v>6.072</v>
+        <v>6.037</v>
       </c>
       <c r="D100" t="n">
-        <v>6.073</v>
+        <v>6.037</v>
       </c>
       <c r="E100" t="n">
-        <v>6.072</v>
+        <v>6.037</v>
       </c>
       <c r="F100" t="n">
-        <v>32956.6488</v>
+        <v>65757.8815</v>
       </c>
       <c r="G100" t="n">
-        <v>-186447222.4967486</v>
+        <v>-187649675.0289289</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4488,28 +4362,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.072</v>
+        <v>6.037</v>
       </c>
       <c r="C101" t="n">
-        <v>6.07</v>
+        <v>6.037</v>
       </c>
       <c r="D101" t="n">
-        <v>6.072</v>
+        <v>6.037</v>
       </c>
       <c r="E101" t="n">
-        <v>6.07</v>
+        <v>6.037</v>
       </c>
       <c r="F101" t="n">
-        <v>12629.9124</v>
+        <v>138030.0094</v>
       </c>
       <c r="G101" t="n">
-        <v>-186459852.4091486</v>
+        <v>-187649675.0289289</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4524,28 +4398,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.07</v>
+        <v>6.037</v>
       </c>
       <c r="C102" t="n">
-        <v>6.072</v>
+        <v>6.043</v>
       </c>
       <c r="D102" t="n">
-        <v>6.072</v>
+        <v>6.046</v>
       </c>
       <c r="E102" t="n">
-        <v>6.07</v>
+        <v>6.037</v>
       </c>
       <c r="F102" t="n">
-        <v>19284.0241</v>
+        <v>365325.5757</v>
       </c>
       <c r="G102" t="n">
-        <v>-186440568.3850486</v>
+        <v>-187284349.4532289</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4560,28 +4434,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.07</v>
+        <v>6.043</v>
       </c>
       <c r="C103" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="D103" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="E103" t="n">
-        <v>6.07</v>
+        <v>6.043</v>
       </c>
       <c r="F103" t="n">
-        <v>1351.4441</v>
+        <v>495860.1774</v>
       </c>
       <c r="G103" t="n">
-        <v>-186441919.8291486</v>
+        <v>-186788489.2758289</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4596,22 +4470,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="C104" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="D104" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="E104" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="F104" t="n">
-        <v>4112.2946</v>
+        <v>637188.5459</v>
       </c>
       <c r="G104" t="n">
-        <v>-186446032.1237486</v>
+        <v>-186151300.7299289</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4632,22 +4506,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="C105" t="n">
-        <v>6.05</v>
+        <v>6.118</v>
       </c>
       <c r="D105" t="n">
-        <v>6.05</v>
+        <v>6.118</v>
       </c>
       <c r="E105" t="n">
-        <v>6.05</v>
+        <v>6.071</v>
       </c>
       <c r="F105" t="n">
-        <v>1850.4501</v>
+        <v>113216.4855</v>
       </c>
       <c r="G105" t="n">
-        <v>-186446032.1237486</v>
+        <v>-186038084.2444289</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4668,22 +4542,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.05</v>
+        <v>6.043</v>
       </c>
       <c r="C106" t="n">
-        <v>6.05</v>
+        <v>6.109</v>
       </c>
       <c r="D106" t="n">
-        <v>6.05</v>
+        <v>6.119</v>
       </c>
       <c r="E106" t="n">
-        <v>6.05</v>
+        <v>6.043</v>
       </c>
       <c r="F106" t="n">
-        <v>21639.2181</v>
+        <v>224247.2988</v>
       </c>
       <c r="G106" t="n">
-        <v>-186446032.1237486</v>
+        <v>-186262331.5432289</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4704,22 +4578,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.05</v>
+        <v>6.109</v>
       </c>
       <c r="C107" t="n">
-        <v>6.05</v>
+        <v>6.109</v>
       </c>
       <c r="D107" t="n">
-        <v>6.05</v>
+        <v>6.109</v>
       </c>
       <c r="E107" t="n">
-        <v>6.05</v>
+        <v>6.109</v>
       </c>
       <c r="F107" t="n">
-        <v>78472.72169999999</v>
+        <v>600000</v>
       </c>
       <c r="G107" t="n">
-        <v>-186446032.1237486</v>
+        <v>-186262331.5432289</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4740,22 +4614,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.041</v>
+        <v>6.109</v>
       </c>
       <c r="C108" t="n">
-        <v>6.041</v>
+        <v>6.06</v>
       </c>
       <c r="D108" t="n">
-        <v>6.041</v>
+        <v>6.109</v>
       </c>
       <c r="E108" t="n">
-        <v>6.041</v>
+        <v>6.06</v>
       </c>
       <c r="F108" t="n">
-        <v>4553.687</v>
+        <v>121132.1266</v>
       </c>
       <c r="G108" t="n">
-        <v>-186450585.8107486</v>
+        <v>-186383463.6698289</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4776,22 +4650,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.041</v>
+        <v>6.1</v>
       </c>
       <c r="C109" t="n">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
       <c r="D109" t="n">
-        <v>6.041</v>
+        <v>6.1</v>
       </c>
       <c r="E109" t="n">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
       <c r="F109" t="n">
-        <v>8178.4179</v>
+        <v>49522.6066</v>
       </c>
       <c r="G109" t="n">
-        <v>-186458764.2286486</v>
+        <v>-186333941.0632289</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4812,22 +4686,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.04</v>
+        <v>6.073</v>
       </c>
       <c r="C110" t="n">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
       <c r="D110" t="n">
-        <v>6.04</v>
+        <v>6.1</v>
       </c>
       <c r="E110" t="n">
-        <v>6.04</v>
+        <v>6.073</v>
       </c>
       <c r="F110" t="n">
-        <v>3942.4702</v>
+        <v>364861.9677</v>
       </c>
       <c r="G110" t="n">
-        <v>-186458764.2286486</v>
+        <v>-186333941.0632289</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4848,22 +4722,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.032</v>
+        <v>6.081</v>
       </c>
       <c r="C111" t="n">
-        <v>6.032</v>
+        <v>6.071</v>
       </c>
       <c r="D111" t="n">
-        <v>6.032</v>
+        <v>6.083</v>
       </c>
       <c r="E111" t="n">
-        <v>6.031</v>
+        <v>6.071</v>
       </c>
       <c r="F111" t="n">
-        <v>120712.8991</v>
+        <v>201977.945</v>
       </c>
       <c r="G111" t="n">
-        <v>-186579477.1277486</v>
+        <v>-186535919.0082289</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4884,22 +4758,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.031</v>
+        <v>6.108</v>
       </c>
       <c r="C112" t="n">
-        <v>6.031</v>
+        <v>6.108</v>
       </c>
       <c r="D112" t="n">
-        <v>6.031</v>
+        <v>6.108</v>
       </c>
       <c r="E112" t="n">
-        <v>6.031</v>
+        <v>6.108</v>
       </c>
       <c r="F112" t="n">
-        <v>9434.763999999999</v>
+        <v>91253.1556</v>
       </c>
       <c r="G112" t="n">
-        <v>-186588911.8917486</v>
+        <v>-186444665.8526289</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4920,28 +4794,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.98</v>
+        <v>6.081</v>
       </c>
       <c r="C113" t="n">
-        <v>5.97</v>
+        <v>6.12</v>
       </c>
       <c r="D113" t="n">
-        <v>5.98</v>
+        <v>6.12</v>
       </c>
       <c r="E113" t="n">
-        <v>5.97</v>
+        <v>6.081</v>
       </c>
       <c r="F113" t="n">
-        <v>7871.6306</v>
+        <v>15660.5393</v>
       </c>
       <c r="G113" t="n">
-        <v>-186596783.5223486</v>
+        <v>-186429005.3133289</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4956,28 +4830,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.99</v>
+        <v>6.09</v>
       </c>
       <c r="C114" t="n">
-        <v>5.992</v>
+        <v>6.08</v>
       </c>
       <c r="D114" t="n">
-        <v>5.992</v>
+        <v>6.09</v>
       </c>
       <c r="E114" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="F114" t="n">
-        <v>86993.26850000001</v>
+        <v>17829.9436</v>
       </c>
       <c r="G114" t="n">
-        <v>-186509790.2538486</v>
+        <v>-186446835.2569289</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4992,28 +4866,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.992</v>
+        <v>6.09</v>
       </c>
       <c r="C115" t="n">
-        <v>5.992</v>
+        <v>6.085</v>
       </c>
       <c r="D115" t="n">
-        <v>5.992</v>
+        <v>6.09</v>
       </c>
       <c r="E115" t="n">
-        <v>5.992</v>
+        <v>6.085</v>
       </c>
       <c r="F115" t="n">
-        <v>28333.3673</v>
+        <v>12364.4799</v>
       </c>
       <c r="G115" t="n">
-        <v>-186509790.2538486</v>
+        <v>-186434470.7770289</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5028,28 +4902,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.983</v>
+        <v>6.069</v>
       </c>
       <c r="C116" t="n">
-        <v>5.983</v>
+        <v>6.069</v>
       </c>
       <c r="D116" t="n">
-        <v>5.983</v>
+        <v>6.069</v>
       </c>
       <c r="E116" t="n">
-        <v>5.983</v>
+        <v>6.069</v>
       </c>
       <c r="F116" t="n">
-        <v>132905.2833</v>
+        <v>12000</v>
       </c>
       <c r="G116" t="n">
-        <v>-186642695.5371486</v>
+        <v>-186446470.7770289</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5064,22 +4938,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.978</v>
+        <v>6.09</v>
       </c>
       <c r="C117" t="n">
-        <v>5.978</v>
+        <v>6.092</v>
       </c>
       <c r="D117" t="n">
-        <v>5.978</v>
+        <v>6.092</v>
       </c>
       <c r="E117" t="n">
-        <v>5.978</v>
+        <v>6.09</v>
       </c>
       <c r="F117" t="n">
-        <v>26481.9081</v>
+        <v>24000</v>
       </c>
       <c r="G117" t="n">
-        <v>-186669177.4452486</v>
+        <v>-186422470.7770289</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5100,22 +4974,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.953</v>
+        <v>6.105</v>
       </c>
       <c r="C118" t="n">
-        <v>5.953</v>
+        <v>6.105</v>
       </c>
       <c r="D118" t="n">
-        <v>5.953</v>
+        <v>6.105</v>
       </c>
       <c r="E118" t="n">
-        <v>5.953</v>
+        <v>6.105</v>
       </c>
       <c r="F118" t="n">
-        <v>15673.0109</v>
+        <v>12000</v>
       </c>
       <c r="G118" t="n">
-        <v>-186684850.4561486</v>
+        <v>-186410470.7770289</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5136,22 +5010,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.961</v>
+        <v>6.095</v>
       </c>
       <c r="C119" t="n">
-        <v>5.961</v>
+        <v>6.095</v>
       </c>
       <c r="D119" t="n">
-        <v>5.961</v>
+        <v>6.095</v>
       </c>
       <c r="E119" t="n">
-        <v>5.961</v>
+        <v>6.095</v>
       </c>
       <c r="F119" t="n">
-        <v>98287.9596</v>
+        <v>7157.0203</v>
       </c>
       <c r="G119" t="n">
-        <v>-186586562.4965486</v>
+        <v>-186417627.7973289</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5172,22 +5046,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.003</v>
+        <v>6.096</v>
       </c>
       <c r="C120" t="n">
-        <v>6.003</v>
+        <v>6.096</v>
       </c>
       <c r="D120" t="n">
-        <v>6.003</v>
+        <v>6.096</v>
       </c>
       <c r="E120" t="n">
-        <v>6.003</v>
+        <v>6.096</v>
       </c>
       <c r="F120" t="n">
-        <v>18000</v>
+        <v>5577.8953</v>
       </c>
       <c r="G120" t="n">
-        <v>-186568562.4965486</v>
+        <v>-186412049.9020289</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5208,22 +5082,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.022</v>
+        <v>6.109</v>
       </c>
       <c r="C121" t="n">
-        <v>6.023</v>
+        <v>6.109</v>
       </c>
       <c r="D121" t="n">
-        <v>6.023</v>
+        <v>6.109</v>
       </c>
       <c r="E121" t="n">
-        <v>6.022</v>
+        <v>6.109</v>
       </c>
       <c r="F121" t="n">
-        <v>3469.6516</v>
+        <v>207.5163</v>
       </c>
       <c r="G121" t="n">
-        <v>-186565092.8449486</v>
+        <v>-186411842.3857289</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5244,22 +5118,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.989</v>
+        <v>6.12</v>
       </c>
       <c r="C122" t="n">
-        <v>5.989</v>
+        <v>6.133</v>
       </c>
       <c r="D122" t="n">
-        <v>5.989</v>
+        <v>6.133</v>
       </c>
       <c r="E122" t="n">
-        <v>5.989</v>
+        <v>6.12</v>
       </c>
       <c r="F122" t="n">
-        <v>14047.0752</v>
+        <v>16305.23398031</v>
       </c>
       <c r="G122" t="n">
-        <v>-186579139.9201486</v>
+        <v>-186395537.1517486</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5280,22 +5154,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.991</v>
+        <v>6.095</v>
       </c>
       <c r="C123" t="n">
-        <v>5.991</v>
+        <v>6.092</v>
       </c>
       <c r="D123" t="n">
-        <v>5.991</v>
+        <v>6.095</v>
       </c>
       <c r="E123" t="n">
-        <v>5.991</v>
+        <v>6.092</v>
       </c>
       <c r="F123" t="n">
-        <v>19464</v>
+        <v>35990.473</v>
       </c>
       <c r="G123" t="n">
-        <v>-186559675.9201486</v>
+        <v>-186431527.6247486</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5316,22 +5190,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.991</v>
+        <v>6.018</v>
       </c>
       <c r="C124" t="n">
-        <v>5.991</v>
+        <v>6.073</v>
       </c>
       <c r="D124" t="n">
-        <v>5.991</v>
+        <v>6.073</v>
       </c>
       <c r="E124" t="n">
-        <v>5.991</v>
+        <v>6.017</v>
       </c>
       <c r="F124" t="n">
-        <v>9602.6018</v>
+        <v>181993.8357</v>
       </c>
       <c r="G124" t="n">
-        <v>-186559675.9201486</v>
+        <v>-186613521.4604486</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5352,22 +5226,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.99</v>
+        <v>6.073</v>
       </c>
       <c r="C125" t="n">
-        <v>5.99</v>
+        <v>6.073</v>
       </c>
       <c r="D125" t="n">
-        <v>5.99</v>
+        <v>6.073</v>
       </c>
       <c r="E125" t="n">
-        <v>5.99</v>
+        <v>6.073</v>
       </c>
       <c r="F125" t="n">
-        <v>295.6405</v>
+        <v>1285.1518</v>
       </c>
       <c r="G125" t="n">
-        <v>-186559971.5606486</v>
+        <v>-186613521.4604486</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5388,22 +5262,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6</v>
+        <v>6.096</v>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>6.108</v>
       </c>
       <c r="D126" t="n">
-        <v>6</v>
+        <v>6.108</v>
       </c>
       <c r="E126" t="n">
-        <v>6</v>
+        <v>6.096</v>
       </c>
       <c r="F126" t="n">
-        <v>15813.001</v>
+        <v>219000</v>
       </c>
       <c r="G126" t="n">
-        <v>-186544158.5596486</v>
+        <v>-186394521.4604486</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5424,22 +5298,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6</v>
+        <v>6.083</v>
       </c>
       <c r="C127" t="n">
-        <v>6</v>
+        <v>6.083</v>
       </c>
       <c r="D127" t="n">
-        <v>6</v>
+        <v>6.083</v>
       </c>
       <c r="E127" t="n">
-        <v>6</v>
+        <v>6.083</v>
       </c>
       <c r="F127" t="n">
-        <v>1581.0962</v>
+        <v>17354.1797</v>
       </c>
       <c r="G127" t="n">
-        <v>-186544158.5596486</v>
+        <v>-186411875.6401486</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5460,22 +5334,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.999</v>
+        <v>6.08</v>
       </c>
       <c r="C128" t="n">
-        <v>5.999</v>
+        <v>6.08</v>
       </c>
       <c r="D128" t="n">
-        <v>5.999</v>
+        <v>6.08</v>
       </c>
       <c r="E128" t="n">
-        <v>5.999</v>
+        <v>6.08</v>
       </c>
       <c r="F128" t="n">
-        <v>106074.6846</v>
+        <v>2390.2078</v>
       </c>
       <c r="G128" t="n">
-        <v>-186650233.2442486</v>
+        <v>-186414265.8479486</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5496,22 +5370,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.01</v>
+        <v>6.073</v>
       </c>
       <c r="C129" t="n">
-        <v>6.03</v>
+        <v>6.072</v>
       </c>
       <c r="D129" t="n">
-        <v>6.03</v>
+        <v>6.073</v>
       </c>
       <c r="E129" t="n">
-        <v>6.01</v>
+        <v>6.072</v>
       </c>
       <c r="F129" t="n">
-        <v>14778.0367</v>
+        <v>32956.6488</v>
       </c>
       <c r="G129" t="n">
-        <v>-186635455.2075486</v>
+        <v>-186447222.4967486</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5532,22 +5406,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.04</v>
+        <v>6.072</v>
       </c>
       <c r="C130" t="n">
-        <v>6.008</v>
+        <v>6.07</v>
       </c>
       <c r="D130" t="n">
-        <v>6.045</v>
+        <v>6.072</v>
       </c>
       <c r="E130" t="n">
-        <v>6.001</v>
+        <v>6.07</v>
       </c>
       <c r="F130" t="n">
-        <v>60675.0127</v>
+        <v>12629.9124</v>
       </c>
       <c r="G130" t="n">
-        <v>-186696130.2202486</v>
+        <v>-186459852.4091486</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5568,22 +5442,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.044</v>
+        <v>6.07</v>
       </c>
       <c r="C131" t="n">
-        <v>6.044</v>
+        <v>6.072</v>
       </c>
       <c r="D131" t="n">
-        <v>6.044</v>
+        <v>6.072</v>
       </c>
       <c r="E131" t="n">
-        <v>6.044</v>
+        <v>6.07</v>
       </c>
       <c r="F131" t="n">
-        <v>3346.1331</v>
+        <v>19284.0241</v>
       </c>
       <c r="G131" t="n">
-        <v>-186692784.0871486</v>
+        <v>-186440568.3850486</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5604,22 +5478,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.015</v>
+        <v>6.07</v>
       </c>
       <c r="C132" t="n">
-        <v>6.015</v>
+        <v>6.07</v>
       </c>
       <c r="D132" t="n">
-        <v>6.015</v>
+        <v>6.07</v>
       </c>
       <c r="E132" t="n">
-        <v>6.015</v>
+        <v>6.07</v>
       </c>
       <c r="F132" t="n">
-        <v>6896.936</v>
+        <v>1351.4441</v>
       </c>
       <c r="G132" t="n">
-        <v>-186699681.0231486</v>
+        <v>-186441919.8291486</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5640,22 +5514,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.016</v>
+        <v>6.05</v>
       </c>
       <c r="C133" t="n">
-        <v>6.017</v>
+        <v>6.05</v>
       </c>
       <c r="D133" t="n">
-        <v>6.017</v>
+        <v>6.05</v>
       </c>
       <c r="E133" t="n">
-        <v>6.015</v>
+        <v>6.05</v>
       </c>
       <c r="F133" t="n">
-        <v>452892.9002</v>
+        <v>4112.2946</v>
       </c>
       <c r="G133" t="n">
-        <v>-186246788.1229486</v>
+        <v>-186446032.1237486</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5676,22 +5550,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.015</v>
+        <v>6.05</v>
       </c>
       <c r="C134" t="n">
-        <v>6.015</v>
+        <v>6.05</v>
       </c>
       <c r="D134" t="n">
-        <v>6.015</v>
+        <v>6.05</v>
       </c>
       <c r="E134" t="n">
-        <v>6.015</v>
+        <v>6.05</v>
       </c>
       <c r="F134" t="n">
-        <v>187.8941</v>
+        <v>1850.4501</v>
       </c>
       <c r="G134" t="n">
-        <v>-186246976.0170486</v>
+        <v>-186446032.1237486</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5712,22 +5586,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.001</v>
+        <v>6.05</v>
       </c>
       <c r="C135" t="n">
-        <v>6.001</v>
+        <v>6.05</v>
       </c>
       <c r="D135" t="n">
-        <v>6.001</v>
+        <v>6.05</v>
       </c>
       <c r="E135" t="n">
-        <v>6.001</v>
+        <v>6.05</v>
       </c>
       <c r="F135" t="n">
-        <v>6723</v>
+        <v>21639.2181</v>
       </c>
       <c r="G135" t="n">
-        <v>-186253699.0170486</v>
+        <v>-186446032.1237486</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5748,22 +5622,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="D136" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E136" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="F136" t="n">
-        <v>10979.9497</v>
+        <v>78472.72169999999</v>
       </c>
       <c r="G136" t="n">
-        <v>-186264678.9667486</v>
+        <v>-186446032.1237486</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5784,22 +5658,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.001</v>
+        <v>6.041</v>
       </c>
       <c r="C137" t="n">
-        <v>6.001</v>
+        <v>6.041</v>
       </c>
       <c r="D137" t="n">
-        <v>6.001</v>
+        <v>6.041</v>
       </c>
       <c r="E137" t="n">
-        <v>6.001</v>
+        <v>6.041</v>
       </c>
       <c r="F137" t="n">
-        <v>172970.2285</v>
+        <v>4553.687</v>
       </c>
       <c r="G137" t="n">
-        <v>-186091708.7382486</v>
+        <v>-186450585.8107486</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5820,22 +5694,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.994</v>
+        <v>6.041</v>
       </c>
       <c r="C138" t="n">
-        <v>5.995</v>
+        <v>6.04</v>
       </c>
       <c r="D138" t="n">
-        <v>5.995</v>
+        <v>6.041</v>
       </c>
       <c r="E138" t="n">
-        <v>5.994</v>
+        <v>6.04</v>
       </c>
       <c r="F138" t="n">
-        <v>7480.718</v>
+        <v>8178.4179</v>
       </c>
       <c r="G138" t="n">
-        <v>-186099189.4562486</v>
+        <v>-186458764.2286486</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5856,22 +5730,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.995</v>
+        <v>6.04</v>
       </c>
       <c r="C139" t="n">
-        <v>5.993</v>
+        <v>6.04</v>
       </c>
       <c r="D139" t="n">
-        <v>5.995</v>
+        <v>6.04</v>
       </c>
       <c r="E139" t="n">
-        <v>5.993</v>
+        <v>6.04</v>
       </c>
       <c r="F139" t="n">
-        <v>9278.0605</v>
+        <v>3942.4702</v>
       </c>
       <c r="G139" t="n">
-        <v>-186108467.5167485</v>
+        <v>-186458764.2286486</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5892,22 +5766,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.029</v>
+        <v>6.032</v>
       </c>
       <c r="C140" t="n">
-        <v>6.029</v>
+        <v>6.032</v>
       </c>
       <c r="D140" t="n">
-        <v>6.029</v>
+        <v>6.032</v>
       </c>
       <c r="E140" t="n">
-        <v>6.029</v>
+        <v>6.031</v>
       </c>
       <c r="F140" t="n">
-        <v>16991.9793</v>
+        <v>120712.8991</v>
       </c>
       <c r="G140" t="n">
-        <v>-186091475.5374486</v>
+        <v>-186579477.1277486</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5928,22 +5802,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.028</v>
+        <v>6.031</v>
       </c>
       <c r="C141" t="n">
-        <v>6.028</v>
+        <v>6.031</v>
       </c>
       <c r="D141" t="n">
-        <v>6.028</v>
+        <v>6.031</v>
       </c>
       <c r="E141" t="n">
-        <v>6.028</v>
+        <v>6.031</v>
       </c>
       <c r="F141" t="n">
-        <v>16994.9644</v>
+        <v>9434.763999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>-186108470.5018485</v>
+        <v>-186588911.8917486</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5964,22 +5838,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.029</v>
+        <v>5.98</v>
       </c>
       <c r="C142" t="n">
-        <v>6.029</v>
+        <v>5.97</v>
       </c>
       <c r="D142" t="n">
-        <v>6.029</v>
+        <v>5.98</v>
       </c>
       <c r="E142" t="n">
-        <v>6.029</v>
+        <v>5.97</v>
       </c>
       <c r="F142" t="n">
-        <v>58481.0878</v>
+        <v>7871.6306</v>
       </c>
       <c r="G142" t="n">
-        <v>-186049989.4140486</v>
+        <v>-186596783.5223486</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5995,6 +5869,1050 @@
       </c>
       <c r="N142" t="inlineStr"/>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F143" t="n">
+        <v>86993.26850000001</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-186509790.2538486</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="F144" t="n">
+        <v>28333.3673</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-186509790.2538486</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5.983</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.983</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5.983</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5.983</v>
+      </c>
+      <c r="F145" t="n">
+        <v>132905.2833</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-186642695.5371486</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.978</v>
+      </c>
+      <c r="F146" t="n">
+        <v>26481.9081</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-186669177.4452486</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.953</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.953</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5.953</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5.953</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15673.0109</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-186684850.4561486</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.961</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.961</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5.961</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5.961</v>
+      </c>
+      <c r="F148" t="n">
+        <v>98287.9596</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-186586562.4965486</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.003</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.003</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.003</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.003</v>
+      </c>
+      <c r="F149" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-186568562.4965486</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.022</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.023</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.023</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.022</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3469.6516</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-186565092.8449486</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="F151" t="n">
+        <v>14047.0752</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-186579139.9201486</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="F152" t="n">
+        <v>19464</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-186559675.9201486</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="F153" t="n">
+        <v>9602.6018</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-186559675.9201486</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F154" t="n">
+        <v>295.6405</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-186559971.5606486</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>15813.001</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-186544158.5596486</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1581.0962</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-186544158.5596486</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>5.999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>106074.6846</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-186650233.2442486</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14778.0367</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-186635455.2075486</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.045</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>60675.0127</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-186696130.2202486</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.044</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3346.1331</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-186692784.0871486</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6896.936</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-186699681.0231486</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.016</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="F162" t="n">
+        <v>452892.9002</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-186246788.1229486</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="F163" t="n">
+        <v>187.8941</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-186246976.0170486</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6723</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-186253699.0170486</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10979.9497</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-186264678.9667486</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>172970.2285</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-186091708.7382486</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5.994</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5.994</v>
+      </c>
+      <c r="F167" t="n">
+        <v>7480.718</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-186099189.4562486</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="F168" t="n">
+        <v>9278.0605</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-186108467.5167485</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="F169" t="n">
+        <v>16991.9793</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-186091475.5374486</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="F170" t="n">
+        <v>16994.9644</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-186108470.5018485</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="F171" t="n">
+        <v>58481.0878</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-186049989.4140486</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest IOST.xlsx
+++ b/BackTest/2020-01-15 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-188567927.5774289</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-188569262.2570289</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-188569163.6521289</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-188664138.9333289</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-188655783.2118289</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-188665212.9672289</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1078,14 +1078,10 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1115,19 +1111,11 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1156,19 +1144,11 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1263,14 +1243,10 @@
         <v>-188660978.1183289</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1303,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1339,19 +1309,11 @@
         <v>-188598238.5775289</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.841</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1380,19 +1342,11 @@
         <v>-188547841.6580289</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1424,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1463,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1502,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1538,17 +1474,15 @@
         <v>-188393807.7945289</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.863</v>
+      </c>
       <c r="J33" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.863</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1577,15 +1511,17 @@
         <v>-188400957.1921289</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.864</v>
+      </c>
       <c r="J34" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1616,11 +1552,13 @@
         <v>-188395332.9716289</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J35" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1655,11 +1593,13 @@
         <v>-188395332.9716289</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.863</v>
+      </c>
       <c r="J36" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1694,13 +1634,13 @@
         <v>-188385271.3878289</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>5.863</v>
       </c>
       <c r="J37" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1735,11 +1675,11 @@
         <v>-188392920.3695289</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1774,11 +1714,13 @@
         <v>-188392920.3695289</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.871</v>
+      </c>
       <c r="J39" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1815,9 +1757,11 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>5.871</v>
+      </c>
       <c r="J40" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1852,11 +1796,13 @@
         <v>-188388408.5481289</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.912</v>
+      </c>
       <c r="J41" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1891,11 +1837,13 @@
         <v>-188388408.5481289</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.912</v>
+      </c>
       <c r="J42" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1930,11 +1878,13 @@
         <v>-188405165.3852289</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.912</v>
+      </c>
       <c r="J43" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1969,11 +1919,13 @@
         <v>-188185092.9681289</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.885</v>
+      </c>
       <c r="J44" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2008,13 +1960,13 @@
         <v>-188080595.7318289</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>5.929</v>
       </c>
       <c r="J45" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2049,11 +2001,13 @@
         <v>-188080595.7318289</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.945</v>
+      </c>
       <c r="J46" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2088,11 +2042,13 @@
         <v>-188087014.7472289</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.945</v>
+      </c>
       <c r="J47" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2127,11 +2083,13 @@
         <v>-188087014.7472289</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J48" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2166,13 +2124,13 @@
         <v>-188015014.7472289</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>5.901</v>
       </c>
       <c r="J49" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2207,11 +2165,13 @@
         <v>-188015014.7472289</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.935</v>
+      </c>
       <c r="J50" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2246,11 +2206,13 @@
         <v>-188037922.5826289</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.935</v>
+      </c>
       <c r="J51" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2285,11 +2247,13 @@
         <v>-188021098.9538289</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.92</v>
+      </c>
       <c r="J52" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2324,11 +2288,13 @@
         <v>-187991656.8269289</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5.94</v>
+      </c>
       <c r="J53" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2363,11 +2329,11 @@
         <v>-188147995.5812289</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2406,7 +2372,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2441,19 +2407,19 @@
         <v>-188011230.3364289</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>5.862</v>
+        <v>5.863</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.020929716820198</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr"/>
     </row>
@@ -2480,11 +2446,17 @@
         <v>-187827466.4407289</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2513,11 +2485,17 @@
         <v>-187831324.5772289</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2546,11 +2524,17 @@
         <v>-187859007.3837289</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2579,11 +2563,17 @@
         <v>-187820500.5134289</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2612,11 +2602,19 @@
         <v>-187962873.6013289</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5.983</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2645,11 +2643,19 @@
         <v>-188060868.1672289</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2678,11 +2684,19 @@
         <v>-188138339.0003289</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.921</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2711,11 +2725,19 @@
         <v>-188138339.0003289</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2744,11 +2766,19 @@
         <v>-188242988.0937289</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2779,9 +2809,17 @@
       <c r="H66" t="n">
         <v>1</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2810,11 +2848,19 @@
         <v>-188271962.0937289</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.911</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2845,9 +2891,17 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>5.901</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2876,11 +2930,19 @@
         <v>-188162912.0937289</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.901</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2911,9 +2973,17 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>5.903</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +3012,19 @@
         <v>-188111556.0194289</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.902</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2975,11 +3053,19 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5.964</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3008,11 +3094,19 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +3135,17 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3074,11 +3174,19 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3107,11 +3215,19 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3140,11 +3256,19 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3173,11 +3297,19 @@
         <v>-187603365.9234289</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3206,15 +3338,17 @@
         <v>-187983113.3504289</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>5.991</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3245,12 +3379,14 @@
         <v>-187938941.8613289</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>5.943</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3284,10 +3420,14 @@
         <v>-187731664.5315289</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3321,10 +3461,14 @@
         <v>-187797551.5315289</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6.054</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3358,10 +3502,12 @@
         <v>-187873321.5315289</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3398,7 +3544,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3432,10 +3580,14 @@
         <v>-187690802.5315289</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3469,10 +3621,14 @@
         <v>-187690802.5315289</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.982</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3506,10 +3662,14 @@
         <v>-187648322.5315289</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.982</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3543,10 +3703,14 @@
         <v>-187656635.0315289</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.995</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,10 +3744,14 @@
         <v>-187563990.0315289</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3617,10 +3785,14 @@
         <v>-187563990.0315289</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,16 +3826,22 @@
         <v>-187680925.9390289</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
       <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -3689,11 +3867,19 @@
         <v>-187687190.6647289</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6.027</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3722,11 +3908,19 @@
         <v>-187658466.9137289</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6.026</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3755,11 +3949,19 @@
         <v>-187658466.9137289</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.036</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3788,11 +3990,19 @@
         <v>-187658641.9137289</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.036</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3821,11 +4031,19 @@
         <v>-187658146.1772289</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J96" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3854,11 +4072,19 @@
         <v>-187658246.1772289</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3887,11 +4113,19 @@
         <v>-187658146.1772289</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3920,11 +4154,19 @@
         <v>-187649675.0289289</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3953,11 +4195,19 @@
         <v>-187649675.0289289</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3986,11 +4236,19 @@
         <v>-187649675.0289289</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +4277,19 @@
         <v>-187284349.4532289</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6.037</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4052,11 +4318,19 @@
         <v>-186788489.2758289</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6.043</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4085,11 +4359,19 @@
         <v>-186151300.7299289</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4118,11 +4400,17 @@
         <v>-186038084.2444289</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4151,11 +4439,17 @@
         <v>-186262331.5432289</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4184,11 +4478,17 @@
         <v>-186262331.5432289</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4220,8 +4520,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4253,8 +4559,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4286,8 +4598,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4319,8 +4637,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4352,8 +4676,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4385,8 +4715,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4418,8 +4754,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4448,11 +4790,17 @@
         <v>-186434470.7770289</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4481,11 +4829,17 @@
         <v>-186446470.7770289</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4514,11 +4868,17 @@
         <v>-186422470.7770289</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4550,8 +4910,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4580,11 +4946,17 @@
         <v>-186417627.7973289</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4613,11 +4985,17 @@
         <v>-186412049.9020289</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4646,11 +5024,17 @@
         <v>-186411842.3857289</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4679,11 +5063,17 @@
         <v>-186395537.1517486</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4712,11 +5102,17 @@
         <v>-186431527.6247486</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4748,8 +5144,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4778,11 +5180,17 @@
         <v>-186613521.4604486</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4811,11 +5219,17 @@
         <v>-186394521.4604486</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4844,11 +5258,17 @@
         <v>-186411875.6401486</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4877,11 +5297,17 @@
         <v>-186414265.8479486</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4913,8 +5339,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4946,8 +5378,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4979,8 +5417,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5012,8 +5456,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5045,8 +5495,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5078,8 +5534,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5111,8 +5573,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5144,8 +5612,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5177,8 +5651,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5210,8 +5690,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5243,8 +5729,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5276,8 +5768,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5309,8 +5807,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5342,8 +5846,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5375,8 +5885,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5408,8 +5924,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5441,8 +5963,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5474,8 +6002,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5507,8 +6041,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5540,8 +6080,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5573,8 +6119,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5606,8 +6158,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5639,8 +6197,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5672,8 +6236,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5705,8 +6275,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5738,8 +6314,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5771,8 +6353,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5804,8 +6392,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5837,8 +6431,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5870,8 +6470,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5903,8 +6509,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5936,8 +6548,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5969,8 +6587,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6002,8 +6626,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6035,8 +6665,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6068,8 +6704,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6101,8 +6743,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6134,8 +6782,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6167,8 +6821,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6200,8 +6860,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6233,8 +6899,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6266,8 +6938,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6299,14 +6977,20 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
       <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest IOST.xlsx
+++ b/BackTest/2020-01-15 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-188569262.2570289</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-188569163.6521289</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-188664138.9333289</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-188655783.2118289</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-188665212.9672289</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-188665112.9672289</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-188569098.9740289</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-188565346.3248289</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-188561171.3248289</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-188564921.1412289</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-188579914.5775289</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-188594096.0332289</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-188613542.6079289</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-188613542.6079289</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-188551496.6259289</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1474,14 +1474,10 @@
         <v>-188393807.7945289</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1511,19 +1507,11 @@
         <v>-188400957.1921289</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.864</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1552,19 +1540,11 @@
         <v>-188395332.9716289</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1593,19 +1573,11 @@
         <v>-188395332.9716289</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1634,19 +1606,11 @@
         <v>-188385271.3878289</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1678,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1714,19 +1672,11 @@
         <v>-188392920.3695289</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1755,19 +1705,11 @@
         <v>-188388408.5481289</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1796,19 +1738,11 @@
         <v>-188388408.5481289</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1837,19 +1771,11 @@
         <v>-188388408.5481289</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1878,19 +1804,11 @@
         <v>-188405165.3852289</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1919,19 +1837,11 @@
         <v>-188185092.9681289</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1960,19 +1870,11 @@
         <v>-188080595.7318289</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.929</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2001,19 +1903,11 @@
         <v>-188080595.7318289</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2042,19 +1936,11 @@
         <v>-188087014.7472289</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2083,19 +1969,11 @@
         <v>-188087014.7472289</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2130,13 +2008,9 @@
         <v>5.901</v>
       </c>
       <c r="J49" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.901</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2171,11 +2045,11 @@
         <v>5.935</v>
       </c>
       <c r="J50" t="n">
-        <v>5.863</v>
+        <v>5.901</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2206,17 +2080,15 @@
         <v>-188037922.5826289</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>5.863</v>
+        <v>5.901</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2247,19 +2119,11 @@
         <v>-188021098.9538289</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2294,13 +2158,9 @@
         <v>5.94</v>
       </c>
       <c r="J53" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.94</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2329,15 +2189,17 @@
         <v>-188147995.5812289</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5.998</v>
+      </c>
       <c r="J54" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2368,15 +2230,17 @@
         <v>-188145104.5812289</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.96</v>
+      </c>
       <c r="J55" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2407,15 +2271,17 @@
         <v>-188011230.3364289</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.999</v>
+      </c>
       <c r="J56" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2450,7 +2316,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2489,7 +2355,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2528,7 +2394,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2567,7 +2433,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2602,13 +2468,11 @@
         <v>-187962873.6013289</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5.983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2643,13 +2507,11 @@
         <v>-188060868.1672289</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5.967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2684,13 +2546,11 @@
         <v>-188138339.0003289</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2731,7 +2591,7 @@
         <v>5.912</v>
       </c>
       <c r="J64" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2766,13 +2626,11 @@
         <v>-188242988.0937289</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2807,13 +2665,11 @@
         <v>-188242988.0937289</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5.911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2848,13 +2704,11 @@
         <v>-188271962.0937289</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5.911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2889,13 +2743,11 @@
         <v>-188271962.0937289</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.901</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2930,13 +2782,11 @@
         <v>-188162912.0937289</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5.901</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2971,13 +2821,11 @@
         <v>-188176468.0937289</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.903</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3012,13 +2860,11 @@
         <v>-188111556.0194289</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5.902</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3053,13 +2899,11 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5.964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3094,13 +2938,11 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5.971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3139,7 +2981,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3174,13 +3016,11 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5.971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3215,13 +3055,11 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5.971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3256,13 +3094,11 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5.971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3297,13 +3133,11 @@
         <v>-187603365.9234289</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5.971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3338,13 +3172,11 @@
         <v>-187983113.3504289</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5.991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3379,13 +3211,11 @@
         <v>-187938941.8613289</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5.943</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3420,13 +3250,11 @@
         <v>-187731664.5315289</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3461,13 +3289,11 @@
         <v>-187797551.5315289</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6.054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3506,7 +3332,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3545,7 +3371,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3580,13 +3406,11 @@
         <v>-187690802.5315289</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3621,13 +3445,11 @@
         <v>-187690802.5315289</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5.982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3662,13 +3484,11 @@
         <v>-187648322.5315289</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5.982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3703,13 +3523,11 @@
         <v>-187656635.0315289</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3744,13 +3562,11 @@
         <v>-187563990.0315289</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5.989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3785,13 +3601,11 @@
         <v>-187563990.0315289</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3826,13 +3640,11 @@
         <v>-187680925.9390289</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3867,13 +3679,11 @@
         <v>-187687190.6647289</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6.027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3908,13 +3718,11 @@
         <v>-187658466.9137289</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6.026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3949,13 +3757,11 @@
         <v>-187658466.9137289</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6.036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3990,13 +3796,11 @@
         <v>-187658641.9137289</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6.036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4031,13 +3835,11 @@
         <v>-187658146.1772289</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>6.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4072,13 +3874,11 @@
         <v>-187658246.1772289</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4113,13 +3913,11 @@
         <v>-187658146.1772289</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4154,13 +3952,11 @@
         <v>-187649675.0289289</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6.013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4195,13 +3991,11 @@
         <v>-187649675.0289289</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4236,13 +4030,11 @@
         <v>-187649675.0289289</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4277,13 +4069,11 @@
         <v>-187284349.4532289</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>6.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4318,13 +4108,11 @@
         <v>-186788489.2758289</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>6.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4359,13 +4147,11 @@
         <v>-186151300.7299289</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>6.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4404,7 +4190,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4443,7 +4229,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4482,7 +4268,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4521,7 +4307,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4560,7 +4346,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4599,7 +4385,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4638,7 +4424,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4677,7 +4463,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4716,7 +4502,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4755,7 +4541,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4794,7 +4580,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4833,7 +4619,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4872,7 +4658,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4911,7 +4697,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4950,7 +4736,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4989,7 +4775,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5028,7 +4814,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5067,7 +4853,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5106,7 +4892,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5145,7 +4931,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5184,7 +4970,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5223,7 +5009,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5262,7 +5048,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5301,7 +5087,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5340,7 +5126,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5379,7 +5165,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5418,7 +5204,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5457,7 +5243,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5496,7 +5282,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5535,7 +5321,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5574,7 +5360,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5613,7 +5399,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5652,7 +5438,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5691,7 +5477,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5730,7 +5516,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5769,7 +5555,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5808,7 +5594,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5847,7 +5633,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5886,7 +5672,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5925,7 +5711,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5964,7 +5750,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6003,7 +5789,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6042,7 +5828,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6081,7 +5867,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6120,7 +5906,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6159,7 +5945,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6198,7 +5984,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6237,7 +6023,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6276,7 +6062,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6315,7 +6101,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6354,7 +6140,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6393,7 +6179,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6428,11 +6214,13 @@
         <v>-186650233.2442486</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>6</v>
+      </c>
       <c r="J157" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6471,7 +6259,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6506,11 +6294,13 @@
         <v>-186696130.2202486</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>6.03</v>
+      </c>
       <c r="J159" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6549,7 +6339,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6588,7 +6378,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6627,7 +6417,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6666,7 +6456,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6705,7 +6495,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6744,7 +6534,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6783,7 +6573,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6822,7 +6612,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6861,7 +6651,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6900,7 +6690,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6939,7 +6729,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6978,7 +6768,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>5.863</v>
+        <v>5.94</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6991,6 +6781,6 @@
       <c r="M171" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest IOST.xlsx
+++ b/BackTest/2020-01-15 BackTest IOST.xlsx
@@ -451,7 +451,7 @@
         <v>-188567927.5774289</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-188665212.9672289</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-188665112.9672289</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-188569098.9740289</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-188565346.3248289</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-188561171.3248289</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-188564921.1412289</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-188579914.5775289</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-188594096.0332289</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-188613542.6079289</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-188613542.6079289</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-188551496.6259289</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-188605193.6491289</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1606,10 +1606,14 @@
         <v>-188385271.3878289</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.863</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1642,8 +1646,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1685,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1804,10 +1820,14 @@
         <v>-188405165.3852289</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.912</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1837,11 +1857,19 @@
         <v>-188185092.9681289</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.885</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1898,19 @@
         <v>-188080595.7318289</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.929</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1939,19 @@
         <v>-188080595.7318289</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.945</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1980,19 @@
         <v>-188087014.7472289</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.945</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2021,19 @@
         <v>-188087014.7472289</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.901</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2008,9 +2068,13 @@
         <v>5.901</v>
       </c>
       <c r="J49" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>5.912</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2045,11 +2109,11 @@
         <v>5.935</v>
       </c>
       <c r="J50" t="n">
-        <v>5.901</v>
+        <v>5.912</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2080,15 +2144,17 @@
         <v>-188037922.5826289</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.935</v>
+      </c>
       <c r="J51" t="n">
-        <v>5.901</v>
+        <v>5.912</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2119,11 +2185,19 @@
         <v>-188021098.9538289</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.912</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2152,15 +2226,17 @@
         <v>-187991656.8269289</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>5.912</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2189,17 +2265,15 @@
         <v>-188147995.5812289</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5.998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2230,17 +2304,15 @@
         <v>-188145104.5812289</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2271,17 +2343,15 @@
         <v>-188011230.3364289</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5.999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2316,7 +2386,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2355,7 +2425,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2394,7 +2464,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2433,7 +2503,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2472,7 +2542,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2511,7 +2581,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2546,11 +2616,13 @@
         <v>-188138339.0003289</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.921</v>
+      </c>
       <c r="J63" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2591,7 +2663,7 @@
         <v>5.912</v>
       </c>
       <c r="J64" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2626,11 +2698,13 @@
         <v>-188242988.0937289</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.912</v>
+      </c>
       <c r="J65" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2665,11 +2739,13 @@
         <v>-188242988.0937289</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.911</v>
+      </c>
       <c r="J66" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2704,11 +2780,13 @@
         <v>-188271962.0937289</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.911</v>
+      </c>
       <c r="J67" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2743,11 +2821,13 @@
         <v>-188271962.0937289</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J68" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2782,11 +2862,13 @@
         <v>-188162912.0937289</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.901</v>
+      </c>
       <c r="J69" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2821,11 +2903,13 @@
         <v>-188176468.0937289</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.903</v>
+      </c>
       <c r="J70" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2860,11 +2944,13 @@
         <v>-188111556.0194289</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.902</v>
+      </c>
       <c r="J71" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2899,11 +2985,13 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5.964</v>
+      </c>
       <c r="J72" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2938,11 +3026,13 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5.971</v>
+      </c>
       <c r="J73" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2977,11 +3067,13 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.971</v>
+      </c>
       <c r="J74" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3016,11 +3108,13 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.971</v>
+      </c>
       <c r="J75" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3055,11 +3149,13 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.971</v>
+      </c>
       <c r="J76" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3094,11 +3190,13 @@
         <v>-188017568.0300289</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5.971</v>
+      </c>
       <c r="J77" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3133,11 +3231,13 @@
         <v>-187603365.9234289</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5.971</v>
+      </c>
       <c r="J78" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3172,11 +3272,13 @@
         <v>-187983113.3504289</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.991</v>
+      </c>
       <c r="J79" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3211,11 +3313,13 @@
         <v>-187938941.8613289</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5.943</v>
+      </c>
       <c r="J80" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3254,7 +3358,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3293,7 +3397,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3332,7 +3436,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3371,7 +3475,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3410,7 +3514,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3445,11 +3549,13 @@
         <v>-187690802.5315289</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.982</v>
+      </c>
       <c r="J86" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3488,7 +3594,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3527,7 +3633,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3562,11 +3668,13 @@
         <v>-187563990.0315289</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.989</v>
+      </c>
       <c r="J89" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3605,7 +3713,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3640,19 +3748,19 @@
         <v>-187680925.9390289</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>5.94</v>
+        <v>5.912</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>1.014451962110961</v>
       </c>
       <c r="M91" t="inlineStr"/>
     </row>
@@ -3682,14 +3790,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3721,14 +3823,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3760,14 +3856,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3799,14 +3889,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3838,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3877,14 +3955,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3916,14 +3988,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3955,14 +4021,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3994,14 +4054,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4030,17 +4084,11 @@
         <v>-187649675.0289289</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4069,17 +4117,11 @@
         <v>-187284349.4532289</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4108,17 +4150,11 @@
         <v>-186788489.2758289</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4147,17 +4183,11 @@
         <v>-186151300.7299289</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4186,17 +4216,11 @@
         <v>-186038084.2444289</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4225,17 +4249,11 @@
         <v>-186262331.5432289</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4264,17 +4282,11 @@
         <v>-186262331.5432289</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4303,17 +4315,11 @@
         <v>-186383463.6698289</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4342,17 +4348,11 @@
         <v>-186333941.0632289</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4381,17 +4381,11 @@
         <v>-186333941.0632289</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4420,17 +4414,11 @@
         <v>-186535919.0082289</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4459,17 +4447,11 @@
         <v>-186444665.8526289</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4498,17 +4480,11 @@
         <v>-186429005.3133289</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4537,17 +4513,11 @@
         <v>-186446835.2569289</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4576,17 +4546,11 @@
         <v>-186434470.7770289</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4615,17 +4579,11 @@
         <v>-186446470.7770289</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4657,14 +4615,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4696,14 +4648,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4732,17 +4678,11 @@
         <v>-186417627.7973289</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4771,17 +4711,11 @@
         <v>-186412049.9020289</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4810,17 +4744,11 @@
         <v>-186411842.3857289</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4849,17 +4777,11 @@
         <v>-186395537.1517486</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4888,17 +4810,11 @@
         <v>-186431527.6247486</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4927,17 +4843,11 @@
         <v>-186613521.4604486</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4966,17 +4876,11 @@
         <v>-186613521.4604486</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5008,14 +4912,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5044,17 +4942,11 @@
         <v>-186411875.6401486</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5083,17 +4975,11 @@
         <v>-186414265.8479486</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5122,17 +5008,11 @@
         <v>-186447222.4967486</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5161,17 +5041,11 @@
         <v>-186459852.4091486</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5200,17 +5074,11 @@
         <v>-186440568.3850486</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5239,17 +5107,11 @@
         <v>-186441919.8291486</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5278,17 +5140,11 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5317,17 +5173,11 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5356,17 +5206,11 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5395,17 +5239,11 @@
         <v>-186446032.1237486</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5434,17 +5272,11 @@
         <v>-186450585.8107486</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5473,17 +5305,11 @@
         <v>-186458764.2286486</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5515,14 +5341,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5554,14 +5374,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5593,14 +5407,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5632,14 +5440,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5671,14 +5473,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5710,14 +5506,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5749,14 +5539,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5788,14 +5572,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5827,14 +5605,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5866,14 +5638,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5905,14 +5671,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5944,14 +5704,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5983,14 +5737,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6022,14 +5770,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6061,14 +5803,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6100,14 +5836,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6139,14 +5869,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6178,14 +5902,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6214,19 +5932,11 @@
         <v>-186650233.2442486</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>6</v>
-      </c>
-      <c r="J157" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6258,14 +5968,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6294,19 +5998,11 @@
         <v>-186696130.2202486</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J159" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6338,14 +6034,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6377,14 +6067,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6416,14 +6100,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6455,14 +6133,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6494,14 +6166,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6533,14 +6199,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6572,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6611,14 +6265,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6650,14 +6298,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6689,14 +6331,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6728,14 +6364,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6767,14 +6397,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-15 BackTest IOST.xlsx
+++ b/BackTest/2020-01-15 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>86405.4397</v>
       </c>
       <c r="G2" t="n">
-        <v>-188567927.5774289</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1334.6796</v>
       </c>
       <c r="G3" t="n">
-        <v>-188569262.2570289</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>98.6049</v>
       </c>
       <c r="G4" t="n">
-        <v>-188569163.6521289</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>94975.2812</v>
       </c>
       <c r="G5" t="n">
-        <v>-188664138.9333289</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>8355.7215</v>
       </c>
       <c r="G6" t="n">
-        <v>-188655783.2118289</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>9429.7554</v>
       </c>
       <c r="G7" t="n">
-        <v>-188665212.9672289</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>-188665112.9672289</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>96013.9932</v>
       </c>
       <c r="G9" t="n">
-        <v>-188569098.9740289</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>3752.6492</v>
       </c>
       <c r="G10" t="n">
-        <v>-188565346.3248289</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4175</v>
       </c>
       <c r="G11" t="n">
-        <v>-188561171.3248289</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>3749.8164</v>
       </c>
       <c r="G12" t="n">
-        <v>-188564921.1412289</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>14993.4363</v>
       </c>
       <c r="G13" t="n">
-        <v>-188579914.5775289</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>14181.4557</v>
       </c>
       <c r="G14" t="n">
-        <v>-188594096.0332289</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>19446.5747</v>
       </c>
       <c r="G15" t="n">
-        <v>-188613542.6079289</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>36292.6653</v>
       </c>
       <c r="G16" t="n">
-        <v>-188613542.6079289</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>62045.982</v>
       </c>
       <c r="G17" t="n">
-        <v>-188551496.6259289</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>49225.0163</v>
       </c>
       <c r="G18" t="n">
-        <v>-188600721.6422289</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>4472.0069</v>
       </c>
       <c r="G19" t="n">
-        <v>-188605193.6491289</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>4542.286</v>
       </c>
       <c r="G20" t="n">
-        <v>-188605193.6491289</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>7805.3969</v>
       </c>
       <c r="G21" t="n">
-        <v>-188605193.6491289</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3876.9222</v>
       </c>
       <c r="G22" t="n">
-        <v>-188605193.6491289</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>685.2411</v>
       </c>
       <c r="G23" t="n">
-        <v>-188605193.6491289</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>31232.3037</v>
       </c>
       <c r="G24" t="n">
-        <v>-188636425.9528289</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>12193.5638</v>
       </c>
       <c r="G25" t="n">
-        <v>-188648619.5166289</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>12358.6017</v>
       </c>
       <c r="G26" t="n">
-        <v>-188660978.1183289</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,19 @@
         <v>99</v>
       </c>
       <c r="G27" t="n">
-        <v>-188661077.1183289</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.859</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1227,21 @@
         <v>62838.5408</v>
       </c>
       <c r="G28" t="n">
-        <v>-188598238.5775289</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1263,23 @@
         <v>50396.9195</v>
       </c>
       <c r="G29" t="n">
-        <v>-188547841.6580289</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>5.862</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1301,21 @@
         <v>12128.4238</v>
       </c>
       <c r="G30" t="n">
-        <v>-188559970.0818289</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1337,21 @@
         <v>170097.6181</v>
       </c>
       <c r="G31" t="n">
-        <v>-188389872.4637289</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1373,23 @@
         <v>22322.7603</v>
       </c>
       <c r="G32" t="n">
-        <v>-188412195.2240289</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>5.887</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1411,23 @@
         <v>18387.4295</v>
       </c>
       <c r="G33" t="n">
-        <v>-188393807.7945289</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>5.863</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1449,23 @@
         <v>7149.3976</v>
       </c>
       <c r="G34" t="n">
-        <v>-188400957.1921289</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>5.864</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1487,23 @@
         <v>5624.2205</v>
       </c>
       <c r="G35" t="n">
-        <v>-188395332.9716289</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>5.86</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1525,23 @@
         <v>12015.8554</v>
       </c>
       <c r="G36" t="n">
-        <v>-188395332.9716289</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>5.863</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,22 +1563,23 @@
         <v>10061.5838</v>
       </c>
       <c r="G37" t="n">
-        <v>-188385271.3878289</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>5.863</v>
       </c>
       <c r="I37" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1640,24 +1601,23 @@
         <v>7648.9817</v>
       </c>
       <c r="G38" t="n">
-        <v>-188392920.3695289</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>5.901</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1679,24 +1639,23 @@
         <v>17640.0759</v>
       </c>
       <c r="G39" t="n">
-        <v>-188392920.3695289</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>5.871</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,18 +1677,23 @@
         <v>4511.8214</v>
       </c>
       <c r="G40" t="n">
-        <v>-188388408.5481289</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>5.871</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1751,18 +1715,23 @@
         <v>800.9838999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-188388408.5481289</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>5.912</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1784,18 +1753,21 @@
         <v>223386.4652</v>
       </c>
       <c r="G42" t="n">
-        <v>-188388408.5481289</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1817,22 +1789,23 @@
         <v>16756.8371</v>
       </c>
       <c r="G43" t="n">
-        <v>-188405165.3852289</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>5.912</v>
       </c>
       <c r="I43" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1854,26 +1827,23 @@
         <v>220072.4171</v>
       </c>
       <c r="G44" t="n">
-        <v>-188185092.9681289</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>5.885</v>
       </c>
       <c r="I44" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1895,26 +1865,21 @@
         <v>104497.2363</v>
       </c>
       <c r="G45" t="n">
-        <v>-188080595.7318289</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>5.929</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1936,26 +1901,21 @@
         <v>19782.5184</v>
       </c>
       <c r="G46" t="n">
-        <v>-188080595.7318289</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1977,26 +1937,21 @@
         <v>6419.0154</v>
       </c>
       <c r="G47" t="n">
-        <v>-188087014.7472289</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>5.945</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2018,26 +1973,21 @@
         <v>9145.431699999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-188087014.7472289</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2059,26 +2009,23 @@
         <v>72000</v>
       </c>
       <c r="G49" t="n">
-        <v>-188015014.7472289</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>5.901</v>
       </c>
       <c r="I49" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J49" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2100,26 +2047,21 @@
         <v>928000.2097</v>
       </c>
       <c r="G50" t="n">
-        <v>-188015014.7472289</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="J50" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2141,26 +2083,21 @@
         <v>22907.8354</v>
       </c>
       <c r="G51" t="n">
-        <v>-188037922.5826289</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>5.935</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2182,26 +2119,21 @@
         <v>16823.6288</v>
       </c>
       <c r="G52" t="n">
-        <v>-188021098.9538289</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2223,24 +2155,21 @@
         <v>29442.1269</v>
       </c>
       <c r="G53" t="n">
-        <v>-187991656.8269289</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2262,24 +2191,21 @@
         <v>156338.7543</v>
       </c>
       <c r="G54" t="n">
-        <v>-188147995.5812289</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2301,24 +2227,21 @@
         <v>2891</v>
       </c>
       <c r="G55" t="n">
-        <v>-188145104.5812289</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2340,24 +2263,21 @@
         <v>133874.2448</v>
       </c>
       <c r="G56" t="n">
-        <v>-188011230.3364289</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2379,24 +2299,21 @@
         <v>183763.8957</v>
       </c>
       <c r="G57" t="n">
-        <v>-187827466.4407289</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2418,24 +2335,21 @@
         <v>3858.1365</v>
       </c>
       <c r="G58" t="n">
-        <v>-187831324.5772289</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,24 +2371,21 @@
         <v>27682.8065</v>
       </c>
       <c r="G59" t="n">
-        <v>-187859007.3837289</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2496,24 +2407,21 @@
         <v>38506.8703</v>
       </c>
       <c r="G60" t="n">
-        <v>-187820500.5134289</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2535,24 +2443,21 @@
         <v>142373.0879</v>
       </c>
       <c r="G61" t="n">
-        <v>-187962873.6013289</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2574,24 +2479,21 @@
         <v>97994.5659</v>
       </c>
       <c r="G62" t="n">
-        <v>-188060868.1672289</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2613,26 +2515,21 @@
         <v>77470.8331</v>
       </c>
       <c r="G63" t="n">
-        <v>-188138339.0003289</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>5.921</v>
-      </c>
-      <c r="J63" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2654,26 +2551,21 @@
         <v>176495.2519</v>
       </c>
       <c r="G64" t="n">
-        <v>-188138339.0003289</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2695,26 +2587,21 @@
         <v>104649.0934</v>
       </c>
       <c r="G65" t="n">
-        <v>-188242988.0937289</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2736,26 +2623,21 @@
         <v>12006</v>
       </c>
       <c r="G66" t="n">
-        <v>-188242988.0937289</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2777,26 +2659,21 @@
         <v>28974</v>
       </c>
       <c r="G67" t="n">
-        <v>-188271962.0937289</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>5.911</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2818,26 +2695,21 @@
         <v>41825</v>
       </c>
       <c r="G68" t="n">
-        <v>-188271962.0937289</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2859,26 +2731,21 @@
         <v>109050</v>
       </c>
       <c r="G69" t="n">
-        <v>-188162912.0937289</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>5.901</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2900,26 +2767,21 @@
         <v>13556</v>
       </c>
       <c r="G70" t="n">
-        <v>-188176468.0937289</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>5.903</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2941,26 +2803,21 @@
         <v>64912.0743</v>
       </c>
       <c r="G71" t="n">
-        <v>-188111556.0194289</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>5.902</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2982,26 +2839,21 @@
         <v>93987.98940000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-188017568.0300289</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>5.964</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3023,26 +2875,21 @@
         <v>310706.337</v>
       </c>
       <c r="G73" t="n">
-        <v>-188017568.0300289</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>5.971</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3064,26 +2911,21 @@
         <v>513931.25</v>
       </c>
       <c r="G74" t="n">
-        <v>-188017568.0300289</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>5.971</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3105,26 +2947,21 @@
         <v>86018.1553</v>
       </c>
       <c r="G75" t="n">
-        <v>-188017568.0300289</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>5.971</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3146,26 +2983,21 @@
         <v>245263.2094</v>
       </c>
       <c r="G76" t="n">
-        <v>-188017568.0300289</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>5.971</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3187,26 +3019,21 @@
         <v>51000</v>
       </c>
       <c r="G77" t="n">
-        <v>-188017568.0300289</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>5.971</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3228,26 +3055,21 @@
         <v>414202.1066</v>
       </c>
       <c r="G78" t="n">
-        <v>-187603365.9234289</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>5.971</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3269,26 +3091,21 @@
         <v>379747.427</v>
       </c>
       <c r="G79" t="n">
-        <v>-187983113.3504289</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3310,26 +3127,21 @@
         <v>44171.4891</v>
       </c>
       <c r="G80" t="n">
-        <v>-187938941.8613289</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>5.943</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3351,24 +3163,21 @@
         <v>207277.3298</v>
       </c>
       <c r="G81" t="n">
-        <v>-187731664.5315289</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3390,24 +3199,21 @@
         <v>65887</v>
       </c>
       <c r="G82" t="n">
-        <v>-187797551.5315289</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3429,24 +3235,21 @@
         <v>75770</v>
       </c>
       <c r="G83" t="n">
-        <v>-187873321.5315289</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3468,24 +3271,21 @@
         <v>3856</v>
       </c>
       <c r="G84" t="n">
-        <v>-187877177.5315289</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3507,24 +3307,21 @@
         <v>186375</v>
       </c>
       <c r="G85" t="n">
-        <v>-187690802.5315289</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3546,26 +3343,21 @@
         <v>44277</v>
       </c>
       <c r="G86" t="n">
-        <v>-187690802.5315289</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>5.982</v>
-      </c>
-      <c r="J86" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3587,24 +3379,21 @@
         <v>42480</v>
       </c>
       <c r="G87" t="n">
-        <v>-187648322.5315289</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3626,24 +3415,21 @@
         <v>8312.5</v>
       </c>
       <c r="G88" t="n">
-        <v>-187656635.0315289</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3665,26 +3451,21 @@
         <v>92645</v>
       </c>
       <c r="G89" t="n">
-        <v>-187563990.0315289</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>5.989</v>
-      </c>
-      <c r="J89" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>5.859</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3706,24 +3487,21 @@
         <v>14697.3885</v>
       </c>
       <c r="G90" t="n">
-        <v>-187563990.0315289</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3745,24 +3523,21 @@
         <v>116935.9075</v>
       </c>
       <c r="G91" t="n">
-        <v>-187680925.9390289</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5.912</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1.014451962110961</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3784,18 +3559,21 @@
         <v>6264.7257</v>
       </c>
       <c r="G92" t="n">
-        <v>-187687190.6647289</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3817,18 +3595,21 @@
         <v>28723.751</v>
       </c>
       <c r="G93" t="n">
-        <v>-187658466.9137289</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3850,18 +3631,21 @@
         <v>165674.95029821</v>
       </c>
       <c r="G94" t="n">
-        <v>-187658466.9137289</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3883,18 +3667,21 @@
         <v>175</v>
       </c>
       <c r="G95" t="n">
-        <v>-187658641.9137289</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3916,18 +3703,21 @@
         <v>495.7365</v>
       </c>
       <c r="G96" t="n">
-        <v>-187658146.1772289</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3949,18 +3739,21 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>-187658246.1772289</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3982,18 +3775,21 @@
         <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>-187658146.1772289</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4015,18 +3811,21 @@
         <v>8471.148300000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-187649675.0289289</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4048,18 +3847,21 @@
         <v>65757.8815</v>
       </c>
       <c r="G100" t="n">
-        <v>-187649675.0289289</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4081,18 +3883,21 @@
         <v>138030.0094</v>
       </c>
       <c r="G101" t="n">
-        <v>-187649675.0289289</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4114,18 +3919,21 @@
         <v>365325.5757</v>
       </c>
       <c r="G102" t="n">
-        <v>-187284349.4532289</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4147,18 +3955,21 @@
         <v>495860.1774</v>
       </c>
       <c r="G103" t="n">
-        <v>-186788489.2758289</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4180,18 +3991,21 @@
         <v>637188.5459</v>
       </c>
       <c r="G104" t="n">
-        <v>-186151300.7299289</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4213,18 +4027,21 @@
         <v>113216.4855</v>
       </c>
       <c r="G105" t="n">
-        <v>-186038084.2444289</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4246,18 +4063,21 @@
         <v>224247.2988</v>
       </c>
       <c r="G106" t="n">
-        <v>-186262331.5432289</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4279,18 +4099,21 @@
         <v>600000</v>
       </c>
       <c r="G107" t="n">
-        <v>-186262331.5432289</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4312,18 +4135,21 @@
         <v>121132.1266</v>
       </c>
       <c r="G108" t="n">
-        <v>-186383463.6698289</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4345,18 +4171,21 @@
         <v>49522.6066</v>
       </c>
       <c r="G109" t="n">
-        <v>-186333941.0632289</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4378,18 +4207,21 @@
         <v>364861.9677</v>
       </c>
       <c r="G110" t="n">
-        <v>-186333941.0632289</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4411,18 +4243,21 @@
         <v>201977.945</v>
       </c>
       <c r="G111" t="n">
-        <v>-186535919.0082289</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4444,18 +4279,21 @@
         <v>91253.1556</v>
       </c>
       <c r="G112" t="n">
-        <v>-186444665.8526289</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4477,18 +4315,21 @@
         <v>15660.5393</v>
       </c>
       <c r="G113" t="n">
-        <v>-186429005.3133289</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4510,18 +4351,21 @@
         <v>17829.9436</v>
       </c>
       <c r="G114" t="n">
-        <v>-186446835.2569289</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4543,18 +4387,21 @@
         <v>12364.4799</v>
       </c>
       <c r="G115" t="n">
-        <v>-186434470.7770289</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4576,18 +4423,21 @@
         <v>12000</v>
       </c>
       <c r="G116" t="n">
-        <v>-186446470.7770289</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>5.859</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1.03084229390681</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4609,18 +4459,15 @@
         <v>24000</v>
       </c>
       <c r="G117" t="n">
-        <v>-186422470.7770289</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4642,18 +4489,15 @@
         <v>12000</v>
       </c>
       <c r="G118" t="n">
-        <v>-186410470.7770289</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4675,18 +4519,15 @@
         <v>7157.0203</v>
       </c>
       <c r="G119" t="n">
-        <v>-186417627.7973289</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4708,18 +4549,15 @@
         <v>5577.8953</v>
       </c>
       <c r="G120" t="n">
-        <v>-186412049.9020289</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4741,18 +4579,15 @@
         <v>207.5163</v>
       </c>
       <c r="G121" t="n">
-        <v>-186411842.3857289</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4774,18 +4609,15 @@
         <v>16305.23398031</v>
       </c>
       <c r="G122" t="n">
-        <v>-186395537.1517486</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4807,18 +4639,15 @@
         <v>35990.473</v>
       </c>
       <c r="G123" t="n">
-        <v>-186431527.6247486</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4840,18 +4669,15 @@
         <v>181993.8357</v>
       </c>
       <c r="G124" t="n">
-        <v>-186613521.4604486</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4873,18 +4699,15 @@
         <v>1285.1518</v>
       </c>
       <c r="G125" t="n">
-        <v>-186613521.4604486</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4906,18 +4729,15 @@
         <v>219000</v>
       </c>
       <c r="G126" t="n">
-        <v>-186394521.4604486</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4939,18 +4759,15 @@
         <v>17354.1797</v>
       </c>
       <c r="G127" t="n">
-        <v>-186411875.6401486</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4972,18 +4789,15 @@
         <v>2390.2078</v>
       </c>
       <c r="G128" t="n">
-        <v>-186414265.8479486</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5005,18 +4819,15 @@
         <v>32956.6488</v>
       </c>
       <c r="G129" t="n">
-        <v>-186447222.4967486</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5038,18 +4849,15 @@
         <v>12629.9124</v>
       </c>
       <c r="G130" t="n">
-        <v>-186459852.4091486</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5071,18 +4879,15 @@
         <v>19284.0241</v>
       </c>
       <c r="G131" t="n">
-        <v>-186440568.3850486</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5104,18 +4909,15 @@
         <v>1351.4441</v>
       </c>
       <c r="G132" t="n">
-        <v>-186441919.8291486</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5137,18 +4939,15 @@
         <v>4112.2946</v>
       </c>
       <c r="G133" t="n">
-        <v>-186446032.1237486</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5170,18 +4969,15 @@
         <v>1850.4501</v>
       </c>
       <c r="G134" t="n">
-        <v>-186446032.1237486</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5203,18 +4999,15 @@
         <v>21639.2181</v>
       </c>
       <c r="G135" t="n">
-        <v>-186446032.1237486</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5236,18 +5029,15 @@
         <v>78472.72169999999</v>
       </c>
       <c r="G136" t="n">
-        <v>-186446032.1237486</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5269,18 +5059,15 @@
         <v>4553.687</v>
       </c>
       <c r="G137" t="n">
-        <v>-186450585.8107486</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5302,18 +5089,15 @@
         <v>8178.4179</v>
       </c>
       <c r="G138" t="n">
-        <v>-186458764.2286486</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5335,18 +5119,15 @@
         <v>3942.4702</v>
       </c>
       <c r="G139" t="n">
-        <v>-186458764.2286486</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5368,18 +5149,15 @@
         <v>120712.8991</v>
       </c>
       <c r="G140" t="n">
-        <v>-186579477.1277486</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5401,18 +5179,15 @@
         <v>9434.763999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>-186588911.8917486</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5434,18 +5209,15 @@
         <v>7871.6306</v>
       </c>
       <c r="G142" t="n">
-        <v>-186596783.5223486</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5467,18 +5239,15 @@
         <v>86993.26850000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-186509790.2538486</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5500,18 +5269,15 @@
         <v>28333.3673</v>
       </c>
       <c r="G144" t="n">
-        <v>-186509790.2538486</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5533,18 +5299,15 @@
         <v>132905.2833</v>
       </c>
       <c r="G145" t="n">
-        <v>-186642695.5371486</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5566,18 +5329,15 @@
         <v>26481.9081</v>
       </c>
       <c r="G146" t="n">
-        <v>-186669177.4452486</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5599,18 +5359,15 @@
         <v>15673.0109</v>
       </c>
       <c r="G147" t="n">
-        <v>-186684850.4561486</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5632,18 +5389,15 @@
         <v>98287.9596</v>
       </c>
       <c r="G148" t="n">
-        <v>-186586562.4965486</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5665,18 +5419,15 @@
         <v>18000</v>
       </c>
       <c r="G149" t="n">
-        <v>-186568562.4965486</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5698,18 +5449,15 @@
         <v>3469.6516</v>
       </c>
       <c r="G150" t="n">
-        <v>-186565092.8449486</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5731,18 +5479,15 @@
         <v>14047.0752</v>
       </c>
       <c r="G151" t="n">
-        <v>-186579139.9201486</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5764,18 +5509,15 @@
         <v>19464</v>
       </c>
       <c r="G152" t="n">
-        <v>-186559675.9201486</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5797,18 +5539,15 @@
         <v>9602.6018</v>
       </c>
       <c r="G153" t="n">
-        <v>-186559675.9201486</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5830,18 +5569,15 @@
         <v>295.6405</v>
       </c>
       <c r="G154" t="n">
-        <v>-186559971.5606486</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5863,18 +5599,15 @@
         <v>15813.001</v>
       </c>
       <c r="G155" t="n">
-        <v>-186544158.5596486</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5896,18 +5629,15 @@
         <v>1581.0962</v>
       </c>
       <c r="G156" t="n">
-        <v>-186544158.5596486</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5929,18 +5659,15 @@
         <v>106074.6846</v>
       </c>
       <c r="G157" t="n">
-        <v>-186650233.2442486</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5962,18 +5689,15 @@
         <v>14778.0367</v>
       </c>
       <c r="G158" t="n">
-        <v>-186635455.2075486</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5995,18 +5719,15 @@
         <v>60675.0127</v>
       </c>
       <c r="G159" t="n">
-        <v>-186696130.2202486</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6028,18 +5749,15 @@
         <v>3346.1331</v>
       </c>
       <c r="G160" t="n">
-        <v>-186692784.0871486</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6061,18 +5779,15 @@
         <v>6896.936</v>
       </c>
       <c r="G161" t="n">
-        <v>-186699681.0231486</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6094,18 +5809,15 @@
         <v>452892.9002</v>
       </c>
       <c r="G162" t="n">
-        <v>-186246788.1229486</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6127,18 +5839,15 @@
         <v>187.8941</v>
       </c>
       <c r="G163" t="n">
-        <v>-186246976.0170486</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6160,18 +5869,15 @@
         <v>6723</v>
       </c>
       <c r="G164" t="n">
-        <v>-186253699.0170486</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6193,18 +5899,15 @@
         <v>10979.9497</v>
       </c>
       <c r="G165" t="n">
-        <v>-186264678.9667486</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6226,18 +5929,15 @@
         <v>172970.2285</v>
       </c>
       <c r="G166" t="n">
-        <v>-186091708.7382486</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6259,18 +5959,15 @@
         <v>7480.718</v>
       </c>
       <c r="G167" t="n">
-        <v>-186099189.4562486</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6292,18 +5989,15 @@
         <v>9278.0605</v>
       </c>
       <c r="G168" t="n">
-        <v>-186108467.5167485</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6325,18 +6019,15 @@
         <v>16991.9793</v>
       </c>
       <c r="G169" t="n">
-        <v>-186091475.5374486</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6358,18 +6049,15 @@
         <v>16994.9644</v>
       </c>
       <c r="G170" t="n">
-        <v>-186108470.5018485</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6391,18 +6079,15 @@
         <v>58481.0878</v>
       </c>
       <c r="G171" t="n">
-        <v>-186049989.4140486</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
